--- a/Clustering_results.xlsx
+++ b/Clustering_results.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Z00BGPL/Desktop/GEP_NG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4197BE-1070-404D-B1A4-DA6DF57D4F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C644B-86A4-0749-8FD7-6DE082A971DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{367638C0-19CC-6049-B6CD-C0058C056765}"/>
+    <workbookView xWindow="55160" yWindow="4480" windowWidth="34560" windowHeight="19880" xr2:uid="{367638C0-19CC-6049-B6CD-C0058C056765}"/>
   </bookViews>
   <sheets>
     <sheet name="2015 clusters" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_2015_clusters_results_5" localSheetId="0">'2015 clusters'!$B$3:$E$74</definedName>
-    <definedName name="_2016_clusters_results" localSheetId="0">'2015 clusters'!$F$3:$I$74</definedName>
-    <definedName name="_2017_clusters_results" localSheetId="0">'2015 clusters'!$J$3:$M$74</definedName>
-    <definedName name="_2018_clusters_results" localSheetId="0">'2015 clusters'!$N$3:$Q$74</definedName>
-    <definedName name="all_clusters_results" localSheetId="0">'2015 clusters'!$R$3:$U$74</definedName>
+    <definedName name="_2015_clusters_results_5" localSheetId="0">'2015 clusters'!$B$4:$E$75</definedName>
+    <definedName name="_2016_clusters_results" localSheetId="0">'2015 clusters'!$F$4:$I$75</definedName>
+    <definedName name="_2017_clusters_results" localSheetId="0">'2015 clusters'!$J$4:$M$75</definedName>
+    <definedName name="_2018_clusters_results" localSheetId="0">'2015 clusters'!$N$4:$Q$75</definedName>
+    <definedName name="all_clusters_results" localSheetId="0">'2015 clusters'!$R$4:$U$75</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{F018701A-FA53-F34B-9474-D44618D3DC04}" name="2015_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2015_clusters_results" comma="1">
+    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2015_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{E131A6F4-4288-A24D-A377-ACF3BA40AD26}" name="2016_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2016_clusters_results" comma="1">
+    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2016_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -66,7 +66,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{90F17962-1D8E-594F-896B-549C882DDDF0}" name="2017_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2017_clusters_results" comma="1">
+    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2017_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -76,7 +76,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{F325D0C1-508D-414A-B14D-6F4AA56D92F5}" name="2018_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2018_clusters_results" comma="1">
+    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2018_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -86,7 +86,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{52BEB39A-D7A9-B646-BB1B-99B2EC2BA020}" name="all_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/all_clusters_results" comma="1">
+    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/all_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Day 1</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Weights</t>
   </si>
 </sst>
 </file>
@@ -188,23 +191,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2016_clusters_results" connectionId="2" xr16:uid="{1904032D-22FA-4B40-B581-F34B38A6604E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_2015_clusters_results_5" connectionId="1" xr16:uid="{F705815C-5E4D-8849-A96B-69A37F587B80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_clusters_results" connectionId="5" xr16:uid="{6FABED0F-462E-4642-A065-E7617F74113C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018_clusters_results" connectionId="4" xr16:uid="{A4BED521-F1B6-5E47-AE33-15F55095CF9A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2017_clusters_results" connectionId="3" xr16:uid="{5D01736C-0E13-A84C-BBD6-1D28DACAC877}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2016_clusters_results" connectionId="2" xr16:uid="{1904032D-22FA-4B40-B581-F34B38A6604E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_2015_clusters_results_5" connectionId="1" xr16:uid="{F705815C-5E4D-8849-A96B-69A37F587B80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C53ABA-2841-0545-A33C-042131D80800}">
-  <dimension ref="A1:BU74"/>
+  <dimension ref="A1:BU75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,183 +620,133 @@
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>143</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>135</v>
+      </c>
+      <c r="I3">
+        <v>65</v>
+      </c>
+      <c r="J3">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>227</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>47</v>
+      </c>
+      <c r="N3">
+        <v>198</v>
+      </c>
+      <c r="O3">
+        <v>32</v>
+      </c>
+      <c r="P3">
+        <v>62</v>
+      </c>
+      <c r="Q3">
+        <v>73</v>
+      </c>
+      <c r="R3">
+        <v>92</v>
+      </c>
+      <c r="S3">
+        <v>839</v>
+      </c>
+      <c r="T3">
+        <v>253</v>
+      </c>
+      <c r="U3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>0.58484496814973097</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>0.66213315350971103</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>0.62743763288906096</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>0.192605593859107</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>0.61951725404640101</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="1">
         <v>0.63809430966771497</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>0.78860654376349404</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="1">
         <v>0.67060069974868097</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>0.63987893826603504</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K4" s="1">
         <v>0.71106568577081497</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L4" s="1">
         <v>0.62983870967741895</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M4" s="1">
         <v>0.61413072171479799</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N4" s="1">
         <v>0.67585407084289695</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O4" s="1">
         <v>0.61572092759360997</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P4" s="1">
         <v>0.626011093282419</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q4" s="1">
         <v>0.75042866965442301</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R4" s="1">
         <v>0.61759209244897595</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S4" s="1">
         <v>0.70476305276033702</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T4" s="1">
         <v>0.66157708237689095</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U4" s="1">
         <v>0.58699134983039103</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1">
-        <v>0.54246532423171301</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.631921058270416</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.58776571059931904</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.171614905588891</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.58295292151794298</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.60075759685820096</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.76620874558094199</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.63751539939880697</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.60591961801639205</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.68222773034837803</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.59352357320099203</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.576005754712</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.64080818919854698</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.570468903528349</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.58604133316261198</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.72245757632500995</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.57739376786665197</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.67527791290600903</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.62621888192197395</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.55042524328638798</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -851,64 +804,64 @@
     <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
-        <v>0.51099108864716303</v>
+        <v>0.54246532423171301</v>
       </c>
       <c r="C5" s="1">
-        <v>0.600207734096323</v>
+        <v>0.631921058270416</v>
       </c>
       <c r="D5" s="1">
-        <v>0.55434122137866904</v>
+        <v>0.58776571059931904</v>
       </c>
       <c r="E5" s="1">
-        <v>0.15006721142646101</v>
+        <v>0.171614905588891</v>
       </c>
       <c r="F5" s="1">
-        <v>0.54464145719751</v>
+        <v>0.58295292151794298</v>
       </c>
       <c r="G5" s="1">
-        <v>0.56013425061972499</v>
+        <v>0.60075759685820096</v>
       </c>
       <c r="H5" s="1">
-        <v>0.73543075426483395</v>
+        <v>0.76620874558094199</v>
       </c>
       <c r="I5" s="1">
-        <v>0.60211895727590803</v>
+        <v>0.63751539939880697</v>
       </c>
       <c r="J5" s="1">
-        <v>0.57496804270997803</v>
+        <v>0.60591961801639205</v>
       </c>
       <c r="K5" s="1">
-        <v>0.65182797520796598</v>
+        <v>0.68222773034837803</v>
       </c>
       <c r="L5" s="1">
-        <v>0.56204714640198505</v>
+        <v>0.59352357320099203</v>
       </c>
       <c r="M5" s="1">
-        <v>0.54684282772820803</v>
+        <v>0.576005754712</v>
       </c>
       <c r="N5" s="1">
-        <v>0.60652195106820495</v>
+        <v>0.64080818919854698</v>
       </c>
       <c r="O5" s="1">
-        <v>0.53055489634226805</v>
+        <v>0.570468903528349</v>
       </c>
       <c r="P5" s="1">
-        <v>0.54719869877760197</v>
+        <v>0.58604133316261198</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.68889556792679196</v>
+        <v>0.72245757632500995</v>
       </c>
       <c r="R5" s="1">
-        <v>0.54125758362814502</v>
+        <v>0.57739376786665197</v>
       </c>
       <c r="S5" s="1">
-        <v>0.64303894281345098</v>
+        <v>0.67527791290600903</v>
       </c>
       <c r="T5" s="1">
-        <v>0.59212425823177905</v>
+        <v>0.62621888192197395</v>
       </c>
       <c r="U5" s="1">
-        <v>0.51640247907225301</v>
+        <v>0.55042524328638798</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -966,64 +919,64 @@
     <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
-        <v>0.48916361608737102</v>
+        <v>0.51099108864716303</v>
       </c>
       <c r="C6" s="1">
-        <v>0.58345831075034305</v>
+        <v>0.600207734096323</v>
       </c>
       <c r="D6" s="1">
-        <v>0.53614995803697096</v>
+        <v>0.55434122137866904</v>
       </c>
       <c r="E6" s="1">
-        <v>0.137870543304103</v>
+        <v>0.15006721142646101</v>
       </c>
       <c r="F6" s="1">
-        <v>0.52680055370638301</v>
+        <v>0.54464145719751</v>
       </c>
       <c r="G6" s="1">
-        <v>0.53935604267052795</v>
+        <v>0.56013425061972499</v>
       </c>
       <c r="H6" s="1">
-        <v>0.71582793555887703</v>
+        <v>0.73543075426483395</v>
       </c>
       <c r="I6" s="1">
-        <v>0.58237323214901604</v>
+        <v>0.60211895727590803</v>
       </c>
       <c r="J6" s="1">
-        <v>0.55733513798029899</v>
+        <v>0.57496804270997803</v>
       </c>
       <c r="K6" s="1">
-        <v>0.63345530765951297</v>
+        <v>0.65182797520796598</v>
       </c>
       <c r="L6" s="1">
-        <v>0.54353598014888305</v>
+        <v>0.56204714640198505</v>
       </c>
       <c r="M6" s="1">
-        <v>0.528951744892033</v>
+        <v>0.54684282772820803</v>
       </c>
       <c r="N6" s="1">
-        <v>0.59025903933314094</v>
+        <v>0.60652195106820495</v>
       </c>
       <c r="O6" s="1">
-        <v>0.51698189408567397</v>
+        <v>0.53055489634226805</v>
       </c>
       <c r="P6" s="1">
-        <v>0.53108677243783398</v>
+        <v>0.54719869877760197</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.67295138137634203</v>
+        <v>0.68889556792679196</v>
       </c>
       <c r="R6" s="1">
-        <v>0.522909667924912</v>
+        <v>0.54125758362814502</v>
       </c>
       <c r="S6" s="1">
-        <v>0.62545845902852204</v>
+        <v>0.64303894281345098</v>
       </c>
       <c r="T6" s="1">
-        <v>0.57455187678063202</v>
+        <v>0.59212425823177905</v>
       </c>
       <c r="U6" s="1">
-        <v>0.499130846107812</v>
+        <v>0.51640247907225301</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1081,2844 +1034,2896 @@
     <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
-        <v>0.49398707262629499</v>
+        <v>0.48916361608737102</v>
       </c>
       <c r="C7" s="1">
-        <v>0.59476234291692298</v>
+        <v>0.58345831075034305</v>
       </c>
       <c r="D7" s="1">
-        <v>0.544571496668248</v>
+        <v>0.53614995803697096</v>
       </c>
       <c r="E7" s="1">
-        <v>0.14697170447139399</v>
+        <v>0.137870543304103</v>
       </c>
       <c r="F7" s="1">
-        <v>0.53389211685175797</v>
+        <v>0.52680055370638301</v>
       </c>
       <c r="G7" s="1">
-        <v>0.546862379188368</v>
+        <v>0.53935604267052795</v>
       </c>
       <c r="H7" s="1">
-        <v>0.71168291930623695</v>
+        <v>0.71582793555887703</v>
       </c>
       <c r="I7" s="1">
-        <v>0.58580298625141602</v>
+        <v>0.58237323214901604</v>
       </c>
       <c r="J7" s="1">
-        <v>0.56059666140311304</v>
+        <v>0.55733513798029899</v>
       </c>
       <c r="K7" s="1">
-        <v>0.63592713241000798</v>
+        <v>0.63345530765951297</v>
       </c>
       <c r="L7" s="1">
-        <v>0.55094292803970202</v>
+        <v>0.54353598014888305</v>
       </c>
       <c r="M7" s="1">
-        <v>0.53834274853492403</v>
+        <v>0.528951744892033</v>
       </c>
       <c r="N7" s="1">
-        <v>0.59471375732359899</v>
+        <v>0.59025903933314094</v>
       </c>
       <c r="O7" s="1">
-        <v>0.52428118812429003</v>
+        <v>0.51698189408567397</v>
       </c>
       <c r="P7" s="1">
-        <v>0.53735070358299797</v>
+        <v>0.53108677243783398</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.67794893368612097</v>
+        <v>0.67295138137634203</v>
       </c>
       <c r="R7" s="1">
-        <v>0.52958559769166402</v>
+        <v>0.522909667924912</v>
       </c>
       <c r="S7" s="1">
-        <v>0.62960925020322001</v>
+        <v>0.62545845902852204</v>
       </c>
       <c r="T7" s="1">
-        <v>0.57949313829792204</v>
+        <v>0.57455187678063202</v>
       </c>
       <c r="U7" s="1">
-        <v>0.50817578723196499</v>
-      </c>
+        <v>0.499130846107812</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
-        <v>0.51124167730543002</v>
+        <v>0.49398707262629499</v>
       </c>
       <c r="C8" s="1">
-        <v>0.60262418543680696</v>
+        <v>0.59476234291692298</v>
       </c>
       <c r="D8" s="1">
-        <v>0.55713523717418401</v>
+        <v>0.544571496668248</v>
       </c>
       <c r="E8" s="1">
-        <v>0.143357190362185</v>
+        <v>0.14697170447139399</v>
       </c>
       <c r="F8" s="1">
-        <v>0.54808868261782995</v>
+        <v>0.53389211685175797</v>
       </c>
       <c r="G8" s="1">
-        <v>0.56255744645294203</v>
+        <v>0.546862379188368</v>
       </c>
       <c r="H8" s="1">
-        <v>0.70789854556670595</v>
+        <v>0.71168291930623695</v>
       </c>
       <c r="I8" s="1">
-        <v>0.59351007736657901</v>
+        <v>0.58580298625141602</v>
       </c>
       <c r="J8" s="1">
-        <v>0.56906534325889102</v>
+        <v>0.56059666140311304</v>
       </c>
       <c r="K8" s="1">
-        <v>0.63785512838731495</v>
+        <v>0.63592713241000798</v>
       </c>
       <c r="L8" s="1">
-        <v>0.56681141439205895</v>
+        <v>0.55094292803970202</v>
       </c>
       <c r="M8" s="1">
-        <v>0.55600945039860605</v>
+        <v>0.53834274853492403</v>
       </c>
       <c r="N8" s="1">
-        <v>0.60028950224384703</v>
+        <v>0.59471375732359899</v>
       </c>
       <c r="O8" s="1">
-        <v>0.54653178141074898</v>
+        <v>0.52428118812429003</v>
       </c>
       <c r="P8" s="1">
-        <v>0.55699661296220104</v>
+        <v>0.53735070358299797</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.67244568273414396</v>
+        <v>0.67794893368612097</v>
       </c>
       <c r="R8" s="1">
-        <v>0.54726756417738998</v>
+        <v>0.52958559769166402</v>
       </c>
       <c r="S8" s="1">
-        <v>0.63268383607038203</v>
+        <v>0.62960925020322001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.58762489326934697</v>
+        <v>0.57949313829792204</v>
       </c>
       <c r="U8" s="1">
-        <v>0.52336438953064301</v>
+        <v>0.50817578723196499</v>
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
-        <v>0.56559600786758302</v>
+        <v>0.51124167730543002</v>
       </c>
       <c r="C9" s="1">
-        <v>0.64532977047279305</v>
+        <v>0.60262418543680696</v>
       </c>
       <c r="D9" s="1">
-        <v>0.60743726130304798</v>
+        <v>0.55713523717418401</v>
       </c>
       <c r="E9" s="1">
-        <v>0.16639202538093201</v>
+        <v>0.143357190362185</v>
       </c>
       <c r="F9" s="1">
-        <v>0.61323205942040004</v>
+        <v>0.54808868261782995</v>
       </c>
       <c r="G9" s="1">
-        <v>0.63181349747931903</v>
+        <v>0.56255744645294203</v>
       </c>
       <c r="H9" s="1">
-        <v>0.724428784966901</v>
+        <v>0.70789854556670595</v>
       </c>
       <c r="I9" s="1">
-        <v>0.64480855467402498</v>
+        <v>0.59351007736657901</v>
       </c>
       <c r="J9" s="1">
-        <v>0.62050248138957798</v>
+        <v>0.56906534325889102</v>
       </c>
       <c r="K9" s="1">
-        <v>0.67340622642953096</v>
+        <v>0.63785512838731495</v>
       </c>
       <c r="L9" s="1">
-        <v>0.62915632754342399</v>
+        <v>0.56681141439205895</v>
       </c>
       <c r="M9" s="1">
-        <v>0.625765535082625</v>
+        <v>0.55600945039860605</v>
       </c>
       <c r="N9" s="1">
-        <v>0.64360495064720502</v>
+        <v>0.60028950224384703</v>
       </c>
       <c r="O9" s="1">
-        <v>0.61972303111388205</v>
+        <v>0.54653178141074898</v>
       </c>
       <c r="P9" s="1">
-        <v>0.62166011425269596</v>
+        <v>0.55699661296220104</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.69264049139971595</v>
+        <v>0.67244568273414396</v>
       </c>
       <c r="R9" s="1">
-        <v>0.61162915603056001</v>
+        <v>0.54726756417738998</v>
       </c>
       <c r="S9" s="1">
-        <v>0.668205757085509</v>
+        <v>0.63268383607038203</v>
       </c>
       <c r="T9" s="1">
-        <v>0.63563419310842095</v>
+        <v>0.58762489326934697</v>
       </c>
       <c r="U9" s="1">
-        <v>0.586146323397293</v>
+        <v>0.52336438953064301</v>
       </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
-        <v>0.61336330793834803</v>
+        <v>0.56559600786758302</v>
       </c>
       <c r="C10" s="1">
-        <v>0.69194718731487204</v>
+        <v>0.64532977047279305</v>
       </c>
       <c r="D10" s="1">
-        <v>0.65920357167820498</v>
+        <v>0.60743726130304798</v>
       </c>
       <c r="E10" s="1">
-        <v>0.212648537993918</v>
+        <v>0.16639202538093201</v>
       </c>
       <c r="F10" s="1">
-        <v>0.670994924358152</v>
+        <v>0.61323205942040004</v>
       </c>
       <c r="G10" s="1">
-        <v>0.68827117511071501</v>
+        <v>0.63181349747931903</v>
       </c>
       <c r="H10" s="1">
-        <v>0.76876883289439302</v>
+        <v>0.724428784966901</v>
       </c>
       <c r="I10" s="1">
-        <v>0.69882718178682302</v>
+        <v>0.64480855467402498</v>
       </c>
       <c r="J10" s="1">
-        <v>0.67278084818407402</v>
+        <v>0.62050248138957798</v>
       </c>
       <c r="K10" s="1">
-        <v>0.72173183502585203</v>
+        <v>0.67340622642953096</v>
       </c>
       <c r="L10" s="1">
-        <v>0.68243176178660003</v>
+        <v>0.62915632754342399</v>
       </c>
       <c r="M10" s="1">
-        <v>0.67939918694894597</v>
+        <v>0.625765535082625</v>
       </c>
       <c r="N10" s="1">
-        <v>0.70189048033417301</v>
+        <v>0.64360495064720502</v>
       </c>
       <c r="O10" s="1">
-        <v>0.68131023847503402</v>
+        <v>0.61972303111388205</v>
       </c>
       <c r="P10" s="1">
-        <v>0.68508400876733</v>
+        <v>0.62166011425269596</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.74452973386416799</v>
+        <v>0.69264049139971595</v>
       </c>
       <c r="R10" s="1">
-        <v>0.66641824856051901</v>
+        <v>0.61162915603056001</v>
       </c>
       <c r="S10" s="1">
-        <v>0.717980117344865</v>
+        <v>0.668205757085509</v>
       </c>
       <c r="T10" s="1">
-        <v>0.68921208814931501</v>
+        <v>0.63563419310842095</v>
       </c>
       <c r="U10" s="1">
-        <v>0.64258513184770005</v>
+        <v>0.586146323397293</v>
       </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1">
-        <v>0.679581135805848</v>
+        <v>0.61336330793834803</v>
       </c>
       <c r="C11" s="1">
-        <v>0.77441280865170004</v>
+        <v>0.69194718731487204</v>
       </c>
       <c r="D11" s="1">
-        <v>0.74036921080860196</v>
+        <v>0.65920357167820498</v>
       </c>
       <c r="E11" s="1">
-        <v>0.292126883903289</v>
+        <v>0.212648537993918</v>
       </c>
       <c r="F11" s="1">
-        <v>0.74869301102484898</v>
+        <v>0.670994924358152</v>
       </c>
       <c r="G11" s="1">
-        <v>0.76937860345931997</v>
+        <v>0.68827117511071501</v>
       </c>
       <c r="H11" s="1">
-        <v>0.85475122784539803</v>
+        <v>0.76876883289439302</v>
       </c>
       <c r="I11" s="1">
-        <v>0.77999310106933395</v>
+        <v>0.69882718178682302</v>
       </c>
       <c r="J11" s="1">
-        <v>0.74961463267914796</v>
+        <v>0.67278084818407402</v>
       </c>
       <c r="K11" s="1">
-        <v>0.79914818377586605</v>
+        <v>0.72173183502585203</v>
       </c>
       <c r="L11" s="1">
-        <v>0.75792803970223299</v>
+        <v>0.68243176178660003</v>
       </c>
       <c r="M11" s="1">
-        <v>0.75225700860567002</v>
+        <v>0.67939918694894597</v>
       </c>
       <c r="N11" s="1">
-        <v>0.787158620694134</v>
+        <v>0.70189048033417301</v>
       </c>
       <c r="O11" s="1">
-        <v>0.75985981476075304</v>
+        <v>0.68131023847503402</v>
       </c>
       <c r="P11" s="1">
-        <v>0.76718695477858201</v>
+        <v>0.68508400876733</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.83282038234996802</v>
+        <v>0.74452973386416799</v>
       </c>
       <c r="R11" s="1">
-        <v>0.74231948521539903</v>
+        <v>0.66641824856051901</v>
       </c>
       <c r="S11" s="1">
-        <v>0.80041640624672095</v>
+        <v>0.717980117344865</v>
       </c>
       <c r="T11" s="1">
-        <v>0.77065783033948598</v>
+        <v>0.68921208814931501</v>
       </c>
       <c r="U11" s="1">
-        <v>0.72057568032521202</v>
+        <v>0.64258513184770005</v>
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
-        <v>0.71866846490288205</v>
+        <v>0.679581135805848</v>
       </c>
       <c r="C12" s="1">
-        <v>0.81121909071429399</v>
+        <v>0.77441280865170004</v>
       </c>
       <c r="D12" s="1">
-        <v>0.78056998838916403</v>
+        <v>0.74036921080860196</v>
       </c>
       <c r="E12" s="1">
-        <v>0.332887481473298</v>
+        <v>0.292126883903289</v>
       </c>
       <c r="F12" s="1">
-        <v>0.78422250395344495</v>
+        <v>0.74869301102484898</v>
       </c>
       <c r="G12" s="1">
-        <v>0.80533660139821095</v>
+        <v>0.76937860345931997</v>
       </c>
       <c r="H12" s="1">
-        <v>0.88444729162217905</v>
+        <v>0.85475122784539803</v>
       </c>
       <c r="I12" s="1">
-        <v>0.81474892820184197</v>
+        <v>0.77999310106933395</v>
       </c>
       <c r="J12" s="1">
-        <v>0.78543969471388797</v>
+        <v>0.74961463267914796</v>
       </c>
       <c r="K12" s="1">
-        <v>0.83221242662410699</v>
+        <v>0.79914818377586605</v>
       </c>
       <c r="L12" s="1">
-        <v>0.79083126550868399</v>
+        <v>0.75792803970223299</v>
       </c>
       <c r="M12" s="1">
-        <v>0.78487804234200897</v>
+        <v>0.75225700860567002</v>
       </c>
       <c r="N12" s="1">
-        <v>0.82030392122763895</v>
+        <v>0.787158620694134</v>
       </c>
       <c r="O12" s="1">
-        <v>0.78994421895442402</v>
+        <v>0.75985981476075304</v>
       </c>
       <c r="P12" s="1">
-        <v>0.79857620815353103</v>
+        <v>0.76718695477858201</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.86399379721939695</v>
+        <v>0.83282038234996802</v>
       </c>
       <c r="R12" s="1">
-        <v>0.77707661330983202</v>
+        <v>0.74231948521539903</v>
       </c>
       <c r="S12" s="1">
-        <v>0.83408767958455499</v>
+        <v>0.80041640624672095</v>
       </c>
       <c r="T12" s="1">
-        <v>0.80634694019828101</v>
+        <v>0.77065783033948598</v>
       </c>
       <c r="U12" s="1">
-        <v>0.75480858375732796</v>
+        <v>0.72057568032521202</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
-        <v>0.75278363485000899</v>
+        <v>0.71866846490288205</v>
       </c>
       <c r="C13" s="1">
-        <v>0.84471518963409198</v>
+        <v>0.81121909071429399</v>
       </c>
       <c r="D13" s="1">
-        <v>0.818784540515889</v>
+        <v>0.78056998838916403</v>
       </c>
       <c r="E13" s="1">
-        <v>0.36791824006156898</v>
+        <v>0.332887481473298</v>
       </c>
       <c r="F13" s="1">
-        <v>0.81595534510332701</v>
+        <v>0.78422250395344495</v>
       </c>
       <c r="G13" s="1">
-        <v>0.83626716430381798</v>
+        <v>0.80533660139821095</v>
       </c>
       <c r="H13" s="1">
-        <v>0.92624860606923298</v>
+        <v>0.88444729162217905</v>
       </c>
       <c r="I13" s="1">
-        <v>0.84839599862021298</v>
+        <v>0.81474892820184197</v>
       </c>
       <c r="J13" s="1">
-        <v>0.822613542371606</v>
+        <v>0.78543969471388797</v>
       </c>
       <c r="K13" s="1">
-        <v>0.87249401515068703</v>
+        <v>0.83221242662410699</v>
       </c>
       <c r="L13" s="1">
-        <v>0.82410669975186102</v>
+        <v>0.79083126550868399</v>
       </c>
       <c r="M13" s="1">
-        <v>0.81262208964679705</v>
+        <v>0.78487804234200897</v>
       </c>
       <c r="N13" s="1">
-        <v>0.85595862666010902</v>
+        <v>0.82030392122763895</v>
       </c>
       <c r="O13" s="1">
-        <v>0.82192523335534295</v>
+        <v>0.78994421895442402</v>
       </c>
       <c r="P13" s="1">
-        <v>0.83113464671644599</v>
+        <v>0.79857620815353103</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.904251546649673</v>
+        <v>0.86399379721939695</v>
       </c>
       <c r="R13" s="1">
-        <v>0.809568430169327</v>
+        <v>0.77707661330983202</v>
       </c>
       <c r="S13" s="1">
-        <v>0.87170845797654195</v>
+        <v>0.83408767958455499</v>
       </c>
       <c r="T13" s="1">
-        <v>0.84316203234268305</v>
+        <v>0.80634694019828101</v>
       </c>
       <c r="U13" s="1">
-        <v>0.785907277219559</v>
+        <v>0.75480858375732796</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
-        <v>0.76446796876734902</v>
+        <v>0.75278363485000899</v>
       </c>
       <c r="C14" s="1">
-        <v>0.84975819604976199</v>
+        <v>0.84471518963409198</v>
       </c>
       <c r="D14" s="1">
-        <v>0.82747580639484697</v>
+        <v>0.818784540515889</v>
       </c>
       <c r="E14" s="1">
-        <v>0.36927192193539199</v>
+        <v>0.36791824006156898</v>
       </c>
       <c r="F14" s="1">
-        <v>0.82033885397114004</v>
+        <v>0.81595534510332701</v>
       </c>
       <c r="G14" s="1">
-        <v>0.840500793805531</v>
+        <v>0.83626716430381798</v>
       </c>
       <c r="H14" s="1">
-        <v>0.93446034118679799</v>
+        <v>0.92624860606923298</v>
       </c>
       <c r="I14" s="1">
-        <v>0.85461489183462203</v>
+        <v>0.84839599862021298</v>
       </c>
       <c r="J14" s="1">
-        <v>0.82873712309196101</v>
+        <v>0.822613542371606</v>
       </c>
       <c r="K14" s="1">
-        <v>0.87865786338146701</v>
+        <v>0.87249401515068703</v>
       </c>
       <c r="L14" s="1">
-        <v>0.83002481389578098</v>
+        <v>0.82410669975186102</v>
       </c>
       <c r="M14" s="1">
-        <v>0.82062061137215503</v>
+        <v>0.81262208964679705</v>
       </c>
       <c r="N14" s="1">
-        <v>0.863191771666591</v>
+        <v>0.85595862666010902</v>
       </c>
       <c r="O14" s="1">
-        <v>0.83165686102737002</v>
+        <v>0.82192523335534295</v>
       </c>
       <c r="P14" s="1">
-        <v>0.84128499381882405</v>
+        <v>0.83113464671644599</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.91026660345196797</v>
+        <v>0.904251546649673</v>
       </c>
       <c r="R14" s="1">
-        <v>0.81717524311437295</v>
+        <v>0.809568430169327</v>
       </c>
       <c r="S14" s="1">
-        <v>0.87788761200923104</v>
+        <v>0.87170845797654195</v>
       </c>
       <c r="T14" s="1">
-        <v>0.85036706474781498</v>
+        <v>0.84316203234268305</v>
       </c>
       <c r="U14" s="1">
-        <v>0.79264954696185497</v>
+        <v>0.785907277219559</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
-        <v>0.76909830698100901</v>
+        <v>0.76446796876734902</v>
       </c>
       <c r="C15" s="1">
-        <v>0.85042071164777999</v>
+        <v>0.84975819604976199</v>
       </c>
       <c r="D15" s="1">
-        <v>0.82742162358860705</v>
+        <v>0.82747580639484697</v>
       </c>
       <c r="E15" s="1">
-        <v>0.37129401087987202</v>
+        <v>0.36927192193539199</v>
       </c>
       <c r="F15" s="1">
-        <v>0.82245557133449398</v>
+        <v>0.82033885397114004</v>
       </c>
       <c r="G15" s="1">
-        <v>0.84132245216277102</v>
+        <v>0.840500793805531</v>
       </c>
       <c r="H15" s="1">
-        <v>0.93745699575295904</v>
+        <v>0.93446034118679799</v>
       </c>
       <c r="I15" s="1">
-        <v>0.857236485487606</v>
+        <v>0.85461489183462203</v>
       </c>
       <c r="J15" s="1">
-        <v>0.83097413339348802</v>
+        <v>0.82873712309196101</v>
       </c>
       <c r="K15" s="1">
-        <v>0.88361927613384195</v>
+        <v>0.87865786338146701</v>
       </c>
       <c r="L15" s="1">
-        <v>0.830955334987593</v>
+        <v>0.83002481389578098</v>
       </c>
       <c r="M15" s="1">
-        <v>0.82205928937226103</v>
+        <v>0.82062061137215503</v>
       </c>
       <c r="N15" s="1">
-        <v>0.86714452684030197</v>
+        <v>0.863191771666591</v>
       </c>
       <c r="O15" s="1">
-        <v>0.83473999797696696</v>
+        <v>0.83165686102737002</v>
       </c>
       <c r="P15" s="1">
-        <v>0.84511168803638004</v>
+        <v>0.84128499381882405</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.916190008882108</v>
+        <v>0.91026660345196797</v>
       </c>
       <c r="R15" s="1">
-        <v>0.819656841187269</v>
+        <v>0.81717524311437295</v>
       </c>
       <c r="S15" s="1">
-        <v>0.88114028490847796</v>
+        <v>0.87788761200923104</v>
       </c>
       <c r="T15" s="1">
-        <v>0.85303466072142897</v>
+        <v>0.85036706474781498</v>
       </c>
       <c r="U15" s="1">
-        <v>0.79435764285781396</v>
+        <v>0.79264954696185497</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
-        <v>0.77094516039774796</v>
+        <v>0.76909830698100901</v>
       </c>
       <c r="C16" s="1">
-        <v>0.85067654436139495</v>
+        <v>0.85042071164777999</v>
       </c>
       <c r="D16" s="1">
-        <v>0.82737738520979598</v>
+        <v>0.82742162358860705</v>
       </c>
       <c r="E16" s="1">
-        <v>0.36945894987058098</v>
+        <v>0.37129401087987202</v>
       </c>
       <c r="F16" s="1">
-        <v>0.82320370212746896</v>
+        <v>0.82245557133449398</v>
       </c>
       <c r="G16" s="1">
-        <v>0.84189343508898895</v>
+        <v>0.84132245216277102</v>
       </c>
       <c r="H16" s="1">
-        <v>0.93903006145158596</v>
+        <v>0.93745699575295904</v>
       </c>
       <c r="I16" s="1">
-        <v>0.85856206573695304</v>
+        <v>0.857236485487606</v>
       </c>
       <c r="J16" s="1">
-        <v>0.83179656365140198</v>
+        <v>0.83097413339348802</v>
       </c>
       <c r="K16" s="1">
-        <v>0.883999136432701</v>
+        <v>0.88361927613384195</v>
       </c>
       <c r="L16" s="1">
-        <v>0.83312655086848597</v>
+        <v>0.830955334987593</v>
       </c>
       <c r="M16" s="1">
-        <v>0.82180191119793</v>
+        <v>0.82205928937226103</v>
       </c>
       <c r="N16" s="1">
-        <v>0.86859458405682999</v>
+        <v>0.86714452684030197</v>
       </c>
       <c r="O16" s="1">
-        <v>0.83515891280927501</v>
+        <v>0.83473999797696696</v>
       </c>
       <c r="P16" s="1">
-        <v>0.84739086593967905</v>
+        <v>0.84511168803638004</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.91790349221020595</v>
+        <v>0.916190008882108</v>
       </c>
       <c r="R16" s="1">
-        <v>0.82077840369254695</v>
+        <v>0.819656841187269</v>
       </c>
       <c r="S16" s="1">
-        <v>0.88206598572364503</v>
+        <v>0.88114028490847796</v>
       </c>
       <c r="T16" s="1">
-        <v>0.85390338716422898</v>
+        <v>0.85303466072142897</v>
       </c>
       <c r="U16" s="1">
-        <v>0.79485132265479597</v>
+        <v>0.79435764285781396</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1">
-        <v>0.78367761514023604</v>
+        <v>0.77094516039774796</v>
       </c>
       <c r="C17" s="1">
-        <v>0.85523661091294101</v>
+        <v>0.85067654436139495</v>
       </c>
       <c r="D17" s="1">
-        <v>0.83099060902292599</v>
+        <v>0.82737738520979598</v>
       </c>
       <c r="E17" s="1">
-        <v>0.37092329148405601</v>
+        <v>0.36945894987058098</v>
       </c>
       <c r="F17" s="1">
-        <v>0.83089556183726498</v>
+        <v>0.82320370212746896</v>
       </c>
       <c r="G17" s="1">
-        <v>0.84845277553407705</v>
+        <v>0.84189343508898895</v>
       </c>
       <c r="H17" s="1">
-        <v>0.94455595890573396</v>
+        <v>0.93903006145158596</v>
       </c>
       <c r="I17" s="1">
-        <v>0.86549056324841001</v>
+        <v>0.85856206573695304</v>
       </c>
       <c r="J17" s="1">
-        <v>0.83303725844048404</v>
+        <v>0.83179656365140198</v>
       </c>
       <c r="K17" s="1">
-        <v>0.88577682797520696</v>
+        <v>0.883999136432701</v>
       </c>
       <c r="L17" s="1">
-        <v>0.83191066997518603</v>
+        <v>0.83312655086848597</v>
       </c>
       <c r="M17" s="1">
-        <v>0.81990787181247005</v>
+        <v>0.82180191119793</v>
       </c>
       <c r="N17" s="1">
-        <v>0.87791729379903005</v>
+        <v>0.86859458405682999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.84195096942544001</v>
+        <v>0.83515891280927501</v>
       </c>
       <c r="P17" s="1">
-        <v>0.85398663940276798</v>
+        <v>0.84739086593967905</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.92479195367317202</v>
+        <v>0.91790349221020595</v>
       </c>
       <c r="R17" s="1">
-        <v>0.82678508826827202</v>
+        <v>0.82077840369254695</v>
       </c>
       <c r="S17" s="1">
-        <v>0.88725143878546797</v>
+        <v>0.88206598572364503</v>
       </c>
       <c r="T17" s="1">
-        <v>0.85863764221235195</v>
+        <v>0.85390338716422898</v>
       </c>
       <c r="U17" s="1">
-        <v>0.79989726420627605</v>
+        <v>0.79485132265479597</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
-        <v>0.787223969840529</v>
+        <v>0.78367761514023604</v>
       </c>
       <c r="C18" s="1">
-        <v>0.85712121708660505</v>
+        <v>0.85523661091294101</v>
       </c>
       <c r="D18" s="1">
-        <v>0.83561607733179599</v>
+        <v>0.83099060902292599</v>
       </c>
       <c r="E18" s="1">
-        <v>0.37225788130899501</v>
+        <v>0.37092329148405601</v>
       </c>
       <c r="F18" s="1">
-        <v>0.83534626808169399</v>
+        <v>0.83089556183726498</v>
       </c>
       <c r="G18" s="1">
-        <v>0.85459432359412801</v>
+        <v>0.84845277553407705</v>
       </c>
       <c r="H18" s="1">
-        <v>0.94386077300875504</v>
+        <v>0.94455595890573396</v>
       </c>
       <c r="I18" s="1">
-        <v>0.86857044300990405</v>
+        <v>0.86549056324841001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.83553274682306899</v>
+        <v>0.83303725844048404</v>
       </c>
       <c r="K18" s="1">
-        <v>0.888266415977088</v>
+        <v>0.88577682797520696</v>
       </c>
       <c r="L18" s="1">
-        <v>0.83535980148883304</v>
+        <v>0.83191066997518603</v>
       </c>
       <c r="M18" s="1">
-        <v>0.82694287524417898</v>
+        <v>0.81990787181247005</v>
       </c>
       <c r="N18" s="1">
-        <v>0.88231178995677995</v>
+        <v>0.87791729379903005</v>
       </c>
       <c r="O18" s="1">
-        <v>0.84899436762702696</v>
+        <v>0.84195096942544001</v>
       </c>
       <c r="P18" s="1">
-        <v>0.86178629953791497</v>
+        <v>0.85398663940276798</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.92817304723704397</v>
+        <v>0.92479195367317202</v>
       </c>
       <c r="R18" s="1">
-        <v>0.83227641784718698</v>
+        <v>0.82678508826827202</v>
       </c>
       <c r="S18" s="1">
-        <v>0.88931728306150104</v>
+        <v>0.88725143878546797</v>
       </c>
       <c r="T18" s="1">
-        <v>0.86231530478454099</v>
+        <v>0.85863764221235195</v>
       </c>
       <c r="U18" s="1">
-        <v>0.80571761931490304</v>
+        <v>0.79989726420627605</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
-        <v>0.79005217045790699</v>
+        <v>0.787223969840529</v>
       </c>
       <c r="C19" s="1">
-        <v>0.85921253639537598</v>
+        <v>0.85712121708660505</v>
       </c>
       <c r="D19" s="1">
-        <v>0.83831220394866601</v>
+        <v>0.83561607733179599</v>
       </c>
       <c r="E19" s="1">
-        <v>0.37396319052975002</v>
+        <v>0.37225788130899501</v>
       </c>
       <c r="F19" s="1">
-        <v>0.83847766583192496</v>
+        <v>0.83534626808169399</v>
       </c>
       <c r="G19" s="1">
-        <v>0.85864690972899205</v>
+        <v>0.85459432359412801</v>
       </c>
       <c r="H19" s="1">
-        <v>0.94253683536194699</v>
+        <v>0.94386077300875504</v>
       </c>
       <c r="I19" s="1">
-        <v>0.87028039225348597</v>
+        <v>0.86857044300990405</v>
       </c>
       <c r="J19" s="1">
-        <v>0.83755827505827496</v>
+        <v>0.83553274682306899</v>
       </c>
       <c r="K19" s="1">
-        <v>0.89060160033230895</v>
+        <v>0.888266415977088</v>
       </c>
       <c r="L19" s="1">
-        <v>0.83954094292803905</v>
+        <v>0.83535980148883304</v>
       </c>
       <c r="M19" s="1">
-        <v>0.83649886489625602</v>
+        <v>0.82694287524417898</v>
       </c>
       <c r="N19" s="1">
-        <v>0.88244615407118199</v>
+        <v>0.88231178995677995</v>
       </c>
       <c r="O19" s="1">
-        <v>0.854759589414399</v>
+        <v>0.84899436762702696</v>
       </c>
       <c r="P19" s="1">
-        <v>0.86969722951918205</v>
+        <v>0.86178629953791497</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.92695102929242101</v>
+        <v>0.92817304723704397</v>
       </c>
       <c r="R19" s="1">
-        <v>0.83688929594747097</v>
+        <v>0.83227641784718698</v>
       </c>
       <c r="S19" s="1">
-        <v>0.89003965927801698</v>
+        <v>0.88931728306150104</v>
       </c>
       <c r="T19" s="1">
-        <v>0.864407739554514</v>
+        <v>0.86231530478454099</v>
       </c>
       <c r="U19" s="1">
-        <v>0.81135724891467698</v>
+        <v>0.80571761931490304</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
-        <v>0.799718890543474</v>
+        <v>0.79005217045790699</v>
       </c>
       <c r="C20" s="1">
-        <v>0.86423295561969804</v>
+        <v>0.85921253639537598</v>
       </c>
       <c r="D20" s="1">
-        <v>0.84421133651631297</v>
+        <v>0.83831220394866601</v>
       </c>
       <c r="E20" s="1">
-        <v>0.37576117959945898</v>
+        <v>0.37396319052975002</v>
       </c>
       <c r="F20" s="1">
-        <v>0.84586713734695695</v>
+        <v>0.83847766583192496</v>
       </c>
       <c r="G20" s="1">
-        <v>0.86842325153886801</v>
+        <v>0.85864690972899205</v>
       </c>
       <c r="H20" s="1">
-        <v>0.94214297577526196</v>
+        <v>0.94253683536194699</v>
       </c>
       <c r="I20" s="1">
-        <v>0.87516877741092902</v>
+        <v>0.87028039225348597</v>
       </c>
       <c r="J20" s="1">
-        <v>0.83979528535980097</v>
+        <v>0.83755827505827496</v>
       </c>
       <c r="K20" s="1">
-        <v>0.89082569058055705</v>
+        <v>0.89060160033230895</v>
       </c>
       <c r="L20" s="1">
-        <v>0.84630272952853602</v>
+        <v>0.83954094292803905</v>
       </c>
       <c r="M20" s="1">
-        <v>0.85012670925505496</v>
+        <v>0.83649886489625602</v>
       </c>
       <c r="N20" s="1">
-        <v>0.88422157556754599</v>
+        <v>0.88244615407118199</v>
       </c>
       <c r="O20" s="1">
-        <v>0.86619589122934304</v>
+        <v>0.854759589414399</v>
       </c>
       <c r="P20" s="1">
-        <v>0.88189975837192502</v>
+        <v>0.86969722951918205</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.925415554234575</v>
+        <v>0.92695102929242101</v>
       </c>
       <c r="R20" s="1">
-        <v>0.84609964504551105</v>
+        <v>0.83688929594747097</v>
       </c>
       <c r="S20" s="1">
-        <v>0.891489096851665</v>
+        <v>0.89003965927801698</v>
       </c>
       <c r="T20" s="1">
-        <v>0.86842886706269296</v>
+        <v>0.864407739554514</v>
       </c>
       <c r="U20" s="1">
-        <v>0.82138714230216303</v>
+        <v>0.81135724891467698</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
-        <v>0.81963588717688296</v>
+        <v>0.799718890543474</v>
       </c>
       <c r="C21" s="1">
-        <v>0.88880171924827001</v>
+        <v>0.86423295561969804</v>
       </c>
       <c r="D21" s="1">
-        <v>0.86778793700847701</v>
+        <v>0.84421133651631297</v>
       </c>
       <c r="E21" s="1">
-        <v>0.38934063106821298</v>
+        <v>0.37576117959945898</v>
       </c>
       <c r="F21" s="1">
-        <v>0.87946582565416598</v>
+        <v>0.84586713734695695</v>
       </c>
       <c r="G21" s="1">
-        <v>0.90442302871626301</v>
+        <v>0.86842325153886801</v>
       </c>
       <c r="H21" s="1">
-        <v>0.965515932332075</v>
+        <v>0.94214297577526196</v>
       </c>
       <c r="I21" s="1">
-        <v>0.90285812841866597</v>
+        <v>0.87516877741092902</v>
       </c>
       <c r="J21" s="1">
-        <v>0.86388074291299999</v>
+        <v>0.83979528535980097</v>
       </c>
       <c r="K21" s="1">
-        <v>0.91571747138750104</v>
+        <v>0.89082569058055705</v>
       </c>
       <c r="L21" s="1">
-        <v>0.88202233250620299</v>
+        <v>0.84630272952853602</v>
       </c>
       <c r="M21" s="1">
-        <v>0.88066231983527699</v>
+        <v>0.85012670925505496</v>
       </c>
       <c r="N21" s="1">
-        <v>0.90760225150153395</v>
+        <v>0.88422157556754599</v>
       </c>
       <c r="O21" s="1">
-        <v>0.90054658495892403</v>
+        <v>0.86619589122934304</v>
       </c>
       <c r="P21" s="1">
-        <v>0.90645829809197798</v>
+        <v>0.88189975837192502</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.94025453549217597</v>
+        <v>0.925415554234575</v>
       </c>
       <c r="R21" s="1">
-        <v>0.87726372653512796</v>
+        <v>0.84609964504551105</v>
       </c>
       <c r="S21" s="1">
-        <v>0.91586407958649196</v>
+        <v>0.891489096851665</v>
       </c>
       <c r="T21" s="1">
-        <v>0.89267232703018895</v>
+        <v>0.86842886706269296</v>
       </c>
       <c r="U21" s="1">
-        <v>0.84898955732662595</v>
+        <v>0.82138714230216303</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1">
-        <v>0.81865078864902296</v>
+        <v>0.81963588717688296</v>
       </c>
       <c r="C22" s="1">
-        <v>0.89185386389704602</v>
+        <v>0.88880171924827001</v>
       </c>
       <c r="D22" s="1">
-        <v>0.86910502117467303</v>
+        <v>0.86778793700847701</v>
       </c>
       <c r="E22" s="1">
-        <v>0.38990412454985302</v>
+        <v>0.38934063106821298</v>
       </c>
       <c r="F22" s="1">
-        <v>0.87958902084462598</v>
+        <v>0.87946582565416598</v>
       </c>
       <c r="G22" s="1">
-        <v>0.90166559897501597</v>
+        <v>0.90442302871626301</v>
       </c>
       <c r="H22" s="1">
-        <v>0.96693240325527297</v>
+        <v>0.965515932332075</v>
       </c>
       <c r="I22" s="1">
-        <v>0.90440053220322203</v>
+        <v>0.90285812841866597</v>
       </c>
       <c r="J22" s="1">
-        <v>0.87609030754191997</v>
+        <v>0.86388074291299999</v>
       </c>
       <c r="K22" s="1">
-        <v>0.92382297963511495</v>
+        <v>0.91571747138750104</v>
       </c>
       <c r="L22" s="1">
-        <v>0.89026054590570702</v>
+        <v>0.88202233250620299</v>
       </c>
       <c r="M22" s="1">
-        <v>0.88421281875296898</v>
+        <v>0.88066231983527699</v>
       </c>
       <c r="N22" s="1">
-        <v>0.91432028024647904</v>
+        <v>0.90760225150153395</v>
       </c>
       <c r="O22" s="1">
-        <v>0.90095992667344105</v>
+        <v>0.90054658495892403</v>
       </c>
       <c r="P22" s="1">
-        <v>0.90519554808103297</v>
+        <v>0.90645829809197798</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.94789538468687695</v>
+        <v>0.94025453549217597</v>
       </c>
       <c r="R22" s="1">
-        <v>0.87802573076663304</v>
+        <v>0.87726372653512796</v>
       </c>
       <c r="S22" s="1">
-        <v>0.92140732056210095</v>
+        <v>0.91586407958649196</v>
       </c>
       <c r="T22" s="1">
-        <v>0.89750792465035201</v>
+        <v>0.89267232703018895</v>
       </c>
       <c r="U22" s="1">
-        <v>0.84897594210968896</v>
+        <v>0.84898955732662595</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
-        <v>0.809751290006404</v>
+        <v>0.81865078864902296</v>
       </c>
       <c r="C23" s="1">
-        <v>0.88499841183810801</v>
+        <v>0.89185386389704602</v>
       </c>
       <c r="D23" s="1">
-        <v>0.86275266007295204</v>
+        <v>0.86910502117467303</v>
       </c>
       <c r="E23" s="1">
-        <v>0.39249916032056797</v>
+        <v>0.38990412454985302</v>
       </c>
       <c r="F23" s="1">
-        <v>0.87222194845513201</v>
+        <v>0.87958902084462598</v>
       </c>
       <c r="G23" s="1">
-        <v>0.89222349107316901</v>
+        <v>0.90166559897501597</v>
       </c>
       <c r="H23" s="1">
-        <v>0.96418250409281703</v>
+        <v>0.96693240325527297</v>
       </c>
       <c r="I23" s="1">
-        <v>0.90003942246094704</v>
+        <v>0.90440053220322203</v>
       </c>
       <c r="J23" s="1">
-        <v>0.87632058801413604</v>
+        <v>0.87609030754191997</v>
       </c>
       <c r="K23" s="1">
-        <v>0.92211634109815099</v>
+        <v>0.92382297963511495</v>
       </c>
       <c r="L23" s="1">
-        <v>0.884330024813895</v>
+        <v>0.89026054590570702</v>
       </c>
       <c r="M23" s="1">
-        <v>0.87607570877989505</v>
+        <v>0.88421281875296898</v>
       </c>
       <c r="N23" s="1">
-        <v>0.90999808767832002</v>
+        <v>0.91432028024647904</v>
       </c>
       <c r="O23" s="1">
-        <v>0.88927051091657705</v>
+        <v>0.90095992667344105</v>
       </c>
       <c r="P23" s="1">
-        <v>0.894253374950436</v>
+        <v>0.90519554808103297</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.95095507505863897</v>
+        <v>0.94789538468687695</v>
       </c>
       <c r="R23" s="1">
-        <v>0.86889732483573201</v>
+        <v>0.87802573076663304</v>
       </c>
       <c r="S23" s="1">
-        <v>0.91832634866023599</v>
+        <v>0.92140732056210095</v>
       </c>
       <c r="T23" s="1">
-        <v>0.89460937780014105</v>
+        <v>0.89750792465035201</v>
       </c>
       <c r="U23" s="1">
-        <v>0.83922545721944697</v>
+        <v>0.84897594210968896</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1">
-        <v>0.78451446121637802</v>
+        <v>0.809751290006404</v>
       </c>
       <c r="C24" s="1">
-        <v>0.86861127847032205</v>
+        <v>0.88499841183810801</v>
       </c>
       <c r="D24" s="1">
-        <v>0.84369058409228803</v>
+        <v>0.86275266007295204</v>
       </c>
       <c r="E24" s="1">
-        <v>0.38306249810006299</v>
+        <v>0.39249916032056797</v>
       </c>
       <c r="F24" s="1">
-        <v>0.85060903222338202</v>
+        <v>0.87222194845513201</v>
       </c>
       <c r="G24" s="1">
-        <v>0.87279614516892701</v>
+        <v>0.89222349107316901</v>
       </c>
       <c r="H24" s="1">
-        <v>0.95100481647566804</v>
+        <v>0.96418250409281703</v>
       </c>
       <c r="I24" s="1">
-        <v>0.88262455033755405</v>
+        <v>0.90003942246094704</v>
       </c>
       <c r="J24" s="1">
-        <v>0.85441104594330297</v>
+        <v>0.87632058801413604</v>
       </c>
       <c r="K24" s="1">
-        <v>0.90715421781572103</v>
+        <v>0.92211634109815099</v>
       </c>
       <c r="L24" s="1">
-        <v>0.86100496277915595</v>
+        <v>0.884330024813895</v>
       </c>
       <c r="M24" s="1">
-        <v>0.85250910722770701</v>
+        <v>0.87607570877989505</v>
       </c>
       <c r="N24" s="1">
-        <v>0.89044797296760003</v>
+        <v>0.90999808767832002</v>
       </c>
       <c r="O24" s="1">
-        <v>0.86620737355341204</v>
+        <v>0.88927051091657705</v>
       </c>
       <c r="P24" s="1">
-        <v>0.87083205052877999</v>
+        <v>0.894253374950436</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.93891171227136905</v>
+        <v>0.95095507505863897</v>
       </c>
       <c r="R24" s="1">
-        <v>0.84594044188446904</v>
+        <v>0.86889732483573201</v>
       </c>
       <c r="S24" s="1">
-        <v>0.90269284112784898</v>
+        <v>0.91832634866023599</v>
       </c>
       <c r="T24" s="1">
-        <v>0.87663075166759097</v>
+        <v>0.89460937780014105</v>
       </c>
       <c r="U24" s="1">
-        <v>0.81612195116561703</v>
+        <v>0.83922545721944697</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1">
-        <v>0.72201779989760295</v>
+        <v>0.78451446121637802</v>
       </c>
       <c r="C25" s="1">
-        <v>0.80797252227838201</v>
+        <v>0.86861127847032205</v>
       </c>
       <c r="D25" s="1">
-        <v>0.77529813229738798</v>
+        <v>0.84369058409228803</v>
       </c>
       <c r="E25" s="1">
-        <v>0.32745644232458798</v>
+        <v>0.38306249810006299</v>
       </c>
       <c r="F25" s="1">
-        <v>0.78175860014425003</v>
+        <v>0.85060903222338202</v>
       </c>
       <c r="G25" s="1">
-        <v>0.80750912180040602</v>
+        <v>0.87279614516892701</v>
       </c>
       <c r="H25" s="1">
-        <v>0.914454172301706</v>
+        <v>0.95100481647566804</v>
       </c>
       <c r="I25" s="1">
-        <v>0.822835460503621</v>
+        <v>0.88262455033755405</v>
       </c>
       <c r="J25" s="1">
-        <v>0.79305774870291001</v>
+        <v>0.85441104594330297</v>
       </c>
       <c r="K25" s="1">
-        <v>0.85339442069937999</v>
+        <v>0.90715421781572103</v>
       </c>
       <c r="L25" s="1">
-        <v>0.79640198511166205</v>
+        <v>0.86100496277915595</v>
       </c>
       <c r="M25" s="1">
-        <v>0.78359775091072204</v>
+        <v>0.85250910722770701</v>
       </c>
       <c r="N25" s="1">
-        <v>0.83080285485123195</v>
+        <v>0.89044797296760003</v>
       </c>
       <c r="O25" s="1">
-        <v>0.80109585417448503</v>
+        <v>0.86620737355341204</v>
       </c>
       <c r="P25" s="1">
-        <v>0.80453128537589003</v>
+        <v>0.87083205052877999</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.88806465116778299</v>
+        <v>0.93891171227136905</v>
       </c>
       <c r="R25" s="1">
-        <v>0.78166173135063399</v>
+        <v>0.84594044188446904</v>
       </c>
       <c r="S25" s="1">
-        <v>0.84862555663870298</v>
+        <v>0.90269284112784898</v>
       </c>
       <c r="T25" s="1">
-        <v>0.815147405590534</v>
+        <v>0.87663075166759097</v>
       </c>
       <c r="U25" s="1">
-        <v>0.74809817193955397</v>
+        <v>0.81612195116561703</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
+        <v>0.72201779989760295</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.80797252227838201</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.77529813229738798</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.32745644232458798</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.78175860014425003</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.80750912180040602</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.914454172301706</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.822835460503621</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.79305774870291001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.85339442069937999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.79640198511166205</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.78359775091072204</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.83080285485123195</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.80109585417448503</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.80453128537589003</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.88806465116778299</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.78166173135063399</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.84862555663870298</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.815147405590534</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.74809817193955397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1">
         <v>0.67238308913693601</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>0.77223662351739997</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>0.73085247560586897</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>0.29018728002437799</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>0.73584039279106495</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
         <v>0.76035428794251103</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H27" s="1">
         <v>0.89427717275250895</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <v>0.78498497018676305</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J27" s="1">
         <v>0.73655913978494603</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K27" s="1">
         <v>0.81077218220176805</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L27" s="1">
         <v>0.74388337468982602</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M27" s="1">
         <v>0.72963412702602803</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N27" s="1">
         <v>0.79129102178937905</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O27" s="1">
         <v>0.74618942355067897</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P27" s="1">
         <v>0.75357692059998205</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q27" s="1">
         <v>0.85955605981496597</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R27" s="1">
         <v>0.73128730509304696</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S27" s="1">
         <v>0.813298016310807</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T27" s="1">
         <v>0.77149921193724802</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U27" s="1">
         <v>0.69891388148034805</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>0.65921868242756199</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>6.01372351160444E-2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0.32928826975244702</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>9.7227993114501005E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>9.4112749006795393E-2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>0.700127232044926</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>5.5850805396718599E-2</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>0.35682682604983301</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <v>0.27520410971470499</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <v>4.1163422342936601E-2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L28" s="1">
         <v>0.619737638748738</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M28" s="1">
         <v>0.111385447753182</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N28" s="1">
         <v>6.6125431917560998E-2</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O28" s="1">
         <v>0.52860116044399497</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P28" s="1">
         <v>0.16933042544188001</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q28" s="1">
         <v>0.25182809670597001</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R28" s="1">
         <v>0.61986136094414901</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S28" s="1">
         <v>5.9386685172511999E-2</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T28" s="1">
         <v>0.34000869485447999</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U28" s="1">
         <v>0.109862407880309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1">
-        <v>0.66166930949978298</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5.5987891019172599E-2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.32782051450063499</v>
-      </c>
-      <c r="E28" s="1">
-        <v>9.9424229833204703E-2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>8.7204420201392893E-2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.70060983635326601</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5.0939940950031702E-2</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.35589536598618299</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.26763599669755</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3.7464937743657598E-2</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.635438950554994</v>
-      </c>
-      <c r="M28" s="1">
-        <v>9.1525860403203194E-2</v>
-      </c>
-      <c r="N28" s="1">
-        <v>6.1574371362464103E-2</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.53093466195761796</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.162673741089157</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0.25015550917158502</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0.62219760452770501</v>
-      </c>
-      <c r="S28" s="1">
-        <v>5.5444170358013502E-2</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0.33989302935909299</v>
-      </c>
-      <c r="U28" s="1">
-        <v>9.9461944504147401E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
-        <v>0.66090048532026302</v>
+        <v>0.66166930949978298</v>
       </c>
       <c r="C29" s="1">
-        <v>5.2403632694248102E-2</v>
+        <v>5.5987891019172599E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>0.32599892539347602</v>
+        <v>0.32782051450063499</v>
       </c>
       <c r="E29" s="1">
-        <v>0.10417284976553599</v>
+        <v>9.9424229833204703E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>8.2914058696096998E-2</v>
+        <v>8.7204420201392893E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.70267187294344702</v>
+        <v>0.70060983635326601</v>
       </c>
       <c r="H29" s="1">
-        <v>4.5647867847666002E-2</v>
+        <v>5.0939940950031702E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>0.349018085849569</v>
+        <v>0.35589536598618299</v>
       </c>
       <c r="J29" s="1">
-        <v>0.26246827508179599</v>
+        <v>0.26763599669755</v>
       </c>
       <c r="K29" s="1">
-        <v>3.5460110154384897E-2</v>
+        <v>3.7464937743657598E-2</v>
       </c>
       <c r="L29" s="1">
-        <v>0.64665993945509503</v>
+        <v>0.635438950554994</v>
       </c>
       <c r="M29" s="1">
-        <v>7.83004487193249E-2</v>
+        <v>9.1525860403203194E-2</v>
       </c>
       <c r="N29" s="1">
-        <v>5.6666564739218502E-2</v>
+        <v>6.1574371362464103E-2</v>
       </c>
       <c r="O29" s="1">
-        <v>0.53866044399596302</v>
+        <v>0.53093466195761796</v>
       </c>
       <c r="P29" s="1">
-        <v>0.15559389342794799</v>
+        <v>0.162673741089157</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.24788853102580699</v>
+        <v>0.25015550917158502</v>
       </c>
       <c r="R29" s="1">
-        <v>0.62404027552318597</v>
+        <v>0.62219760452770501</v>
       </c>
       <c r="S29" s="1">
-        <v>5.2255760726154003E-2</v>
+        <v>5.5444170358013502E-2</v>
       </c>
       <c r="T29" s="1">
-        <v>0.33988505242837702</v>
+        <v>0.33989302935909299</v>
       </c>
       <c r="U29" s="1">
-        <v>8.9866560779870805E-2</v>
+        <v>9.9461944504147401E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1">
-        <v>0.66685887271154598</v>
+        <v>0.66090048532026302</v>
       </c>
       <c r="C30" s="1">
-        <v>4.7689202825428802E-2</v>
+        <v>5.2403632694248102E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.31699581951852301</v>
+        <v>0.32599892539347602</v>
       </c>
       <c r="E30" s="1">
-        <v>9.6812488870422E-2</v>
+        <v>0.10417284976553599</v>
       </c>
       <c r="F30" s="1">
-        <v>7.7388806954901801E-2</v>
+        <v>8.2914058696096998E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.71820295704821602</v>
+        <v>0.70267187294344702</v>
       </c>
       <c r="H30" s="1">
-        <v>3.9354187689202798E-2</v>
+        <v>4.5647867847666002E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>0.332934875417216</v>
+        <v>0.349018085849569</v>
       </c>
       <c r="J30" s="1">
-        <v>0.25586337644864299</v>
+        <v>0.26246827508179599</v>
       </c>
       <c r="K30" s="1">
-        <v>3.2699582586894399E-2</v>
+        <v>3.5460110154384897E-2</v>
       </c>
       <c r="L30" s="1">
-        <v>0.651664984863773</v>
+        <v>0.64665993945509503</v>
       </c>
       <c r="M30" s="1">
-        <v>6.9132833802091107E-2</v>
+        <v>7.83004487193249E-2</v>
       </c>
       <c r="N30" s="1">
-        <v>5.1402012047824297E-2</v>
+        <v>5.6666564739218502E-2</v>
       </c>
       <c r="O30" s="1">
-        <v>0.56019803229061504</v>
+        <v>0.53866044399596302</v>
       </c>
       <c r="P30" s="1">
-        <v>0.153364148302464</v>
+        <v>0.15559389342794799</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.22979417497200799</v>
+        <v>0.24788853102580699</v>
       </c>
       <c r="R30" s="1">
-        <v>0.63327556706006205</v>
+        <v>0.62404027552318597</v>
       </c>
       <c r="S30" s="1">
-        <v>4.7484572114465197E-2</v>
+        <v>5.2255760726154003E-2</v>
       </c>
       <c r="T30" s="1">
-        <v>0.33190014478129198</v>
+        <v>0.33988505242837702</v>
       </c>
       <c r="U30" s="1">
-        <v>8.1899550831126294E-2</v>
+        <v>8.9866560779870805E-2</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
-        <v>0.69256643121426098</v>
+        <v>0.66685887271154598</v>
       </c>
       <c r="C31" s="1">
-        <v>4.3124117053481202E-2</v>
+        <v>4.7689202825428802E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.30963083334425401</v>
+        <v>0.31699581951852301</v>
       </c>
       <c r="E31" s="1">
-        <v>8.5831305276903802E-2</v>
+        <v>9.6812488870422E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>6.6140721034767397E-2</v>
+        <v>7.7388806954901801E-2</v>
       </c>
       <c r="G31" s="1">
-        <v>0.73518185407800596</v>
+        <v>0.71820295704821602</v>
       </c>
       <c r="H31" s="1">
-        <v>3.3553836379265303E-2</v>
+        <v>3.9354187689202798E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>0.33048203058293801</v>
+        <v>0.332934875417216</v>
       </c>
       <c r="J31" s="1">
-        <v>0.249793596917713</v>
+        <v>0.25586337644864299</v>
       </c>
       <c r="K31" s="1">
-        <v>2.7280769213671899E-2</v>
+        <v>3.2699582586894399E-2</v>
       </c>
       <c r="L31" s="1">
-        <v>0.66748738647830397</v>
+        <v>0.651664984863773</v>
       </c>
       <c r="M31" s="1">
-        <v>6.8488739077226898E-2</v>
+        <v>6.9132833802091107E-2</v>
       </c>
       <c r="N31" s="1">
-        <v>4.1331580181226998E-2</v>
+        <v>5.1402012047824297E-2</v>
       </c>
       <c r="O31" s="1">
-        <v>0.59614656912209796</v>
+        <v>0.56019803229061504</v>
       </c>
       <c r="P31" s="1">
-        <v>0.152973536017707</v>
+        <v>0.153364148302464</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.227499550751282</v>
+        <v>0.22979417497200799</v>
       </c>
       <c r="R31" s="1">
-        <v>0.65398367919975398</v>
+        <v>0.63327556706006205</v>
       </c>
       <c r="S31" s="1">
-        <v>4.0152793496654599E-2</v>
+        <v>4.7484572114465197E-2</v>
       </c>
       <c r="T31" s="1">
-        <v>0.33141355200759398</v>
+        <v>0.33190014478129198</v>
       </c>
       <c r="U31" s="1">
-        <v>7.6675640329754699E-2</v>
+        <v>8.1899550831126294E-2</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
-        <v>0.733938782374705</v>
+        <v>0.69256643121426098</v>
       </c>
       <c r="C32" s="1">
-        <v>4.1101917255297701E-2</v>
+        <v>4.3124117053481202E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.321241825782693</v>
+        <v>0.30963083334425401</v>
       </c>
       <c r="E32" s="1">
-        <v>8.6128094022674601E-2</v>
+        <v>8.5831305276903802E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>5.4031740207320399E-2</v>
+        <v>6.6140721034767397E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>0.75768876409423902</v>
+        <v>0.73518185407800596</v>
       </c>
       <c r="H32" s="1">
-        <v>3.1804761370856201E-2</v>
+        <v>3.3553836379265303E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>0.34783823643561201</v>
+        <v>0.33048203058293801</v>
       </c>
       <c r="J32" s="1">
-        <v>0.26870623490199602</v>
+        <v>0.249793596917713</v>
       </c>
       <c r="K32" s="1">
-        <v>2.5440417502011502E-2</v>
+        <v>2.7280769213671899E-2</v>
       </c>
       <c r="L32" s="1">
-        <v>0.70938446014127099</v>
+        <v>0.66748738647830397</v>
       </c>
       <c r="M32" s="1">
-        <v>6.9991626768576704E-2</v>
+        <v>6.8488739077226898E-2</v>
       </c>
       <c r="N32" s="1">
-        <v>3.29378548349284E-2</v>
+        <v>4.1331580181226998E-2</v>
       </c>
       <c r="O32" s="1">
-        <v>0.63584762865792099</v>
+        <v>0.59614656912209796</v>
       </c>
       <c r="P32" s="1">
-        <v>0.14532404544122901</v>
+        <v>0.152973536017707</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.24775030065106499</v>
+        <v>0.227499550751282</v>
       </c>
       <c r="R32" s="1">
-        <v>0.68949896898170404</v>
+        <v>0.65398367919975398</v>
       </c>
       <c r="S32" s="1">
-        <v>3.6423160049503897E-2</v>
+        <v>4.0152793496654599E-2</v>
       </c>
       <c r="T32" s="1">
-        <v>0.35184646003757097</v>
+        <v>0.33141355200759398</v>
       </c>
       <c r="U32" s="1">
-        <v>7.0154859438921302E-2</v>
+        <v>7.6675640329754699E-2</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
-        <v>0.79880832252174305</v>
+        <v>0.733938782374705</v>
       </c>
       <c r="C33" s="1">
-        <v>4.2466195761856597E-2</v>
+        <v>4.1101917255297701E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>0.34348093883916198</v>
+        <v>0.321241825782693</v>
       </c>
       <c r="E33" s="1">
-        <v>7.8767733127559802E-2</v>
+        <v>8.6128094022674601E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>4.7730271746417002E-2</v>
+        <v>5.4031740207320399E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>0.78879480542271696</v>
+        <v>0.75768876409423902</v>
       </c>
       <c r="H33" s="1">
-        <v>3.6439062675187803E-2</v>
+        <v>3.1804761370856201E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>0.36946363424668099</v>
+        <v>0.34783823643561201</v>
       </c>
       <c r="J33" s="1">
-        <v>0.30116503073112499</v>
+        <v>0.26870623490199602</v>
       </c>
       <c r="K33" s="1">
-        <v>2.7596385086927699E-2</v>
+        <v>2.5440417502011502E-2</v>
       </c>
       <c r="L33" s="1">
-        <v>0.74849646821392501</v>
+        <v>0.70938446014127099</v>
       </c>
       <c r="M33" s="1">
-        <v>6.6470575605985696E-2</v>
+        <v>6.9991626768576704E-2</v>
       </c>
       <c r="N33" s="1">
-        <v>3.1414039486693301E-2</v>
+        <v>3.29378548349284E-2</v>
       </c>
       <c r="O33" s="1">
-        <v>0.65665993945509504</v>
+        <v>0.63584762865792099</v>
       </c>
       <c r="P33" s="1">
-        <v>0.138325575339344</v>
+        <v>0.14532404544122901</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.28479604108206702</v>
+        <v>0.24775030065106499</v>
       </c>
       <c r="R33" s="1">
-        <v>0.73378888255165997</v>
+        <v>0.68949896898170404</v>
       </c>
       <c r="S33" s="1">
-        <v>3.8398025615521802E-2</v>
+        <v>3.6423160049503897E-2</v>
       </c>
       <c r="T33" s="1">
-        <v>0.38215879675976999</v>
+        <v>0.35184646003757097</v>
       </c>
       <c r="U33" s="1">
-        <v>6.2264350271577701E-2</v>
+        <v>7.0154859438921302E-2</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1">
-        <v>0.84652347316323096</v>
+        <v>0.79880832252174305</v>
       </c>
       <c r="C34" s="1">
-        <v>5.0720484359233001E-2</v>
+        <v>4.2466195761856597E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.369848113541352</v>
+        <v>0.34348093883916198</v>
       </c>
       <c r="E34" s="1">
-        <v>8.14388318394966E-2</v>
+        <v>7.8767733127559802E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>5.4786787380127398E-2</v>
+        <v>4.7730271746417002E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>0.83582678892642404</v>
+        <v>0.78879480542271696</v>
       </c>
       <c r="H34" s="1">
-        <v>4.8495720745972998E-2</v>
+        <v>3.6439062675187803E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>0.41942094232709698</v>
+        <v>0.36946363424668099</v>
       </c>
       <c r="J34" s="1">
-        <v>0.33675809558755998</v>
+        <v>0.30116503073112499</v>
       </c>
       <c r="K34" s="1">
-        <v>3.5335641922678497E-2</v>
+        <v>2.7596385086927699E-2</v>
       </c>
       <c r="L34" s="1">
-        <v>0.78304742684157402</v>
+        <v>0.74849646821392501</v>
       </c>
       <c r="M34" s="1">
-        <v>5.5177448096699999E-2</v>
+        <v>6.6470575605985696E-2</v>
       </c>
       <c r="N34" s="1">
-        <v>3.62403041515049E-2</v>
+        <v>3.1414039486693301E-2</v>
       </c>
       <c r="O34" s="1">
-        <v>0.72660191725529699</v>
+        <v>0.65665993945509504</v>
       </c>
       <c r="P34" s="1">
-        <v>0.156505322092379</v>
+        <v>0.138325575339344</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.32531136391910698</v>
+        <v>0.28479604108206702</v>
       </c>
       <c r="R34" s="1">
-        <v>0.78530689246698504</v>
+        <v>0.73378888255165997</v>
       </c>
       <c r="S34" s="1">
-        <v>4.7613263110545499E-2</v>
+        <v>3.8398025615521802E-2</v>
       </c>
       <c r="T34" s="1">
-        <v>0.424966995449161</v>
+        <v>0.38215879675976999</v>
       </c>
       <c r="U34" s="1">
-        <v>6.4151369546131695E-2</v>
+        <v>6.2264350271577701E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
-        <v>0.87602710105232795</v>
+        <v>0.84652347316323096</v>
       </c>
       <c r="C35" s="1">
-        <v>6.5945509586276402E-2</v>
+        <v>5.0720484359233001E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>0.39431506939075001</v>
+        <v>0.369848113541352</v>
       </c>
       <c r="E35" s="1">
-        <v>9.8533863595892404E-2</v>
+        <v>8.14388318394966E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>6.2993515062132605E-2</v>
+        <v>5.4786787380127398E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>0.87500548413986701</v>
+        <v>0.83582678892642404</v>
       </c>
       <c r="H35" s="1">
-        <v>6.73842359008857E-2</v>
+        <v>4.8495720745972998E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>0.47509120546456501</v>
+        <v>0.41942094232709698</v>
       </c>
       <c r="J35" s="1">
-        <v>0.37383420481301399</v>
+        <v>0.33675809558755998</v>
       </c>
       <c r="K35" s="1">
-        <v>4.8773765652991401E-2</v>
+        <v>3.5335641922678497E-2</v>
       </c>
       <c r="L35" s="1">
-        <v>0.81679112008072596</v>
+        <v>0.78304742684157402</v>
       </c>
       <c r="M35" s="1">
-        <v>5.9342593984155201E-2</v>
+        <v>5.5177448096699999E-2</v>
       </c>
       <c r="N35" s="1">
-        <v>4.6417759838546901E-2</v>
+        <v>3.62403041515049E-2</v>
       </c>
       <c r="O35" s="1">
-        <v>0.77185292633703295</v>
+        <v>0.72660191725529699</v>
       </c>
       <c r="P35" s="1">
-        <v>0.17714267113700699</v>
+        <v>0.156505322092379</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.36628284699279801</v>
+        <v>0.32531136391910698</v>
       </c>
       <c r="R35" s="1">
-        <v>0.82508884306585295</v>
+        <v>0.78530689246698504</v>
       </c>
       <c r="S35" s="1">
-        <v>6.2858936627502096E-2</v>
+        <v>4.7613263110545499E-2</v>
       </c>
       <c r="T35" s="1">
-        <v>0.46512286467535802</v>
+        <v>0.424966995449161</v>
       </c>
       <c r="U35" s="1">
-        <v>7.3189390434487994E-2</v>
+        <v>6.4151369546131695E-2</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1">
-        <v>0.90072557781942197</v>
+        <v>0.87602710105232795</v>
       </c>
       <c r="C36" s="1">
-        <v>8.2446014127144293E-2</v>
+        <v>6.5945509586276402E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>0.413906981010916</v>
+        <v>0.39431506939075001</v>
       </c>
       <c r="E36" s="1">
-        <v>0.119071644803229</v>
+        <v>9.8533863595892404E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>7.2724450121019094E-2</v>
+        <v>6.2993515062132605E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.89887246084324102</v>
+        <v>0.87500548413986701</v>
       </c>
       <c r="H36" s="1">
-        <v>8.98830212654632E-2</v>
+        <v>6.73842359008857E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>0.510300395870527</v>
+        <v>0.47509120546456501</v>
       </c>
       <c r="J36" s="1">
-        <v>0.40025379934562499</v>
+        <v>0.37383420481301399</v>
       </c>
       <c r="K36" s="1">
-        <v>6.3461016994358896E-2</v>
+        <v>4.8773765652991401E-2</v>
       </c>
       <c r="L36" s="1">
-        <v>0.82405650857719404</v>
+        <v>0.81679112008072596</v>
       </c>
       <c r="M36" s="1">
-        <v>7.1988320415655699E-2</v>
+        <v>5.9342593984155201E-2</v>
       </c>
       <c r="N36" s="1">
-        <v>5.6590119153186701E-2</v>
+        <v>4.6417759838546901E-2</v>
       </c>
       <c r="O36" s="1">
-        <v>0.797899848637739</v>
+        <v>0.77185292633703295</v>
       </c>
       <c r="P36" s="1">
-        <v>0.187672927313564</v>
+        <v>0.17714267113700699</v>
       </c>
       <c r="Q36" s="1">
-        <v>0.401808053301632</v>
+        <v>0.36628284699279801</v>
       </c>
       <c r="R36" s="1">
-        <v>0.85165401658403805</v>
+        <v>0.82508884306585295</v>
       </c>
       <c r="S36" s="1">
-        <v>7.9825701877084404E-2</v>
+        <v>6.2858936627502096E-2</v>
       </c>
       <c r="T36" s="1">
-        <v>0.49098008559246598</v>
+        <v>0.46512286467535802</v>
       </c>
       <c r="U36" s="1">
-        <v>8.2194625273672398E-2</v>
+        <v>7.3189390434487994E-2</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
-        <v>0.91663062803325102</v>
+        <v>0.90072557781942197</v>
       </c>
       <c r="C37" s="1">
-        <v>9.5321897073662898E-2</v>
+        <v>8.2446014127144293E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>0.42868937318987699</v>
+        <v>0.413906981010916</v>
       </c>
       <c r="E37" s="1">
-        <v>0.13420787083753699</v>
+        <v>0.119071644803229</v>
       </c>
       <c r="F37" s="1">
-        <v>8.20813898513192E-2</v>
+        <v>7.2724450121019094E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>0.91392094063967</v>
+        <v>0.89887246084324102</v>
       </c>
       <c r="H37" s="1">
-        <v>0.11110363643158699</v>
+        <v>8.98830212654632E-2</v>
       </c>
       <c r="I37" s="1">
-        <v>0.52459830784755002</v>
+        <v>0.510300395870527</v>
       </c>
       <c r="J37" s="1">
-        <v>0.406170687704491</v>
+        <v>0.40025379934562499</v>
       </c>
       <c r="K37" s="1">
-        <v>7.5512208999942099E-2</v>
+        <v>6.3461016994358896E-2</v>
       </c>
       <c r="L37" s="1">
-        <v>0.83455095862764805</v>
+        <v>0.82405650857719404</v>
       </c>
       <c r="M37" s="1">
-        <v>8.1499452519483803E-2</v>
+        <v>7.1988320415655699E-2</v>
       </c>
       <c r="N37" s="1">
-        <v>6.7394428645689994E-2</v>
+        <v>5.6590119153186701E-2</v>
       </c>
       <c r="O37" s="1">
-        <v>0.809977295660948</v>
+        <v>0.797899848637739</v>
       </c>
       <c r="P37" s="1">
-        <v>0.18879593763223801</v>
+        <v>0.187672927313564</v>
       </c>
       <c r="Q37" s="1">
-        <v>0.41984711720553403</v>
+        <v>0.401808053301632</v>
       </c>
       <c r="R37" s="1">
-        <v>0.86756899047953295</v>
+        <v>0.85165401658403805</v>
       </c>
       <c r="S37" s="1">
-        <v>9.42595396711043E-2</v>
+        <v>7.9825701877084404E-2</v>
       </c>
       <c r="T37" s="1">
-        <v>0.502207615575754</v>
+        <v>0.49098008559246598</v>
       </c>
       <c r="U37" s="1">
-        <v>8.8547833024294406E-2</v>
+        <v>8.2194625273672398E-2</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1">
-        <v>0.92273316995819499</v>
+        <v>0.91663062803325102</v>
       </c>
       <c r="C38" s="1">
-        <v>0.1044561049445</v>
+        <v>9.5321897073662898E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>0.42878110789311602</v>
+        <v>0.42868937318987699</v>
       </c>
       <c r="E38" s="1">
-        <v>0.14394254169881801</v>
+        <v>0.13420787083753699</v>
       </c>
       <c r="F38" s="1">
-        <v>8.5468517355500095E-2</v>
+        <v>8.20813898513192E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.92344140744965497</v>
+        <v>0.91392094063967</v>
       </c>
       <c r="H38" s="1">
-        <v>0.12508876181933701</v>
+        <v>0.11110363643158699</v>
       </c>
       <c r="I38" s="1">
-        <v>0.520608553908251</v>
+        <v>0.52459830784755002</v>
       </c>
       <c r="J38" s="1">
-        <v>0.39846497263247999</v>
+        <v>0.406170687704491</v>
       </c>
       <c r="K38" s="1">
-        <v>8.4740639322181496E-2</v>
+        <v>7.5512208999942099E-2</v>
       </c>
       <c r="L38" s="1">
-        <v>0.81977800201816298</v>
+        <v>0.83455095862764805</v>
       </c>
       <c r="M38" s="1">
-        <v>7.7076668742082896E-2</v>
+        <v>8.1499452519483803E-2</v>
       </c>
       <c r="N38" s="1">
-        <v>7.3275642397741203E-2</v>
+        <v>6.7394428645689994E-2</v>
       </c>
       <c r="O38" s="1">
-        <v>0.77894803229061504</v>
+        <v>0.809977295660948</v>
       </c>
       <c r="P38" s="1">
-        <v>0.17794017121838401</v>
+        <v>0.18879593763223801</v>
       </c>
       <c r="Q38" s="1">
-        <v>0.42252878647553999</v>
+        <v>0.41984711720553403</v>
       </c>
       <c r="R38" s="1">
-        <v>0.86506822269995098</v>
+        <v>0.86756899047953295</v>
       </c>
       <c r="S38" s="1">
-        <v>0.103798308735713</v>
+        <v>9.42595396711043E-2</v>
       </c>
       <c r="T38" s="1">
-        <v>0.49148263222759703</v>
+        <v>0.502207615575754</v>
       </c>
       <c r="U38" s="1">
-        <v>9.0569639389888004E-2</v>
+        <v>8.8547833024294406E-2</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1">
-        <v>0.91581375234251094</v>
+        <v>0.92273316995819499</v>
       </c>
       <c r="C39" s="1">
-        <v>0.104524722502522</v>
+        <v>0.1044561049445</v>
       </c>
       <c r="D39" s="1">
-        <v>0.41236059601347103</v>
+        <v>0.42878110789311602</v>
       </c>
       <c r="E39" s="1">
-        <v>0.143289606458123</v>
+        <v>0.14394254169881801</v>
       </c>
       <c r="F39" s="1">
-        <v>8.4297135760304204E-2</v>
+        <v>8.5468517355500095E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.90738384591760601</v>
+        <v>0.92344140744965497</v>
       </c>
       <c r="H39" s="1">
-        <v>0.12871398138804699</v>
+        <v>0.12508876181933701</v>
       </c>
       <c r="I39" s="1">
-        <v>0.49542808352091899</v>
+        <v>0.520608553908251</v>
       </c>
       <c r="J39" s="1">
-        <v>0.37626517444882701</v>
+        <v>0.39846497263247999</v>
       </c>
       <c r="K39" s="1">
-        <v>8.8634716856999293E-2</v>
+        <v>8.4740639322181496E-2</v>
       </c>
       <c r="L39" s="1">
-        <v>0.78817356205852596</v>
+        <v>0.81977800201816298</v>
       </c>
       <c r="M39" s="1">
-        <v>6.6663804023445003E-2</v>
+        <v>7.7076668742082896E-2</v>
       </c>
       <c r="N39" s="1">
-        <v>7.07325525690813E-2</v>
+        <v>7.3275642397741203E-2</v>
       </c>
       <c r="O39" s="1">
-        <v>0.73448536831483302</v>
+        <v>0.77894803229061504</v>
       </c>
       <c r="P39" s="1">
-        <v>0.156961036424595</v>
+        <v>0.17794017121838401</v>
       </c>
       <c r="Q39" s="1">
-        <v>0.41105566537190802</v>
+        <v>0.42252878647553999</v>
       </c>
       <c r="R39" s="1">
-        <v>0.846367305751765</v>
+        <v>0.86506822269995098</v>
       </c>
       <c r="S39" s="1">
-        <v>0.105655307781956</v>
+        <v>0.103798308735713</v>
       </c>
       <c r="T39" s="1">
-        <v>0.46087514906889199</v>
+        <v>0.49148263222759703</v>
       </c>
       <c r="U39" s="1">
-        <v>8.6573384285282301E-2</v>
+        <v>9.0569639389888004E-2</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1">
-        <v>0.889481524193936</v>
+        <v>0.91581375234251094</v>
       </c>
       <c r="C40" s="1">
-        <v>9.7840565085771894E-2</v>
+        <v>0.104524722502522</v>
       </c>
       <c r="D40" s="1">
-        <v>0.37326850747637802</v>
+        <v>0.41236059601347103</v>
       </c>
       <c r="E40" s="1">
-        <v>0.13177420312221699</v>
+        <v>0.143289606458123</v>
       </c>
       <c r="F40" s="1">
-        <v>7.5751695327880994E-2</v>
+        <v>8.4297135760304204E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0.87544421532926697</v>
+        <v>0.90738384591760601</v>
       </c>
       <c r="H40" s="1">
-        <v>0.123892813095638</v>
+        <v>0.12871398138804699</v>
       </c>
       <c r="I40" s="1">
-        <v>0.44554839711247302</v>
+        <v>0.49542808352091899</v>
       </c>
       <c r="J40" s="1">
-        <v>0.33045897929853502</v>
+        <v>0.37626517444882701</v>
       </c>
       <c r="K40" s="1">
-        <v>8.7274456896206803E-2</v>
+        <v>8.8634716856999293E-2</v>
       </c>
       <c r="L40" s="1">
-        <v>0.73118062563067598</v>
+        <v>0.78817356205852596</v>
       </c>
       <c r="M40" s="1">
-        <v>5.4662172316808699E-2</v>
+        <v>6.6663804023445003E-2</v>
       </c>
       <c r="N40" s="1">
-        <v>6.5111253809538305E-2</v>
+        <v>7.07325525690813E-2</v>
       </c>
       <c r="O40" s="1">
-        <v>0.66605701311806198</v>
+        <v>0.73448536831483302</v>
       </c>
       <c r="P40" s="1">
-        <v>0.121203736857524</v>
+        <v>0.156961036424595</v>
       </c>
       <c r="Q40" s="1">
-        <v>0.38426661874680301</v>
+        <v>0.41105566537190802</v>
       </c>
       <c r="R40" s="1">
-        <v>0.80905321809327402</v>
+        <v>0.846367305751765</v>
       </c>
       <c r="S40" s="1">
-        <v>0.101376031482387</v>
+        <v>0.105655307781956</v>
       </c>
       <c r="T40" s="1">
-        <v>0.40696705128767602</v>
+        <v>0.46087514906889199</v>
       </c>
       <c r="U40" s="1">
-        <v>7.4249472691042401E-2</v>
+        <v>8.6573384285282301E-2</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1">
-        <v>0.83782614963240498</v>
+        <v>0.889481524193936</v>
       </c>
       <c r="C41" s="1">
-        <v>8.9198789101917197E-2</v>
+        <v>9.7840565085771894E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>0.32015411430143997</v>
+        <v>0.37326850747637802</v>
       </c>
       <c r="E41" s="1">
-        <v>0.116934765833679</v>
+        <v>0.13177420312221699</v>
       </c>
       <c r="F41" s="1">
-        <v>6.4157840141694802E-2</v>
+        <v>7.5751695327880994E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.81661036283069299</v>
+        <v>0.87544421532926697</v>
       </c>
       <c r="H41" s="1">
-        <v>0.117158126845311</v>
+        <v>0.123892813095638</v>
       </c>
       <c r="I41" s="1">
-        <v>0.38747186214391</v>
+        <v>0.44554839711247302</v>
       </c>
       <c r="J41" s="1">
-        <v>0.27414916062746503</v>
+        <v>0.33045897929853502</v>
       </c>
       <c r="K41" s="1">
-        <v>8.2944740550416202E-2</v>
+        <v>8.7274456896206803E-2</v>
       </c>
       <c r="L41" s="1">
-        <v>0.652714429868819</v>
+        <v>0.73118062563067598</v>
       </c>
       <c r="M41" s="1">
-        <v>4.5687785817034102E-2</v>
+        <v>5.4662172316808699E-2</v>
       </c>
       <c r="N41" s="1">
-        <v>5.9591882498037797E-2</v>
+        <v>6.5111253809538305E-2</v>
       </c>
       <c r="O41" s="1">
-        <v>0.58249243188698197</v>
+        <v>0.66605701311806198</v>
       </c>
       <c r="P41" s="1">
-        <v>9.8125061033169397E-2</v>
+        <v>0.121203736857524</v>
       </c>
       <c r="Q41" s="1">
-        <v>0.34318455137331799</v>
+        <v>0.38426661874680301</v>
       </c>
       <c r="R41" s="1">
-        <v>0.75068003334357003</v>
+        <v>0.80905321809327402</v>
       </c>
       <c r="S41" s="1">
-        <v>9.4470015599272997E-2</v>
+        <v>0.101376031482387</v>
       </c>
       <c r="T41" s="1">
-        <v>0.341352807680188</v>
+        <v>0.40696705128767602</v>
       </c>
       <c r="U41" s="1">
-        <v>6.4151369546131695E-2</v>
+        <v>7.4249472691042401E-2</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1">
-        <v>0.78083705732545206</v>
+        <v>0.83782614963240498</v>
       </c>
       <c r="C42" s="1">
-        <v>7.8377396569122001E-2</v>
+        <v>8.9198789101917197E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>0.27984326470703802</v>
+        <v>0.32015411430143997</v>
       </c>
       <c r="E42" s="1">
-        <v>0.105063216002849</v>
+        <v>0.116934765833679</v>
       </c>
       <c r="F42" s="1">
-        <v>5.3636575331832602E-2</v>
+        <v>6.4157840141694802E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>0.770675207300486</v>
+        <v>0.81661036283069299</v>
       </c>
       <c r="H42" s="1">
-        <v>0.102163919721941</v>
+        <v>0.117158126845311</v>
       </c>
       <c r="I42" s="1">
-        <v>0.32507956221376999</v>
+        <v>0.38747186214391</v>
       </c>
       <c r="J42" s="1">
-        <v>0.21920007338776201</v>
+        <v>0.27414916062746503</v>
       </c>
       <c r="K42" s="1">
-        <v>7.1889294398485001E-2</v>
+        <v>8.2944740550416202E-2</v>
       </c>
       <c r="L42" s="1">
-        <v>0.59334006054490396</v>
+        <v>0.652714429868819</v>
       </c>
       <c r="M42" s="1">
-        <v>4.5473087575412699E-2</v>
+        <v>4.5687785817034102E-2</v>
       </c>
       <c r="N42" s="1">
-        <v>5.3787114332018403E-2</v>
+        <v>5.9591882498037797E-2</v>
       </c>
       <c r="O42" s="1">
-        <v>0.55322906155398499</v>
+        <v>0.58249243188698197</v>
       </c>
       <c r="P42" s="1">
-        <v>9.2021744083851401E-2</v>
+        <v>9.8125061033169397E-2</v>
       </c>
       <c r="Q42" s="1">
-        <v>0.28883236802454898</v>
+        <v>0.34318455137331799</v>
       </c>
       <c r="R42" s="1">
-        <v>0.70991093756855095</v>
+        <v>0.75068003334357003</v>
       </c>
       <c r="S42" s="1">
-        <v>8.2073584789926907E-2</v>
+        <v>9.4470015599272997E-2</v>
       </c>
       <c r="T42" s="1">
-        <v>0.27981078720340702</v>
+        <v>0.341352807680188</v>
       </c>
       <c r="U42" s="1">
-        <v>6.34665054078766E-2</v>
+        <v>6.4151369546131695E-2</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
-        <v>0.74042573638940901</v>
+        <v>0.78083705732545206</v>
       </c>
       <c r="C43" s="1">
-        <v>6.39717457114026E-2</v>
+        <v>7.8377396569122001E-2</v>
       </c>
       <c r="D43" s="1">
-        <v>0.255651512967355</v>
+        <v>0.27984326470703802</v>
       </c>
       <c r="E43" s="1">
-        <v>9.5625333887339001E-2</v>
+        <v>0.105063216002849</v>
       </c>
       <c r="F43" s="1">
-        <v>5.4532752817313797E-2</v>
+        <v>5.3636575331832602E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>0.74733470802439295</v>
+        <v>0.770675207300486</v>
       </c>
       <c r="H43" s="1">
-        <v>7.2878125350375605E-2</v>
+        <v>0.102163919721941</v>
       </c>
       <c r="I43" s="1">
-        <v>0.27299542032135299</v>
+        <v>0.32507956221376999</v>
       </c>
       <c r="J43" s="1">
-        <v>0.18944745130416099</v>
+        <v>0.21920007338776201</v>
       </c>
       <c r="K43" s="1">
-        <v>5.3170161408624697E-2</v>
+        <v>7.1889294398485001E-2</v>
       </c>
       <c r="L43" s="1">
-        <v>0.573521695257315</v>
+        <v>0.59334006054490396</v>
       </c>
       <c r="M43" s="1">
-        <v>5.8247632951886098E-2</v>
+        <v>4.5473087575412699E-2</v>
       </c>
       <c r="N43" s="1">
-        <v>4.49958719383542E-2</v>
+        <v>5.3787114332018403E-2</v>
       </c>
       <c r="O43" s="1">
-        <v>0.54660696266397502</v>
+        <v>0.55322906155398499</v>
       </c>
       <c r="P43" s="1">
-        <v>9.2477458416067096E-2</v>
+        <v>9.2021744083851401E-2</v>
       </c>
       <c r="Q43" s="1">
-        <v>0.21557026941099999</v>
+        <v>0.28883236802454898</v>
       </c>
       <c r="R43" s="1">
-        <v>0.69005835124819004</v>
+        <v>0.70991093756855095</v>
       </c>
       <c r="S43" s="1">
-        <v>6.2890207336829998E-2</v>
+        <v>8.2073584789926907E-2</v>
       </c>
       <c r="T43" s="1">
-        <v>0.23101191354602399</v>
+        <v>0.27981078720340702</v>
       </c>
       <c r="U43" s="1">
-        <v>7.3091032286972599E-2</v>
+        <v>6.34665054078766E-2</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
-        <v>0.71990774109845701</v>
+        <v>0.74042573638940901</v>
       </c>
       <c r="C44" s="1">
-        <v>5.5713420787083703E-2</v>
+        <v>6.39717457114026E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>0.25245390331162199</v>
+        <v>0.255651512967355</v>
       </c>
       <c r="E44" s="1">
-        <v>8.3991215053125096E-2</v>
+        <v>9.5625333887339001E-2</v>
       </c>
       <c r="F44" s="1">
-        <v>6.7283876567428499E-2</v>
+        <v>5.4532752817313797E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>0.74110472513490899</v>
+        <v>0.74733470802439295</v>
       </c>
       <c r="H44" s="1">
-        <v>5.1179130694771403E-2</v>
+        <v>7.2878125350375605E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>0.25480090041139403</v>
+        <v>0.27299542032135299</v>
       </c>
       <c r="J44" s="1">
-        <v>0.18937100571812901</v>
+        <v>0.18944745130416099</v>
       </c>
       <c r="K44" s="1">
-        <v>3.9709811208364199E-2</v>
+        <v>5.3170161408624697E-2</v>
       </c>
       <c r="L44" s="1">
-        <v>0.55604439959636698</v>
+        <v>0.573521695257315</v>
       </c>
       <c r="M44" s="1">
-        <v>7.4156772656031905E-2</v>
+        <v>5.8247632951886098E-2</v>
       </c>
       <c r="N44" s="1">
-        <v>4.3385418259283E-2</v>
+        <v>4.49958719383542E-2</v>
       </c>
       <c r="O44" s="1">
-        <v>0.54342204843592301</v>
+        <v>0.54660696266397502</v>
       </c>
       <c r="P44" s="1">
-        <v>0.102714755379056</v>
+        <v>9.2477458416067096E-2</v>
       </c>
       <c r="Q44" s="1">
-        <v>0.17737721686963401</v>
+        <v>0.21557026941099999</v>
       </c>
       <c r="R44" s="1">
-        <v>0.68009915324880399</v>
+        <v>0.69005835124819004</v>
       </c>
       <c r="S44" s="1">
-        <v>5.0769199313487598E-2</v>
+        <v>6.2890207336829998E-2</v>
       </c>
       <c r="T44" s="1">
-        <v>0.211460456360206</v>
+        <v>0.23101191354602399</v>
       </c>
       <c r="U44" s="1">
-        <v>9.23583005169267E-2</v>
+        <v>7.3091032286972599E-2</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1">
-        <v>0.70558839075488899</v>
+        <v>0.71990774109845701</v>
       </c>
       <c r="C45" s="1">
-        <v>6.0565085771947497E-2</v>
+        <v>5.5713420787083703E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>0.26631894845820098</v>
+        <v>0.25245390331162199</v>
       </c>
       <c r="E45" s="1">
-        <v>7.8174155636018205E-2</v>
+        <v>8.3991215053125096E-2</v>
       </c>
       <c r="F45" s="1">
-        <v>8.9370770500941998E-2</v>
+        <v>6.7283876567428499E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>0.72605624533848101</v>
+        <v>0.74110472513490899</v>
       </c>
       <c r="H45" s="1">
-        <v>4.7329670740367001E-2</v>
+        <v>5.1179130694771403E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>0.26102615850345401</v>
+        <v>0.25480090041139403</v>
       </c>
       <c r="J45" s="1">
-        <v>0.21065345686940001</v>
+        <v>0.18937100571812901</v>
       </c>
       <c r="K45" s="1">
-        <v>3.8936330054188097E-2</v>
+        <v>3.9709811208364199E-2</v>
       </c>
       <c r="L45" s="1">
-        <v>0.53646821392532695</v>
+        <v>0.55604439959636698</v>
       </c>
       <c r="M45" s="1">
-        <v>9.4316937544281498E-2</v>
+        <v>7.4156772656031905E-2</v>
       </c>
       <c r="N45" s="1">
-        <v>5.6055000050963699E-2</v>
+        <v>4.3385418259283E-2</v>
       </c>
       <c r="O45" s="1">
-        <v>0.53872351160443899</v>
+        <v>0.54342204843592301</v>
       </c>
       <c r="P45" s="1">
-        <v>0.119576185671039</v>
+        <v>0.102714755379056</v>
       </c>
       <c r="Q45" s="1">
-        <v>0.175013477461537</v>
+        <v>0.17737721686963401</v>
       </c>
       <c r="R45" s="1">
-        <v>0.66920765147194305</v>
+        <v>0.68009915324880399</v>
       </c>
       <c r="S45" s="1">
-        <v>5.3557103322031799E-2</v>
+        <v>5.0769199313487598E-2</v>
       </c>
       <c r="T45" s="1">
-        <v>0.21272479987875001</v>
+        <v>0.211460456360206</v>
       </c>
       <c r="U45" s="1">
-        <v>0.120659946740884</v>
+        <v>9.23583005169267E-2</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1">
-        <v>0.69617029455576296</v>
+        <v>0.70558839075488899</v>
       </c>
       <c r="C46" s="1">
-        <v>6.9804238143289593E-2</v>
+        <v>6.0565085771947497E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.28131101995884999</v>
+        <v>0.26631894845820098</v>
       </c>
       <c r="E46" s="1">
-        <v>7.6808927405472696E-2</v>
+        <v>7.8174155636018205E-2</v>
       </c>
       <c r="F46" s="1">
-        <v>0.11224799418543099</v>
+        <v>8.9370770500941998E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>0.71881718071337597</v>
+        <v>0.72605624533848101</v>
       </c>
       <c r="H46" s="1">
-        <v>5.1014687745262903E-2</v>
+        <v>4.7329670740367001E-2</v>
       </c>
       <c r="I46" s="1">
-        <v>0.26982845610494399</v>
+        <v>0.26102615850345401</v>
       </c>
       <c r="J46" s="1">
-        <v>0.23083509158181201</v>
+        <v>0.21065345686940001</v>
       </c>
       <c r="K46" s="1">
-        <v>4.3390514631685098E-2</v>
+        <v>3.8936330054188097E-2</v>
       </c>
       <c r="L46" s="1">
-        <v>0.51919273461150295</v>
+        <v>0.53646821392532695</v>
       </c>
       <c r="M46" s="1">
-        <v>0.11617321854134</v>
+        <v>9.4316937544281498E-2</v>
       </c>
       <c r="N46" s="1">
-        <v>7.1930200083580503E-2</v>
+        <v>5.6055000050963699E-2</v>
       </c>
       <c r="O46" s="1">
-        <v>0.53307896064581195</v>
+        <v>0.53872351160443899</v>
       </c>
       <c r="P46" s="1">
-        <v>0.13925327951564001</v>
+        <v>0.119576185671039</v>
       </c>
       <c r="Q46" s="1">
-        <v>0.180003593989743</v>
+        <v>0.175013477461537</v>
       </c>
       <c r="R46" s="1">
-        <v>0.66213311104286399</v>
+        <v>0.66920765147194305</v>
       </c>
       <c r="S46" s="1">
-        <v>6.2268401309039899E-2</v>
+        <v>5.3557103322031799E-2</v>
       </c>
       <c r="T46" s="1">
-        <v>0.21676910375194899</v>
+        <v>0.21272479987875001</v>
       </c>
       <c r="U46" s="1">
-        <v>0.14673214162115999</v>
+        <v>0.120659946740884</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1">
-        <v>0.67276920859161005</v>
+        <v>0.69617029455576296</v>
       </c>
       <c r="C47" s="1">
-        <v>7.6730575176589294E-2</v>
+        <v>6.9804238143289593E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>0.29273854299081298</v>
+        <v>0.28131101995884999</v>
       </c>
       <c r="E47" s="1">
-        <v>7.2891315961298705E-2</v>
+        <v>7.6808927405472696E-2</v>
       </c>
       <c r="F47" s="1">
-        <v>0.12970581386322999</v>
+        <v>0.11224799418543099</v>
       </c>
       <c r="G47" s="1">
-        <v>0.69951300837976504</v>
+        <v>0.71881718071337597</v>
       </c>
       <c r="H47" s="1">
-        <v>5.4587584557312101E-2</v>
+        <v>5.1014687745262903E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>0.27197081425133801</v>
+        <v>0.26982845610494399</v>
       </c>
       <c r="J47" s="1">
-        <v>0.23857138488823601</v>
+        <v>0.23083509158181201</v>
       </c>
       <c r="K47" s="1">
-        <v>4.8026956262752399E-2</v>
+        <v>4.3390514631685098E-2</v>
       </c>
       <c r="L47" s="1">
-        <v>0.51083753784056496</v>
+        <v>0.51919273461150295</v>
       </c>
       <c r="M47" s="1">
-        <v>0.13614015501213</v>
+        <v>0.11617321854134</v>
       </c>
       <c r="N47" s="1">
-        <v>8.4798540398943995E-2</v>
+        <v>7.1930200083580503E-2</v>
       </c>
       <c r="O47" s="1">
-        <v>0.52882189707366201</v>
+        <v>0.53307896064581195</v>
       </c>
       <c r="P47" s="1">
-        <v>0.15023925002441299</v>
+        <v>0.13925327951564001</v>
       </c>
       <c r="Q47" s="1">
-        <v>0.183874044482534</v>
+        <v>0.180003593989743</v>
       </c>
       <c r="R47" s="1">
-        <v>0.65079190979686696</v>
+        <v>0.66213311104286399</v>
       </c>
       <c r="S47" s="1">
-        <v>6.9780587865280894E-2</v>
+        <v>6.2268401309039899E-2</v>
       </c>
       <c r="T47" s="1">
-        <v>0.217770208556853</v>
+        <v>0.21676910375194899</v>
       </c>
       <c r="U47" s="1">
-        <v>0.16436010739252499</v>
+        <v>0.14673214162115999</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1">
-        <v>0.66311085483638399</v>
+        <v>0.67276920859161005</v>
       </c>
       <c r="C48" s="1">
-        <v>8.03511604439959E-2</v>
+        <v>7.6730575176589294E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>0.29853093425242699</v>
+        <v>0.29273854299081298</v>
       </c>
       <c r="E48" s="1">
-        <v>7.0338932747670196E-2</v>
+        <v>7.2891315961298705E-2</v>
       </c>
       <c r="F48" s="1">
-        <v>0.14036820898576599</v>
+        <v>0.12970581386322999</v>
       </c>
       <c r="G48" s="1">
-        <v>0.68042820164085405</v>
+        <v>0.69951300837976504</v>
       </c>
       <c r="H48" s="1">
-        <v>5.7285943865156702E-2</v>
+        <v>5.4587584557312101E-2</v>
       </c>
       <c r="I48" s="1">
-        <v>0.27819607234339799</v>
+        <v>0.27197081425133801</v>
       </c>
       <c r="J48" s="1">
-        <v>0.24936550163593499</v>
+        <v>0.23857138488823601</v>
       </c>
       <c r="K48" s="1">
-        <v>5.16943238041047E-2</v>
+        <v>4.8026956262752399E-2</v>
       </c>
       <c r="L48" s="1">
-        <v>0.51426841574167503</v>
+        <v>0.51083753784056496</v>
       </c>
       <c r="M48" s="1">
-        <v>0.149644674410116</v>
+        <v>0.13614015501213</v>
       </c>
       <c r="N48" s="1">
-        <v>9.2682628505030007E-2</v>
+        <v>8.4798540398943995E-2</v>
       </c>
       <c r="O48" s="1">
-        <v>0.533867305751765</v>
+        <v>0.52882189707366201</v>
       </c>
       <c r="P48" s="1">
-        <v>0.152892158458383</v>
+        <v>0.15023925002441299</v>
       </c>
       <c r="Q48" s="1">
-        <v>0.18792419446249101</v>
+        <v>0.183874044482534</v>
       </c>
       <c r="R48" s="1">
-        <v>0.64643750274206901</v>
+        <v>0.65079190979686696</v>
       </c>
       <c r="S48" s="1">
-        <v>7.3899902459441197E-2</v>
+        <v>6.9780587865280894E-2</v>
       </c>
       <c r="T48" s="1">
-        <v>0.223007063572149</v>
+        <v>0.217770208556853</v>
       </c>
       <c r="U48" s="1">
-        <v>0.17528879044978801</v>
+        <v>0.16436010739252499</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1">
-        <v>0.66075633078660301</v>
+        <v>0.66311085483638399</v>
       </c>
       <c r="C49" s="1">
-        <v>7.9713420787083697E-2</v>
+        <v>8.03511604439959E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>0.301807173653793</v>
+        <v>0.29853093425242699</v>
       </c>
       <c r="E49" s="1">
-        <v>7.1407372232444893E-2</v>
+        <v>7.0338932747670196E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>0.14091156068956201</v>
+        <v>0.14036820898576599</v>
       </c>
       <c r="G49" s="1">
-        <v>0.65853551528978105</v>
+        <v>0.68042820164085405</v>
       </c>
       <c r="H49" s="1">
-        <v>5.9259259259259199E-2</v>
+        <v>5.7285943865156702E-2</v>
       </c>
       <c r="I49" s="1">
-        <v>0.28507335248001198</v>
+        <v>0.27819607234339799</v>
       </c>
       <c r="J49" s="1">
-        <v>0.25971623398464899</v>
+        <v>0.24936550163593499</v>
       </c>
       <c r="K49" s="1">
-        <v>5.4250367848077602E-2</v>
+        <v>5.16943238041047E-2</v>
       </c>
       <c r="L49" s="1">
-        <v>0.51313824419777998</v>
+        <v>0.51426841574167503</v>
       </c>
       <c r="M49" s="1">
-        <v>0.154368035725787</v>
+        <v>0.149644674410116</v>
       </c>
       <c r="N49" s="1">
-        <v>9.5796512042727905E-2</v>
+        <v>9.2682628505030007E-2</v>
       </c>
       <c r="O49" s="1">
-        <v>0.539764127144298</v>
+        <v>0.533867305751765</v>
       </c>
       <c r="P49" s="1">
-        <v>0.14802578041079301</v>
+        <v>0.152892158458383</v>
       </c>
       <c r="Q49" s="1">
-        <v>0.189914711858783</v>
+        <v>0.18792419446249101</v>
       </c>
       <c r="R49" s="1">
-        <v>0.64056947308384105</v>
+        <v>0.64643750274206901</v>
       </c>
       <c r="S49" s="1">
-        <v>7.4936646745621102E-2</v>
+        <v>7.3899902459441197E-2</v>
       </c>
       <c r="T49" s="1">
-        <v>0.22938461967988499</v>
+        <v>0.223007063572149</v>
       </c>
       <c r="U49" s="1">
-        <v>0.177135737886465</v>
+        <v>0.17528879044978801</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1">
+        <v>0.66075633078660301</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7.9713420787083697E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.301807173653793</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.1407372232444893E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.14091156068956201</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.65853551528978105</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5.9259259259259199E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.28507335248001198</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.25971623398464899</v>
+      </c>
+      <c r="K50" s="1">
+        <v>5.4250367848077602E-2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.51313824419777998</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.154368035725787</v>
+      </c>
+      <c r="N50" s="1">
+        <v>9.5796512042727905E-2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.539764127144298</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.14802578041079301</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.189914711858783</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.64056947308384105</v>
+      </c>
+      <c r="S50" s="1">
+        <v>7.4936646745621102E-2</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0.22938461967988499</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.177135737886465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1">
         <v>0.65729662197876104</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51" s="1">
         <v>7.7525731584258295E-2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>0.296696240187662</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>7.20603074731406E-2</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>0.13682583813764401</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G51" s="1">
         <v>0.62685912341508299</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <v>5.9670366633030499E-2</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I51" s="1">
         <v>0.28603586121245</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J51" s="1">
         <v>0.26210133626884302</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K51" s="1">
         <v>5.4988286650337503E-2</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L51" s="1">
         <v>0.50385469223006996</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M51" s="1">
         <v>0.15404598836335501</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N51" s="1">
         <v>9.6994159557227094E-2</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O51" s="1">
         <v>0.53765136226034305</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P51" s="1">
         <v>0.14317567787506899</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q51" s="1">
         <v>0.19005294223352601</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R51" s="1">
         <v>0.62757206159785806</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S51" s="1">
         <v>7.4415869163352105E-2</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T51" s="1">
         <v>0.23114752136820299</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U51" s="1">
         <v>0.17333255618253801</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>0</v>
-      </c>
-      <c r="U51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
       <c r="B52" s="1">
         <v>0</v>
       </c>
@@ -3983,1009 +3988,1009 @@
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="1">
-        <v>2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>2.11711711711711E-4</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>2.1937521937521901E-4</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>1.9872813990460999E-4</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>1.5557301430493999E-5</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>4.0374078193877798E-4</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>1.88243347308975E-4</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>2.18855218855218E-4</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>2.4473813020068502E-4</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="M53" s="1">
-        <v>8.1315162936412796E-20</v>
+        <v>0</v>
       </c>
       <c r="N53" s="1">
-        <v>1.9447018314515499E-4</v>
+        <v>0</v>
       </c>
       <c r="O53" s="1">
-        <v>-2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>-1.0842021724855E-19</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>4.1887091019097397E-4</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>-5.4210108624275198E-20</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
-        <v>2.5760789882724102E-4</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
-        <v>2.44011789137648E-4</v>
+        <v>0</v>
       </c>
       <c r="U53" s="1">
-        <v>1.2196311835300899E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1">
-        <v>4.1291291291291202E-3</v>
+        <v>2.7105054312137599E-20</v>
       </c>
       <c r="C54" s="1">
-        <v>1.2545045045045E-2</v>
+        <v>2.11711711711711E-4</v>
       </c>
       <c r="D54" s="1">
-        <v>1.3893763893763801E-2</v>
+        <v>2.1937521937521901E-4</v>
       </c>
       <c r="E54" s="1">
-        <v>2.1528881822999401E-2</v>
+        <v>1.9872813990460999E-4</v>
       </c>
       <c r="F54" s="1">
-        <v>8.0431248395653205E-3</v>
+        <v>1.5557301430493999E-5</v>
       </c>
       <c r="G54" s="1">
-        <v>3.77230739468975E-3</v>
+        <v>2.7105054312137599E-20</v>
       </c>
       <c r="H54" s="1">
-        <v>1.7657479503975601E-2</v>
+        <v>4.0374078193877798E-4</v>
       </c>
       <c r="I54" s="1">
-        <v>1.4460511679644E-2</v>
+        <v>1.88243347308975E-4</v>
       </c>
       <c r="J54" s="1">
-        <v>1.3097643097643E-2</v>
+        <v>2.18855218855218E-4</v>
       </c>
       <c r="K54" s="1">
-        <v>1.45129711209006E-2</v>
+        <v>2.4473813020068502E-4</v>
       </c>
       <c r="L54" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>2.7105054312137599E-20</v>
       </c>
       <c r="M54" s="1">
-        <v>2.7423167848699701E-3</v>
+        <v>8.1315162936412796E-20</v>
       </c>
       <c r="N54" s="1">
-        <v>1.36701099328505E-2</v>
+        <v>1.9447018314515499E-4</v>
       </c>
       <c r="O54" s="1">
-        <v>8.4937712344280796E-4</v>
+        <v>-2.7105054312137599E-20</v>
       </c>
       <c r="P54" s="1">
-        <v>2.3015380119095399E-3</v>
+        <v>-1.0842021724855E-19</v>
       </c>
       <c r="Q54" s="1">
-        <v>2.6544004716176101E-2</v>
+        <v>4.1887091019097397E-4</v>
       </c>
       <c r="R54" s="1">
-        <v>3.67815047910034E-3</v>
+        <v>-5.4210108624275198E-20</v>
       </c>
       <c r="S54" s="1">
-        <v>1.5157358029678301E-2</v>
+        <v>2.5760789882724102E-4</v>
       </c>
       <c r="T54" s="1">
-        <v>1.5736314124715201E-2</v>
+        <v>2.44011789137648E-4</v>
       </c>
       <c r="U54" s="1">
-        <v>5.1435137438784403E-3</v>
+        <v>1.2196311835300899E-5</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1">
-        <v>5.8558558558558502E-2</v>
+        <v>4.1291291291291202E-3</v>
       </c>
       <c r="C55" s="1">
-        <v>0.12382882882882799</v>
+        <v>1.2545045045045E-2</v>
       </c>
       <c r="D55" s="1">
-        <v>0.103852228852228</v>
+        <v>1.3893763893763801E-2</v>
       </c>
       <c r="E55" s="1">
-        <v>0.150503444621091</v>
+        <v>2.1528881822999401E-2</v>
       </c>
       <c r="F55" s="1">
-        <v>9.22236828799676E-2</v>
+        <v>8.0431248395653205E-3</v>
       </c>
       <c r="G55" s="1">
-        <v>3.1919524108913203E-2</v>
+        <v>3.77230739468975E-3</v>
       </c>
       <c r="H55" s="1">
-        <v>0.175833230338235</v>
+        <v>1.7657479503975601E-2</v>
       </c>
       <c r="I55" s="1">
-        <v>0.107435612218704</v>
+        <v>1.4460511679644E-2</v>
       </c>
       <c r="J55" s="1">
-        <v>0.115824915824915</v>
+        <v>1.3097643097643E-2</v>
       </c>
       <c r="K55" s="1">
-        <v>0.15170827214880001</v>
+        <v>1.45129711209006E-2</v>
       </c>
       <c r="L55" s="1">
-        <v>4.8444444444444401E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="M55" s="1">
-        <v>2.8794326241134701E-2</v>
+        <v>2.7423167848699701E-3</v>
       </c>
       <c r="N55" s="1">
-        <v>0.14039031309699401</v>
+        <v>1.36701099328505E-2</v>
       </c>
       <c r="O55" s="1">
-        <v>3.08607021517553E-2</v>
+        <v>8.4937712344280796E-4</v>
       </c>
       <c r="P55" s="1">
-        <v>2.0640777408395101E-2</v>
+        <v>2.3015380119095399E-3</v>
       </c>
       <c r="Q55" s="1">
-        <v>0.186785398470345</v>
+        <v>2.6544004716176101E-2</v>
       </c>
       <c r="R55" s="1">
-        <v>4.3969721905726802E-2</v>
+        <v>3.67815047910034E-3</v>
       </c>
       <c r="S55" s="1">
-        <v>0.15234630466877</v>
+        <v>1.5157358029678301E-2</v>
       </c>
       <c r="T55" s="1">
-        <v>0.11535728178987301</v>
+        <v>1.5736314124715201E-2</v>
       </c>
       <c r="U55" s="1">
-        <v>5.30052375612102E-2</v>
+        <v>5.1435137438784403E-3</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1">
-        <v>0.19503432003432</v>
+        <v>5.8558558558558502E-2</v>
       </c>
       <c r="C56" s="1">
-        <v>0.345162162162162</v>
+        <v>0.12382882882882799</v>
       </c>
       <c r="D56" s="1">
-        <v>0.29002866502866498</v>
+        <v>0.103852228852228</v>
       </c>
       <c r="E56" s="1">
-        <v>0.35035771065182802</v>
+        <v>0.150503444621091</v>
       </c>
       <c r="F56" s="1">
-        <v>0.30625325730998598</v>
+        <v>9.22236828799676E-2</v>
       </c>
       <c r="G56" s="1">
-        <v>0.12516322483919301</v>
+        <v>3.1919524108913203E-2</v>
       </c>
       <c r="H56" s="1">
-        <v>0.41628146500226498</v>
+        <v>0.175833230338235</v>
       </c>
       <c r="I56" s="1">
-        <v>0.286266792162231</v>
+        <v>0.107435612218704</v>
       </c>
       <c r="J56" s="1">
-        <v>0.31727272727272698</v>
+        <v>0.115824915824915</v>
       </c>
       <c r="K56" s="1">
-        <v>0.39818893783651399</v>
+        <v>0.15170827214880001</v>
       </c>
       <c r="L56" s="1">
-        <v>0.18279999999999899</v>
+        <v>4.8444444444444401E-2</v>
       </c>
       <c r="M56" s="1">
-        <v>0.13683215130023599</v>
+        <v>2.8794326241134701E-2</v>
       </c>
       <c r="N56" s="1">
-        <v>0.37142661038470698</v>
+        <v>0.14039031309699401</v>
       </c>
       <c r="O56" s="1">
-        <v>0.14290770101925199</v>
+        <v>3.08607021517553E-2</v>
       </c>
       <c r="P56" s="1">
-        <v>9.6153143608665406E-2</v>
+        <v>2.0640777408395101E-2</v>
       </c>
       <c r="Q56" s="1">
-        <v>0.41094339037217398</v>
+        <v>0.186785398470345</v>
       </c>
       <c r="R56" s="1">
-        <v>0.16170225995913501</v>
+        <v>4.3969721905726802E-2</v>
       </c>
       <c r="S56" s="1">
-        <v>0.395947927764431</v>
+        <v>0.15234630466877</v>
       </c>
       <c r="T56" s="1">
-        <v>0.30008081071012099</v>
+        <v>0.11535728178987301</v>
       </c>
       <c r="U56" s="1">
-        <v>0.193362353976407</v>
+        <v>5.30052375612102E-2</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
-        <v>0.376179751179751</v>
+        <v>0.19503432003432</v>
       </c>
       <c r="C57" s="1">
-        <v>0.55994144144144098</v>
+        <v>0.345162162162162</v>
       </c>
       <c r="D57" s="1">
-        <v>0.51045688545688495</v>
+        <v>0.29002866502866498</v>
       </c>
       <c r="E57" s="1">
-        <v>0.532525172231054</v>
+        <v>0.35035771065182802</v>
       </c>
       <c r="F57" s="1">
-        <v>0.51786367136756395</v>
+        <v>0.30625325730998598</v>
       </c>
       <c r="G57" s="1">
-        <v>0.24292692363495599</v>
+        <v>0.12516322483919301</v>
       </c>
       <c r="H57" s="1">
-        <v>0.61570469245663895</v>
+        <v>0.41628146500226498</v>
       </c>
       <c r="I57" s="1">
-        <v>0.48077350902712401</v>
+        <v>0.286266792162231</v>
       </c>
       <c r="J57" s="1">
-        <v>0.52151515151515104</v>
+        <v>0.31727272727272698</v>
       </c>
       <c r="K57" s="1">
-        <v>0.61332843857072905</v>
+        <v>0.39818893783651399</v>
       </c>
       <c r="L57" s="1">
-        <v>0.37177777777777699</v>
+        <v>0.18279999999999899</v>
       </c>
       <c r="M57" s="1">
-        <v>0.29040189125295501</v>
+        <v>0.13683215130023599</v>
       </c>
       <c r="N57" s="1">
-        <v>0.584176990745507</v>
+        <v>0.37142661038470698</v>
       </c>
       <c r="O57" s="1">
-        <v>0.29020385050962599</v>
+        <v>0.14290770101925199</v>
       </c>
       <c r="P57" s="1">
-        <v>0.218225989113359</v>
+        <v>9.6153143608665406E-2</v>
       </c>
       <c r="Q57" s="1">
-        <v>0.60104872864921799</v>
+        <v>0.41094339037217398</v>
       </c>
       <c r="R57" s="1">
-        <v>0.31970785986453398</v>
+        <v>0.16170225995913501</v>
       </c>
       <c r="S57" s="1">
-        <v>0.61121154709855097</v>
+        <v>0.395947927764431</v>
       </c>
       <c r="T57" s="1">
-        <v>0.49825372467191598</v>
+        <v>0.30008081071012099</v>
       </c>
       <c r="U57" s="1">
-        <v>0.364356319078807</v>
+        <v>0.193362353976407</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1">
-        <v>0.52960102960102895</v>
+        <v>0.376179751179751</v>
       </c>
       <c r="C58" s="1">
-        <v>0.71458108108108098</v>
+        <v>0.55994144144144098</v>
       </c>
       <c r="D58" s="1">
-        <v>0.68875043875043795</v>
+        <v>0.51045688545688495</v>
       </c>
       <c r="E58" s="1">
-        <v>0.67945151033386297</v>
+        <v>0.532525172231054</v>
       </c>
       <c r="F58" s="1">
-        <v>0.67908398609177201</v>
+        <v>0.51786367136756395</v>
       </c>
       <c r="G58" s="1">
-        <v>0.36446292982540901</v>
+        <v>0.24292692363495599</v>
       </c>
       <c r="H58" s="1">
-        <v>0.75239978577019695</v>
+        <v>0.61570469245663895</v>
       </c>
       <c r="I58" s="1">
-        <v>0.64117395396594501</v>
+        <v>0.48077350902712401</v>
       </c>
       <c r="J58" s="1">
-        <v>0.69082491582491501</v>
+        <v>0.52151515151515104</v>
       </c>
       <c r="K58" s="1">
-        <v>0.76386196769456605</v>
+        <v>0.61332843857072905</v>
       </c>
       <c r="L58" s="1">
-        <v>0.54982222222222199</v>
+        <v>0.37177777777777699</v>
       </c>
       <c r="M58" s="1">
-        <v>0.41593380614657199</v>
+        <v>0.29040189125295501</v>
       </c>
       <c r="N58" s="1">
-        <v>0.74515826441081201</v>
+        <v>0.584176990745507</v>
       </c>
       <c r="O58" s="1">
-        <v>0.43757078142695299</v>
+        <v>0.29020385050962599</v>
       </c>
       <c r="P58" s="1">
-        <v>0.36141453256858902</v>
+        <v>0.218225989113359</v>
       </c>
       <c r="Q58" s="1">
-        <v>0.74393025023658399</v>
+        <v>0.60104872864921799</v>
       </c>
       <c r="R58" s="1">
-        <v>0.47243687185669397</v>
+        <v>0.31970785986453398</v>
       </c>
       <c r="S58" s="1">
-        <v>0.76398897176790803</v>
+        <v>0.61121154709855097</v>
       </c>
       <c r="T58" s="1">
-        <v>0.663811811529468</v>
+        <v>0.49825372467191598</v>
       </c>
       <c r="U58" s="1">
-        <v>0.50989792489262897</v>
+        <v>0.364356319078807</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1">
-        <v>0.64108751608751602</v>
+        <v>0.52960102960102895</v>
       </c>
       <c r="C59" s="1">
-        <v>0.79993693693693602</v>
+        <v>0.71458108108108098</v>
       </c>
       <c r="D59" s="1">
-        <v>0.78698666198666201</v>
+        <v>0.68875043875043795</v>
       </c>
       <c r="E59" s="1">
-        <v>0.75516693163751902</v>
+        <v>0.67945151033386297</v>
       </c>
       <c r="F59" s="1">
-        <v>0.771260997067448</v>
+        <v>0.67908398609177201</v>
       </c>
       <c r="G59" s="1">
-        <v>0.45659428350340903</v>
+        <v>0.36446292982540901</v>
       </c>
       <c r="H59" s="1">
-        <v>0.83110451942487495</v>
+        <v>0.75239978577019695</v>
       </c>
       <c r="I59" s="1">
-        <v>0.73912894669290596</v>
+        <v>0.64117395396594501</v>
       </c>
       <c r="J59" s="1">
-        <v>0.78478114478114402</v>
+        <v>0.69082491582491501</v>
       </c>
       <c r="K59" s="1">
-        <v>0.84754772393538902</v>
+        <v>0.76386196769456605</v>
       </c>
       <c r="L59" s="1">
-        <v>0.64288888888888795</v>
+        <v>0.54982222222222199</v>
       </c>
       <c r="M59" s="1">
-        <v>0.507163120567375</v>
+        <v>0.41593380614657199</v>
       </c>
       <c r="N59" s="1">
-        <v>0.835186519784481</v>
+        <v>0.74515826441081201</v>
       </c>
       <c r="O59" s="1">
-        <v>0.54940543601359004</v>
+        <v>0.43757078142695299</v>
       </c>
       <c r="P59" s="1">
-        <v>0.441292514521608</v>
+        <v>0.36141453256858902</v>
       </c>
       <c r="Q59" s="1">
-        <v>0.82969019066383198</v>
+        <v>0.74393025023658399</v>
       </c>
       <c r="R59" s="1">
-        <v>0.57518569494405003</v>
+        <v>0.47243687185669397</v>
       </c>
       <c r="S59" s="1">
-        <v>0.84905184024872904</v>
+        <v>0.76398897176790803</v>
       </c>
       <c r="T59" s="1">
-        <v>0.76250250717649004</v>
+        <v>0.663811811529468</v>
       </c>
       <c r="U59" s="1">
-        <v>0.59460597793738001</v>
+        <v>0.50989792489262897</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1">
-        <v>0.68699056199056197</v>
+        <v>0.64108751608751602</v>
       </c>
       <c r="C60" s="1">
-        <v>0.82430630630630597</v>
+        <v>0.79993693693693602</v>
       </c>
       <c r="D60" s="1">
-        <v>0.81857669357669305</v>
+        <v>0.78698666198666201</v>
       </c>
       <c r="E60" s="1">
-        <v>0.78948065712771498</v>
+        <v>0.75516693163751902</v>
       </c>
       <c r="F60" s="1">
-        <v>0.79588820523192005</v>
+        <v>0.771260997067448</v>
       </c>
       <c r="G60" s="1">
-        <v>0.53987522367848295</v>
+        <v>0.45659428350340903</v>
       </c>
       <c r="H60" s="1">
-        <v>0.85576566555431899</v>
+        <v>0.83110451942487495</v>
       </c>
       <c r="I60" s="1">
-        <v>0.77438179173440502</v>
+        <v>0.73912894669290596</v>
       </c>
       <c r="J60" s="1">
-        <v>0.81621212121212094</v>
+        <v>0.78478114478114402</v>
       </c>
       <c r="K60" s="1">
-        <v>0.87151248164464001</v>
+        <v>0.84754772393538902</v>
       </c>
       <c r="L60" s="1">
-        <v>0.66137777777777695</v>
+        <v>0.64288888888888795</v>
       </c>
       <c r="M60" s="1">
-        <v>0.531583924349881</v>
+        <v>0.507163120567375</v>
       </c>
       <c r="N60" s="1">
-        <v>0.85958108834666003</v>
+        <v>0.835186519784481</v>
       </c>
       <c r="O60" s="1">
-        <v>0.61802802944507296</v>
+        <v>0.54940543601359004</v>
       </c>
       <c r="P60" s="1">
-        <v>0.45166770174989901</v>
+        <v>0.441292514521608</v>
       </c>
       <c r="Q60" s="1">
-        <v>0.85539645355962701</v>
+        <v>0.82969019066383198</v>
       </c>
       <c r="R60" s="1">
-        <v>0.62751205310780001</v>
+        <v>0.57518569494405003</v>
       </c>
       <c r="S60" s="1">
-        <v>0.87480259956664796</v>
+        <v>0.84905184024872904</v>
       </c>
       <c r="T60" s="1">
-        <v>0.79676924708574903</v>
+        <v>0.76250250717649004</v>
       </c>
       <c r="U60" s="1">
-        <v>0.61161618628416503</v>
+        <v>0.59460597793738001</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1">
-        <v>0.69573144573144496</v>
+        <v>0.68699056199056197</v>
       </c>
       <c r="C61" s="1">
-        <v>0.79118918918918901</v>
+        <v>0.82430630630630597</v>
       </c>
       <c r="D61" s="1">
-        <v>0.79058441558441495</v>
+        <v>0.81857669357669305</v>
       </c>
       <c r="E61" s="1">
-        <v>0.75867779544250102</v>
+        <v>0.78948065712771498</v>
       </c>
       <c r="F61" s="1">
-        <v>0.76398017999797696</v>
+        <v>0.79588820523192005</v>
       </c>
       <c r="G61" s="1">
-        <v>0.57179474778739603</v>
+        <v>0.53987522367848295</v>
       </c>
       <c r="H61" s="1">
-        <v>0.83079141432867698</v>
+        <v>0.85576566555431899</v>
       </c>
       <c r="I61" s="1">
-        <v>0.74878069650038503</v>
+        <v>0.77438179173440502</v>
       </c>
       <c r="J61" s="1">
-        <v>0.799612794612794</v>
+        <v>0.81621212121212094</v>
       </c>
       <c r="K61" s="1">
-        <v>0.84282427802251503</v>
+        <v>0.87151248164464001</v>
       </c>
       <c r="L61" s="1">
-        <v>0.60635555555555498</v>
+        <v>0.66137777777777695</v>
       </c>
       <c r="M61" s="1">
-        <v>0.51829787234042501</v>
+        <v>0.531583924349881</v>
       </c>
       <c r="N61" s="1">
-        <v>0.82955832389580897</v>
+        <v>0.85958108834666003</v>
       </c>
       <c r="O61" s="1">
-        <v>0.61041902604756504</v>
+        <v>0.61802802944507296</v>
       </c>
       <c r="P61" s="1">
-        <v>0.41067840572827202</v>
+        <v>0.45166770174989901</v>
       </c>
       <c r="Q61" s="1">
-        <v>0.826494360756449</v>
+        <v>0.85539645355962701</v>
       </c>
       <c r="R61" s="1">
-        <v>0.62831783761275894</v>
+        <v>0.62751205310780001</v>
       </c>
       <c r="S61" s="1">
-        <v>0.84612433686576505</v>
+        <v>0.87480259956664796</v>
       </c>
       <c r="T61" s="1">
-        <v>0.77075958542481005</v>
+        <v>0.79676924708574903</v>
       </c>
       <c r="U61" s="1">
-        <v>0.57725280657898803</v>
+        <v>0.61161618628416503</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="1">
-        <v>0.62612612612612595</v>
+        <v>0.69573144573144496</v>
       </c>
       <c r="C62" s="1">
-        <v>0.699995495495495</v>
+        <v>0.79118918918918901</v>
       </c>
       <c r="D62" s="1">
-        <v>0.70147420147420103</v>
+        <v>0.79058441558441495</v>
       </c>
       <c r="E62" s="1">
-        <v>0.64334923158452495</v>
+        <v>0.75867779544250102</v>
       </c>
       <c r="F62" s="1">
-        <v>0.67323444075390604</v>
+        <v>0.76398017999797696</v>
       </c>
       <c r="G62" s="1">
-        <v>0.51753155680224405</v>
+        <v>0.57179474778739603</v>
       </c>
       <c r="H62" s="1">
-        <v>0.75390763399662097</v>
+        <v>0.83079141432867698</v>
       </c>
       <c r="I62" s="1">
-        <v>0.67312398391374995</v>
+        <v>0.74878069650038503</v>
       </c>
       <c r="J62" s="1">
-        <v>0.72185185185185097</v>
+        <v>0.799612794612794</v>
       </c>
       <c r="K62" s="1">
-        <v>0.76207048458149695</v>
+        <v>0.84282427802251503</v>
       </c>
       <c r="L62" s="1">
-        <v>0.51133333333333297</v>
+        <v>0.60635555555555498</v>
       </c>
       <c r="M62" s="1">
-        <v>0.43460992907801399</v>
+        <v>0.51829787234042501</v>
       </c>
       <c r="N62" s="1">
-        <v>0.73980461466305103</v>
+        <v>0.82955832389580897</v>
       </c>
       <c r="O62" s="1">
-        <v>0.52997593431483503</v>
+        <v>0.61041902604756504</v>
       </c>
       <c r="P62" s="1">
-        <v>0.338545281847075</v>
+        <v>0.41067840572827202</v>
       </c>
       <c r="Q62" s="1">
-        <v>0.74636590701065697</v>
+        <v>0.826494360756449</v>
       </c>
       <c r="R62" s="1">
-        <v>0.55184507954174999</v>
+        <v>0.62831783761275894</v>
       </c>
       <c r="S62" s="1">
-        <v>0.761829597611969</v>
+        <v>0.84612433686576505</v>
       </c>
       <c r="T62" s="1">
-        <v>0.69132506913732905</v>
+        <v>0.77075958542481005</v>
       </c>
       <c r="U62" s="1">
-        <v>0.48632337781595902</v>
+        <v>0.57725280657898803</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="1">
-        <v>0.49083011583011499</v>
+        <v>0.62612612612612595</v>
       </c>
       <c r="C63" s="1">
-        <v>0.55780630630630601</v>
+        <v>0.699995495495495</v>
       </c>
       <c r="D63" s="1">
-        <v>0.56554931554931498</v>
+        <v>0.70147420147420103</v>
       </c>
       <c r="E63" s="1">
-        <v>0.48774509803921501</v>
+        <v>0.64334923158452495</v>
       </c>
       <c r="F63" s="1">
-        <v>0.52828706332599495</v>
+        <v>0.67323444075390604</v>
       </c>
       <c r="G63" s="1">
-        <v>0.395850461865841</v>
+        <v>0.51753155680224405</v>
       </c>
       <c r="H63" s="1">
-        <v>0.62348288221480597</v>
+        <v>0.75390763399662097</v>
       </c>
       <c r="I63" s="1">
-        <v>0.54198682296568801</v>
+        <v>0.67312398391374995</v>
       </c>
       <c r="J63" s="1">
-        <v>0.58653198653198602</v>
+        <v>0.72185185185185097</v>
       </c>
       <c r="K63" s="1">
-        <v>0.622887909936368</v>
+        <v>0.76207048458149695</v>
       </c>
       <c r="L63" s="1">
-        <v>0.39119999999999899</v>
+        <v>0.51133333333333297</v>
       </c>
       <c r="M63" s="1">
-        <v>0.30869976359338003</v>
+        <v>0.43460992907801399</v>
       </c>
       <c r="N63" s="1">
-        <v>0.59223034421222398</v>
+        <v>0.73980461466305103</v>
       </c>
       <c r="O63" s="1">
-        <v>0.40777180067950097</v>
+        <v>0.52997593431483503</v>
       </c>
       <c r="P63" s="1">
-        <v>0.25402769152084098</v>
+        <v>0.338545281847075</v>
       </c>
       <c r="Q63" s="1">
-        <v>0.61842411455343704</v>
+        <v>0.74636590701065697</v>
       </c>
       <c r="R63" s="1">
-        <v>0.42526438066086902</v>
+        <v>0.55184507954174999</v>
       </c>
       <c r="S63" s="1">
-        <v>0.61976330027724202</v>
+        <v>0.761829597611969</v>
       </c>
       <c r="T63" s="1">
-        <v>0.55820566877529698</v>
+        <v>0.69132506913732905</v>
       </c>
       <c r="U63" s="1">
-        <v>0.36431656555137099</v>
+        <v>0.48632337781595902</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="1">
-        <v>0.30534105534105499</v>
+        <v>0.49083011583011499</v>
       </c>
       <c r="C64" s="1">
-        <v>0.36824324324324298</v>
+        <v>0.55780630630630601</v>
       </c>
       <c r="D64" s="1">
-        <v>0.37295249795249702</v>
+        <v>0.56554931554931498</v>
       </c>
       <c r="E64" s="1">
-        <v>0.31955484896661301</v>
+        <v>0.48774509803921501</v>
       </c>
       <c r="F64" s="1">
-        <v>0.33574990082220302</v>
+        <v>0.52828706332599495</v>
       </c>
       <c r="G64" s="1">
-        <v>0.228031145717463</v>
+        <v>0.395850461865841</v>
       </c>
       <c r="H64" s="1">
-        <v>0.438240019775058</v>
+        <v>0.62348288221480597</v>
       </c>
       <c r="I64" s="1">
-        <v>0.35697783862411198</v>
+        <v>0.54198682296568801</v>
       </c>
       <c r="J64" s="1">
-        <v>0.39136363636363602</v>
+        <v>0.58653198653198602</v>
       </c>
       <c r="K64" s="1">
-        <v>0.42449339207048398</v>
+        <v>0.622887909936368</v>
       </c>
       <c r="L64" s="1">
-        <v>0.245288888888888</v>
+        <v>0.39119999999999899</v>
       </c>
       <c r="M64" s="1">
-        <v>0.16066193853427899</v>
+        <v>0.30869976359338003</v>
       </c>
       <c r="N64" s="1">
-        <v>0.39314435407300602</v>
+        <v>0.59223034421222398</v>
       </c>
       <c r="O64" s="1">
-        <v>0.22427095130237801</v>
+        <v>0.40777180067950097</v>
       </c>
       <c r="P64" s="1">
-        <v>0.13074927848609899</v>
+        <v>0.25402769152084098</v>
       </c>
       <c r="Q64" s="1">
-        <v>0.44041949145968701</v>
+        <v>0.61842411455343704</v>
       </c>
       <c r="R64" s="1">
-        <v>0.25159896201520399</v>
+        <v>0.42526438066086902</v>
       </c>
       <c r="S64" s="1">
-        <v>0.42238471571892999</v>
+        <v>0.61976330027724202</v>
       </c>
       <c r="T64" s="1">
-        <v>0.372125434797907</v>
+        <v>0.55820566877529698</v>
       </c>
       <c r="U64" s="1">
-        <v>0.20837440477881899</v>
+        <v>0.36431656555137099</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="1">
-        <v>0.104354354354354</v>
+        <v>0.30534105534105499</v>
       </c>
       <c r="C65" s="1">
-        <v>0.14818468468468399</v>
+        <v>0.36824324324324298</v>
       </c>
       <c r="D65" s="1">
-        <v>0.148692523692523</v>
+        <v>0.37295249795249702</v>
       </c>
       <c r="E65" s="1">
-        <v>0.15268945416004201</v>
+        <v>0.31955484896661301</v>
       </c>
       <c r="F65" s="1">
-        <v>0.11293822973467001</v>
+        <v>0.33574990082220302</v>
       </c>
       <c r="G65" s="1">
-        <v>6.7949896019732003E-2</v>
+        <v>0.228031145717463</v>
       </c>
       <c r="H65" s="1">
-        <v>0.212721954434968</v>
+        <v>0.438240019775058</v>
       </c>
       <c r="I65" s="1">
-        <v>0.14778814066911899</v>
+        <v>0.35697783862411198</v>
       </c>
       <c r="J65" s="1">
-        <v>0.15994949494949401</v>
+        <v>0.39136363636363602</v>
       </c>
       <c r="K65" s="1">
-        <v>0.18374938815467401</v>
+        <v>0.42449339207048398</v>
       </c>
       <c r="L65" s="1">
-        <v>7.8844444444444398E-2</v>
+        <v>0.245288888888888</v>
       </c>
       <c r="M65" s="1">
-        <v>3.3498817966903002E-2</v>
+        <v>0.16066193853427899</v>
       </c>
       <c r="N65" s="1">
-        <v>0.162880217806605</v>
+        <v>0.39314435407300602</v>
       </c>
       <c r="O65" s="1">
-        <v>5.9421007927519802E-2</v>
+        <v>0.22427095130237801</v>
       </c>
       <c r="P65" s="1">
-        <v>2.85317648777993E-2</v>
+        <v>0.13074927848609899</v>
       </c>
       <c r="Q65" s="1">
-        <v>0.22836221474115301</v>
+        <v>0.44041949145968701</v>
       </c>
       <c r="R65" s="1">
-        <v>7.6795132564513396E-2</v>
+        <v>0.25159896201520399</v>
       </c>
       <c r="S65" s="1">
-        <v>0.18401863601006899</v>
+        <v>0.42238471571892999</v>
       </c>
       <c r="T65" s="1">
-        <v>0.15810465422800099</v>
+        <v>0.372125434797907</v>
       </c>
       <c r="U65" s="1">
-        <v>5.8724186258355397E-2</v>
+        <v>0.20837440477881899</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="1">
-        <v>1.04568854568854E-2</v>
+        <v>0.104354354354354</v>
       </c>
       <c r="C66" s="1">
-        <v>2.2391891891891901E-2</v>
+        <v>0.14818468468468399</v>
       </c>
       <c r="D66" s="1">
-        <v>2.0036270036269999E-2</v>
+        <v>0.148692523692523</v>
       </c>
       <c r="E66" s="1">
-        <v>3.1730259671436098E-2</v>
+        <v>0.15268945416004201</v>
       </c>
       <c r="F66" s="1">
-        <v>1.2243596225798599E-2</v>
+        <v>0.11293822973467001</v>
       </c>
       <c r="G66" s="1">
-        <v>5.8519127533007698E-3</v>
+        <v>6.7949896019732003E-2</v>
       </c>
       <c r="H66" s="1">
-        <v>3.4103736662134801E-2</v>
+        <v>0.212721954434968</v>
       </c>
       <c r="I66" s="1">
-        <v>2.1511080687943801E-2</v>
+        <v>0.14778814066911899</v>
       </c>
       <c r="J66" s="1">
-        <v>2.0858585858585799E-2</v>
+        <v>0.15994949494949401</v>
       </c>
       <c r="K66" s="1">
-        <v>2.60352422907488E-2</v>
+        <v>0.18374938815467401</v>
       </c>
       <c r="L66" s="1">
-        <v>8.4888888888888896E-3</v>
+        <v>7.8844444444444398E-2</v>
       </c>
       <c r="M66" s="1">
-        <v>4.7517730496453798E-3</v>
+        <v>3.3498817966903002E-2</v>
       </c>
       <c r="N66" s="1">
-        <v>2.3227747463308E-2</v>
+        <v>0.162880217806605</v>
       </c>
       <c r="O66" s="1">
-        <v>2.6189127972819901E-3</v>
+        <v>5.9421007927519802E-2</v>
       </c>
       <c r="P66" s="1">
-        <v>3.6349687648412599E-3</v>
+        <v>2.85317648777993E-2</v>
       </c>
       <c r="Q66" s="1">
-        <v>4.5113948401309299E-2</v>
+        <v>0.22836221474115301</v>
       </c>
       <c r="R66" s="1">
-        <v>6.89546056237288E-3</v>
+        <v>7.6795132564513396E-2</v>
       </c>
       <c r="S66" s="1">
-        <v>2.7273423296207799E-2</v>
+        <v>0.18401863601006899</v>
       </c>
       <c r="T66" s="1">
-        <v>2.4034143801396499E-2</v>
+        <v>0.15810465422800099</v>
       </c>
       <c r="U66" s="1">
-        <v>7.6310922370774002E-3</v>
+        <v>5.8724186258355397E-2</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="1">
-        <v>2.168404344971E-19</v>
+        <v>1.04568854568854E-2</v>
       </c>
       <c r="C67" s="1">
-        <v>8.9189189189189E-4</v>
+        <v>2.2391891891891901E-2</v>
       </c>
       <c r="D67" s="1">
-        <v>1.1407511407511401E-3</v>
+        <v>2.0036270036269999E-2</v>
       </c>
       <c r="E67" s="1">
-        <v>1.5898251192368799E-3</v>
+        <v>3.1730259671436098E-2</v>
       </c>
       <c r="F67" s="1">
-        <v>1.7890896645067901E-4</v>
+        <v>1.2243596225798599E-2</v>
       </c>
       <c r="G67" s="1">
-        <v>1.4508874594960499E-4</v>
+        <v>5.8519127533007698E-3</v>
       </c>
       <c r="H67" s="1">
-        <v>1.66440077452313E-3</v>
+        <v>3.4103736662134801E-2</v>
       </c>
       <c r="I67" s="1">
-        <v>1.2492513048686499E-3</v>
+        <v>2.1511080687943801E-2</v>
       </c>
       <c r="J67" s="1">
-        <v>9.7643097643097495E-4</v>
+        <v>2.0858585858585799E-2</v>
       </c>
       <c r="K67" s="1">
-        <v>1.12090063631913E-3</v>
+        <v>2.60352422907488E-2</v>
       </c>
       <c r="L67" s="1">
-        <v>2.2222222222222101E-4</v>
+        <v>8.4888888888888896E-3</v>
       </c>
       <c r="M67" s="1">
-        <v>4.7281323877068099E-5</v>
+        <v>4.7517730496453798E-3</v>
       </c>
       <c r="N67" s="1">
-        <v>9.2087351430499703E-4</v>
+        <v>2.3227747463308E-2</v>
       </c>
       <c r="O67" s="1">
-        <v>0</v>
+        <v>2.6189127972819901E-3</v>
       </c>
       <c r="P67" s="1">
-        <v>9.1330873488473604E-5</v>
+        <v>3.6349687648412599E-3</v>
       </c>
       <c r="Q67" s="1">
-        <v>1.86164848973766E-3</v>
+        <v>4.5113948401309299E-2</v>
       </c>
       <c r="R67" s="1">
-        <v>9.6658659917353099E-5</v>
+        <v>6.89546056237288E-3</v>
       </c>
       <c r="S67" s="1">
-        <v>1.1465675093994901E-3</v>
+        <v>2.7273423296207799E-2</v>
       </c>
       <c r="T67" s="1">
-        <v>1.2148339990996301E-3</v>
+        <v>2.4034143801396499E-2</v>
       </c>
       <c r="U67" s="1">
-        <v>1.6245862133439101E-4</v>
+        <v>7.6310922370774002E-3</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>2.168404344971E-19</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>8.9189189189189E-4</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>1.1407511407511401E-3</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>1.5898251192368799E-3</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>1.7890896645067901E-4</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>1.4508874594960499E-4</v>
       </c>
       <c r="H68" s="1">
-        <v>0</v>
+        <v>1.66440077452313E-3</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>1.2492513048686499E-3</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>9.7643097643097495E-4</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1.12090063631913E-3</v>
       </c>
       <c r="L68" s="1">
-        <v>0</v>
+        <v>2.2222222222222101E-4</v>
       </c>
       <c r="M68" s="1">
-        <v>0</v>
+        <v>4.7281323877068099E-5</v>
       </c>
       <c r="N68" s="1">
-        <v>0</v>
+        <v>9.2087351430499703E-4</v>
       </c>
       <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>9.1330873488473604E-5</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1.86164848973766E-3</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>9.6658659917353099E-5</v>
       </c>
       <c r="S68" s="1">
-        <v>0</v>
+        <v>1.1465675093994901E-3</v>
       </c>
       <c r="T68" s="1">
-        <v>0</v>
+        <v>1.2148339990996301E-3</v>
       </c>
       <c r="U68" s="1">
-        <v>0</v>
+        <v>1.6245862133439101E-4</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -5363,6 +5368,69 @@
         <v>0</v>
       </c>
       <c r="U74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5370,9 +5438,9 @@
   <mergeCells count="8">
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A3:A26"/>
-    <mergeCell ref="A27:A50"/>
-    <mergeCell ref="A51:A74"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="A28:A51"/>
+    <mergeCell ref="A52:A75"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>

--- a/Clustering_results.xlsx
+++ b/Clustering_results.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Z00BGPL/Desktop/GEP_NG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C644B-86A4-0749-8FD7-6DE082A971DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB9BECA-F08A-614B-B66E-4231EDFAA08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55160" yWindow="4480" windowWidth="34560" windowHeight="19880" xr2:uid="{367638C0-19CC-6049-B6CD-C0058C056765}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{367638C0-19CC-6049-B6CD-C0058C056765}"/>
   </bookViews>
   <sheets>
     <sheet name="2015 clusters" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_2015_clusters_results_5" localSheetId="0">'2015 clusters'!$B$4:$E$75</definedName>
-    <definedName name="_2016_clusters_results" localSheetId="0">'2015 clusters'!$F$4:$I$75</definedName>
-    <definedName name="_2017_clusters_results" localSheetId="0">'2015 clusters'!$J$4:$M$75</definedName>
-    <definedName name="_2018_clusters_results" localSheetId="0">'2015 clusters'!$N$4:$Q$75</definedName>
-    <definedName name="all_clusters_results" localSheetId="0">'2015 clusters'!$R$4:$U$75</definedName>
+    <definedName name="_2015_clusters_results" localSheetId="0">'2015 clusters'!$B$4:$E$75</definedName>
+    <definedName name="_2016_clusters_results_5" localSheetId="0">'2015 clusters'!$F$4:$I$75</definedName>
+    <definedName name="_2017_clusters_results_5" localSheetId="0">'2015 clusters'!$J$4:$M$75</definedName>
+    <definedName name="_2018_clusters_results_5" localSheetId="0">'2015 clusters'!$N$4:$Q$75</definedName>
+    <definedName name="all_clusters_results_1" localSheetId="0">'2015 clusters'!$R$4:$U$75</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,8 +45,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F018701A-FA53-F34B-9474-D44618D3DC04}" name="2015_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2015_clusters_results" comma="1">
+  <connection id="1" xr16:uid="{D715BF44-01C7-494E-B942-58E9561CB65D}" name="2015_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2015_clusters_results" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -55,8 +55,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{E131A6F4-4288-A24D-A377-ACF3BA40AD26}" name="2016_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2016_clusters_results" comma="1">
+  <connection id="2" xr16:uid="{9E25A7B5-1774-EA4F-B783-3FAF859CA4BC}" name="2016_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2016_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -65,8 +65,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{90F17962-1D8E-594F-896B-549C882DDDF0}" name="2017_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2017_clusters_results" comma="1">
+  <connection id="3" xr16:uid="{9149CE6A-EE54-CC4E-A394-29D0F3BB0E61}" name="2017_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2017_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -75,8 +75,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{F325D0C1-508D-414A-B14D-6F4AA56D92F5}" name="2018_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2018_clusters_results" comma="1">
+  <connection id="4" xr16:uid="{60D605B6-1EA3-9E46-89A1-8C935EE21F7E}" name="2018_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/2018_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -85,8 +85,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{52BEB39A-D7A9-B646-BB1B-99B2EC2BA020}" name="all_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/all_clusters_results" comma="1">
+  <connection id="5" xr16:uid="{B7BE5C78-B56F-4D4D-9058-23D23C6F7A6E}" name="all_clusters_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Z00BGPL/Desktop/GEP_NG/all_clusters_results" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +145,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,12 +173,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,23 +198,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2016_clusters_results" connectionId="2" xr16:uid="{1904032D-22FA-4B40-B581-F34B38A6604E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_clusters_results_1" connectionId="5" xr16:uid="{D538CE2A-B240-0C42-B8BE-692C36544AAF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_2015_clusters_results_5" connectionId="1" xr16:uid="{F705815C-5E4D-8849-A96B-69A37F587B80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_2018_clusters_results_5" connectionId="4" xr16:uid="{EF34DEAC-8A71-D344-A24F-35A8D1067A25}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_clusters_results" connectionId="5" xr16:uid="{6FABED0F-462E-4642-A065-E7617F74113C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_2017_clusters_results_5" connectionId="3" xr16:uid="{30DA23A3-994A-9D47-B3AA-38C406373D73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2018_clusters_results" connectionId="4" xr16:uid="{A4BED521-F1B6-5E47-AE33-15F55095CF9A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_2016_clusters_results_5" connectionId="2" xr16:uid="{7A00DB9E-E79B-104D-9A75-384B426FF43F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2017_clusters_results" connectionId="3" xr16:uid="{5D01736C-0E13-A84C-BBD6-1D28DACAC877}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2015_clusters_results" connectionId="1" xr16:uid="{C6426931-8398-F643-9EB7-04B8252289F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,16 +517,12 @@
   <dimension ref="A1:BU75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="52" max="66" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="73" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -624,129 +627,130 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>17</v>
       </c>
       <c r="F3">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="I3">
         <v>65</v>
       </c>
       <c r="J3">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="K3">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="N3">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="O3">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="P3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="R3">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="S3">
-        <v>839</v>
+        <v>488</v>
       </c>
       <c r="T3">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="U3">
-        <v>277</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.58484496814973097</v>
+        <v>0.63224091410813799</v>
       </c>
       <c r="C4" s="1">
-        <v>0.66213315350971103</v>
+        <v>0.66156515260464999</v>
       </c>
       <c r="D4" s="1">
-        <v>0.62743763288906096</v>
+        <v>0.58733383349289803</v>
       </c>
       <c r="E4" s="1">
         <v>0.192605593859107</v>
       </c>
       <c r="F4" s="1">
-        <v>0.61951725404640101</v>
+        <v>0.792152714668096</v>
       </c>
       <c r="G4" s="1">
-        <v>0.63809430966771497</v>
+        <v>0.63487857434045702</v>
       </c>
       <c r="H4" s="1">
-        <v>0.78860654376349404</v>
+        <v>0.62335301348754202</v>
       </c>
       <c r="I4" s="1">
-        <v>0.67060069974868097</v>
+        <v>0.67114768639432298</v>
       </c>
       <c r="J4" s="1">
-        <v>0.63987893826603504</v>
+        <v>0.79107550228127699</v>
       </c>
       <c r="K4" s="1">
-        <v>0.71106568577081497</v>
+        <v>0.62213606286186895</v>
       </c>
       <c r="L4" s="1">
-        <v>0.62983870967741895</v>
+        <v>0.65166968078395004</v>
       </c>
       <c r="M4" s="1">
-        <v>0.61413072171479799</v>
+        <v>0.61224979321753503</v>
       </c>
       <c r="N4" s="1">
-        <v>0.67585407084289695</v>
+        <v>0.753981852631879</v>
       </c>
       <c r="O4" s="1">
-        <v>0.61572092759360997</v>
+        <v>0.67459048184912096</v>
       </c>
       <c r="P4" s="1">
-        <v>0.626011093282419</v>
+        <v>0.62625147201624198</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.75042866965442301</v>
+        <v>0.61448171049992495</v>
       </c>
       <c r="R4" s="1">
-        <v>0.61759209244897595</v>
+        <v>0.66008437840775802</v>
       </c>
       <c r="S4" s="1">
-        <v>0.70476305276033702</v>
+        <v>0.77241395834468696</v>
       </c>
       <c r="T4" s="1">
-        <v>0.66157708237689095</v>
+        <v>0.61791451780691797</v>
       </c>
       <c r="U4" s="1">
-        <v>0.58699134983039103</v>
+        <v>0.59933830966948498</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -804,64 +808,64 @@
     <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
-        <v>0.54246532423171301</v>
+        <v>0.59341807404186797</v>
       </c>
       <c r="C5" s="1">
-        <v>0.631921058270416</v>
+        <v>0.63124737983517998</v>
       </c>
       <c r="D5" s="1">
-        <v>0.58776571059931904</v>
+        <v>0.54519507045070803</v>
       </c>
       <c r="E5" s="1">
         <v>0.171614905588891</v>
       </c>
       <c r="F5" s="1">
-        <v>0.58295292151794298</v>
+        <v>0.77050092119442404</v>
       </c>
       <c r="G5" s="1">
-        <v>0.60075759685820096</v>
+        <v>0.59711140877060098</v>
       </c>
       <c r="H5" s="1">
-        <v>0.76620874558094199</v>
+        <v>0.58677086760046404</v>
       </c>
       <c r="I5" s="1">
-        <v>0.63751539939880697</v>
+        <v>0.63802296358350097</v>
       </c>
       <c r="J5" s="1">
-        <v>0.60591961801639205</v>
+        <v>0.76720713599615697</v>
       </c>
       <c r="K5" s="1">
-        <v>0.68222773034837803</v>
+        <v>0.58578370554176995</v>
       </c>
       <c r="L5" s="1">
-        <v>0.59352357320099203</v>
+        <v>0.61790280523194596</v>
       </c>
       <c r="M5" s="1">
-        <v>0.576005754712</v>
+        <v>0.57639991728701401</v>
       </c>
       <c r="N5" s="1">
-        <v>0.64080818919854698</v>
+        <v>0.72623641250387005</v>
       </c>
       <c r="O5" s="1">
-        <v>0.570468903528349</v>
+        <v>0.63960394389189801</v>
       </c>
       <c r="P5" s="1">
-        <v>0.58604133316261198</v>
+        <v>0.58577680403215804</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.72245757632500995</v>
+        <v>0.56879106612586305</v>
       </c>
       <c r="R5" s="1">
-        <v>0.57739376786665197</v>
+        <v>0.62462618963648198</v>
       </c>
       <c r="S5" s="1">
-        <v>0.67527791290600903</v>
+        <v>0.74931017534553701</v>
       </c>
       <c r="T5" s="1">
-        <v>0.62621888192197395</v>
+        <v>0.57733954067737703</v>
       </c>
       <c r="U5" s="1">
-        <v>0.55042524328638798</v>
+        <v>0.56181366887505702</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -919,64 +923,64 @@
     <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
-        <v>0.51099108864716303</v>
+        <v>0.56176946312696296</v>
       </c>
       <c r="C6" s="1">
-        <v>0.600207734096323</v>
+        <v>0.59919414976823604</v>
       </c>
       <c r="D6" s="1">
-        <v>0.55434122137866904</v>
+        <v>0.51197396247488003</v>
       </c>
       <c r="E6" s="1">
         <v>0.15006721142646101</v>
       </c>
       <c r="F6" s="1">
-        <v>0.54464145719751</v>
+        <v>0.74055589489941298</v>
       </c>
       <c r="G6" s="1">
-        <v>0.56013425061972499</v>
+        <v>0.55665074835478401</v>
       </c>
       <c r="H6" s="1">
-        <v>0.73543075426483395</v>
+        <v>0.54806343819796699</v>
       </c>
       <c r="I6" s="1">
-        <v>0.60211895727590803</v>
+        <v>0.60250332627014203</v>
       </c>
       <c r="J6" s="1">
-        <v>0.57496804270997803</v>
+        <v>0.735797046345953</v>
       </c>
       <c r="K6" s="1">
-        <v>0.65182797520796598</v>
+        <v>0.55508684863523505</v>
       </c>
       <c r="L6" s="1">
-        <v>0.56204714640198505</v>
+        <v>0.58615994448416497</v>
       </c>
       <c r="M6" s="1">
-        <v>0.54684282772820803</v>
+        <v>0.54729735318444905</v>
       </c>
       <c r="N6" s="1">
-        <v>0.60652195106820495</v>
+        <v>0.69274279449746901</v>
       </c>
       <c r="O6" s="1">
-        <v>0.53055489634226805</v>
+        <v>0.605356365177803</v>
       </c>
       <c r="P6" s="1">
-        <v>0.54719869877760197</v>
+        <v>0.546171044465526</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.68889556792679196</v>
+        <v>0.52902662026841796</v>
       </c>
       <c r="R6" s="1">
-        <v>0.54125758362814502</v>
+        <v>0.59027184874162797</v>
       </c>
       <c r="S6" s="1">
-        <v>0.64303894281345098</v>
+        <v>0.71927992490480996</v>
       </c>
       <c r="T6" s="1">
-        <v>0.59212425823177905</v>
+        <v>0.54062971172804597</v>
       </c>
       <c r="U6" s="1">
-        <v>0.51640247907225301</v>
+        <v>0.52722470294648305</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1034,64 +1038,64 @@
     <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
-        <v>0.48916361608737102</v>
+        <v>0.54355114930571502</v>
       </c>
       <c r="C7" s="1">
-        <v>0.58345831075034305</v>
+        <v>0.58241259294123604</v>
       </c>
       <c r="D7" s="1">
-        <v>0.53614995803697096</v>
+        <v>0.491164547930101</v>
       </c>
       <c r="E7" s="1">
         <v>0.137870543304103</v>
       </c>
       <c r="F7" s="1">
-        <v>0.52680055370638301</v>
+        <v>0.72133744518769005</v>
       </c>
       <c r="G7" s="1">
-        <v>0.53935604267052795</v>
+        <v>0.53610739036748001</v>
       </c>
       <c r="H7" s="1">
-        <v>0.71582793555887703</v>
+        <v>0.52979292553283497</v>
       </c>
       <c r="I7" s="1">
-        <v>0.58237323214901604</v>
+        <v>0.58272310648992198</v>
       </c>
       <c r="J7" s="1">
-        <v>0.55733513798029899</v>
+        <v>0.71588089330024796</v>
       </c>
       <c r="K7" s="1">
-        <v>0.63345530765951297</v>
+        <v>0.53706575682382096</v>
       </c>
       <c r="L7" s="1">
-        <v>0.54353598014888305</v>
+        <v>0.56804895487235496</v>
       </c>
       <c r="M7" s="1">
-        <v>0.528951744892033</v>
+        <v>0.53045905707195995</v>
       </c>
       <c r="N7" s="1">
-        <v>0.59025903933314094</v>
+        <v>0.67688358184156805</v>
       </c>
       <c r="O7" s="1">
-        <v>0.51698189408567397</v>
+        <v>0.58899102489346999</v>
       </c>
       <c r="P7" s="1">
-        <v>0.53108677243783398</v>
+        <v>0.530512187020862</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.67295138137634203</v>
+        <v>0.51543722459210395</v>
       </c>
       <c r="R7" s="1">
-        <v>0.522909667924912</v>
+        <v>0.57271745172362198</v>
       </c>
       <c r="S7" s="1">
-        <v>0.62545845902852204</v>
+        <v>0.70108730083493098</v>
       </c>
       <c r="T7" s="1">
-        <v>0.57455187678063202</v>
+        <v>0.52231906104672798</v>
       </c>
       <c r="U7" s="1">
-        <v>0.499130846107812</v>
+        <v>0.51026739703062596</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1149,1261 +1153,1261 @@
     <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
-        <v>0.49398707262629499</v>
+        <v>0.551438839970672</v>
       </c>
       <c r="C8" s="1">
-        <v>0.59476234291692298</v>
+        <v>0.59411810081333605</v>
       </c>
       <c r="D8" s="1">
-        <v>0.544571496668248</v>
+        <v>0.49423387081305797</v>
       </c>
       <c r="E8" s="1">
         <v>0.14697170447139399</v>
       </c>
       <c r="F8" s="1">
-        <v>0.53389211685175797</v>
+        <v>0.71701453550447203</v>
       </c>
       <c r="G8" s="1">
-        <v>0.546862379188368</v>
+        <v>0.54427523149496204</v>
       </c>
       <c r="H8" s="1">
-        <v>0.71168291930623695</v>
+        <v>0.53679424139065302</v>
       </c>
       <c r="I8" s="1">
-        <v>0.58580298625141602</v>
+        <v>0.58569457448381201</v>
       </c>
       <c r="J8" s="1">
-        <v>0.56059666140311304</v>
+        <v>0.71574581765788803</v>
       </c>
       <c r="K8" s="1">
-        <v>0.63592713241000798</v>
+        <v>0.54381720430107505</v>
       </c>
       <c r="L8" s="1">
-        <v>0.55094292803970202</v>
+        <v>0.570887832779576</v>
       </c>
       <c r="M8" s="1">
-        <v>0.53834274853492403</v>
+        <v>0.53736972704714603</v>
       </c>
       <c r="N8" s="1">
-        <v>0.59471375732359899</v>
+        <v>0.68169206592458798</v>
       </c>
       <c r="O8" s="1">
-        <v>0.52428118812429003</v>
+        <v>0.59349968009509102</v>
       </c>
       <c r="P8" s="1">
-        <v>0.53735070358299797</v>
+        <v>0.53693560303834997</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.67794893368612097</v>
+        <v>0.52271154581846202</v>
       </c>
       <c r="R8" s="1">
-        <v>0.52958559769166402</v>
+        <v>0.57752433482913101</v>
       </c>
       <c r="S8" s="1">
-        <v>0.62960925020322001</v>
+        <v>0.70262299483286805</v>
       </c>
       <c r="T8" s="1">
-        <v>0.57949313829792204</v>
+        <v>0.52855717984008899</v>
       </c>
       <c r="U8" s="1">
-        <v>0.50817578723196499</v>
+        <v>0.51884376879732996</v>
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
-        <v>0.51124167730543002</v>
+        <v>0.56309649172058795</v>
       </c>
       <c r="C9" s="1">
-        <v>0.60262418543680696</v>
+        <v>0.60221391694235005</v>
       </c>
       <c r="D9" s="1">
-        <v>0.55713523717418401</v>
+        <v>0.51078325207110398</v>
       </c>
       <c r="E9" s="1">
         <v>0.143357190362185</v>
       </c>
       <c r="F9" s="1">
-        <v>0.54808868261782995</v>
+        <v>0.71232414125312205</v>
       </c>
       <c r="G9" s="1">
-        <v>0.56255744645294203</v>
+        <v>0.56036340341273005</v>
       </c>
       <c r="H9" s="1">
-        <v>0.70789854556670595</v>
+        <v>0.55116912235746296</v>
       </c>
       <c r="I9" s="1">
-        <v>0.59351007736657901</v>
+        <v>0.59307150248854201</v>
       </c>
       <c r="J9" s="1">
-        <v>0.56906534325889102</v>
+        <v>0.70794895141279102</v>
       </c>
       <c r="K9" s="1">
-        <v>0.63785512838731495</v>
+        <v>0.55922249793217504</v>
       </c>
       <c r="L9" s="1">
-        <v>0.56681141439205895</v>
+        <v>0.57737519451570796</v>
       </c>
       <c r="M9" s="1">
-        <v>0.55600945039860605</v>
+        <v>0.55279569892473102</v>
       </c>
       <c r="N9" s="1">
-        <v>0.60028950224384703</v>
+        <v>0.67535302543930498</v>
       </c>
       <c r="O9" s="1">
-        <v>0.54653178141074898</v>
+        <v>0.599276884785649</v>
       </c>
       <c r="P9" s="1">
-        <v>0.55699661296220104</v>
+        <v>0.55738784562179</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.67244568273414396</v>
+        <v>0.54521699987551298</v>
       </c>
       <c r="R9" s="1">
-        <v>0.54726756417738998</v>
+        <v>0.58606255341945601</v>
       </c>
       <c r="S9" s="1">
-        <v>0.63268383607038203</v>
+        <v>0.697010737517896</v>
       </c>
       <c r="T9" s="1">
-        <v>0.58762489326934697</v>
+        <v>0.54618852548238495</v>
       </c>
       <c r="U9" s="1">
-        <v>0.52336438953064301</v>
+        <v>0.53403055567022695</v>
       </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
-        <v>0.56559600786758302</v>
+        <v>0.61262481484130904</v>
       </c>
       <c r="C10" s="1">
-        <v>0.64532977047279305</v>
+        <v>0.64550190906323102</v>
       </c>
       <c r="D10" s="1">
-        <v>0.60743726130304798</v>
+        <v>0.56097900480668295</v>
       </c>
       <c r="E10" s="1">
         <v>0.16639202538093201</v>
       </c>
       <c r="F10" s="1">
-        <v>0.61323205942040004</v>
+        <v>0.72612219358491104</v>
       </c>
       <c r="G10" s="1">
-        <v>0.63181349747931903</v>
+        <v>0.63023411566012399</v>
       </c>
       <c r="H10" s="1">
-        <v>0.724428784966901</v>
+        <v>0.61703343317693005</v>
       </c>
       <c r="I10" s="1">
-        <v>0.64480855467402498</v>
+        <v>0.64367515892179505</v>
       </c>
       <c r="J10" s="1">
-        <v>0.62050248138957798</v>
+        <v>0.72485842071560003</v>
       </c>
       <c r="K10" s="1">
-        <v>0.67340622642953096</v>
+        <v>0.62066790736145505</v>
       </c>
       <c r="L10" s="1">
-        <v>0.62915632754342399</v>
+        <v>0.62693464272195798</v>
       </c>
       <c r="M10" s="1">
-        <v>0.625765535082625</v>
+        <v>0.61498552522745997</v>
       </c>
       <c r="N10" s="1">
-        <v>0.64360495064720502</v>
+        <v>0.694508291412537</v>
       </c>
       <c r="O10" s="1">
-        <v>0.61972303111388205</v>
+        <v>0.64298255060896803</v>
       </c>
       <c r="P10" s="1">
-        <v>0.62166011425269596</v>
+        <v>0.62316176268309298</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.69264049139971595</v>
+        <v>0.61742777877799204</v>
       </c>
       <c r="R10" s="1">
-        <v>0.61162915603056001</v>
+        <v>0.63516213357943796</v>
       </c>
       <c r="S10" s="1">
-        <v>0.668205757085509</v>
+        <v>0.71165417362364602</v>
       </c>
       <c r="T10" s="1">
-        <v>0.63563419310842095</v>
+        <v>0.60965963761888697</v>
       </c>
       <c r="U10" s="1">
-        <v>0.586146323397293</v>
+        <v>0.597941499915005</v>
       </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1">
-        <v>0.61336330793834803</v>
+        <v>0.66451094942845301</v>
       </c>
       <c r="C11" s="1">
-        <v>0.69194718731487204</v>
+        <v>0.69197888066456403</v>
       </c>
       <c r="D11" s="1">
-        <v>0.65920357167820498</v>
+        <v>0.61013708171690195</v>
       </c>
       <c r="E11" s="1">
         <v>0.212648537993918</v>
       </c>
       <c r="F11" s="1">
-        <v>0.670994924358152</v>
+        <v>0.77005149749961499</v>
       </c>
       <c r="G11" s="1">
-        <v>0.68827117511071501</v>
+        <v>0.68730708753130199</v>
       </c>
       <c r="H11" s="1">
-        <v>0.76876883289439302</v>
+        <v>0.67448534376785396</v>
       </c>
       <c r="I11" s="1">
-        <v>0.69882718178682302</v>
+        <v>0.69785640368599999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.67278084818407402</v>
+        <v>0.77044144721043695</v>
       </c>
       <c r="K11" s="1">
-        <v>0.72173183502585203</v>
+        <v>0.67375930521091798</v>
       </c>
       <c r="L11" s="1">
-        <v>0.68243176178660003</v>
+        <v>0.68019514657021396</v>
       </c>
       <c r="M11" s="1">
-        <v>0.67939918694894597</v>
+        <v>0.66685483870967699</v>
       </c>
       <c r="N11" s="1">
-        <v>0.70189048033417301</v>
+        <v>0.74600997775345701</v>
       </c>
       <c r="O11" s="1">
-        <v>0.68131023847503402</v>
+        <v>0.70141787779838605</v>
       </c>
       <c r="P11" s="1">
-        <v>0.68508400876733</v>
+        <v>0.68668654795043604</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.74452973386416799</v>
+        <v>0.67878655854162295</v>
       </c>
       <c r="R11" s="1">
-        <v>0.66641824856051901</v>
+        <v>0.68869097104758203</v>
       </c>
       <c r="S11" s="1">
-        <v>0.717980117344865</v>
+        <v>0.75698917375897501</v>
       </c>
       <c r="T11" s="1">
-        <v>0.68921208814931501</v>
+        <v>0.66502827137682796</v>
       </c>
       <c r="U11" s="1">
-        <v>0.64258513184770005</v>
+        <v>0.65414166287854603</v>
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
-        <v>0.679581135805848</v>
+        <v>0.74601060673448005</v>
       </c>
       <c r="C12" s="1">
-        <v>0.77441280865170004</v>
+        <v>0.77455045119353405</v>
       </c>
       <c r="D12" s="1">
-        <v>0.74036921080860196</v>
+        <v>0.67780686241574795</v>
       </c>
       <c r="E12" s="1">
         <v>0.292126883903289</v>
       </c>
       <c r="F12" s="1">
-        <v>0.74869301102484898</v>
+        <v>0.85572754495478398</v>
       </c>
       <c r="G12" s="1">
-        <v>0.76937860345931997</v>
+        <v>0.76808281404693901</v>
       </c>
       <c r="H12" s="1">
-        <v>0.85475122784539803</v>
+        <v>0.75278537666430001</v>
       </c>
       <c r="I12" s="1">
-        <v>0.77999310106933395</v>
+        <v>0.77908638446754996</v>
       </c>
       <c r="J12" s="1">
-        <v>0.74961463267914796</v>
+        <v>0.84967081565676705</v>
       </c>
       <c r="K12" s="1">
-        <v>0.79914818377586605</v>
+        <v>0.74935897435897403</v>
       </c>
       <c r="L12" s="1">
-        <v>0.75792803970223299</v>
+        <v>0.75679227825209205</v>
       </c>
       <c r="M12" s="1">
-        <v>0.75225700860567002</v>
+        <v>0.74150744416873404</v>
       </c>
       <c r="N12" s="1">
-        <v>0.787158620694134</v>
+        <v>0.83439825420847102</v>
       </c>
       <c r="O12" s="1">
-        <v>0.75985981476075304</v>
+        <v>0.786724303833506</v>
       </c>
       <c r="P12" s="1">
-        <v>0.76718695477858201</v>
+        <v>0.76837179821587298</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.83282038234996802</v>
+        <v>0.75752173011226798</v>
       </c>
       <c r="R12" s="1">
-        <v>0.74231948521539903</v>
+        <v>0.77023656548243502</v>
       </c>
       <c r="S12" s="1">
-        <v>0.80041640624672095</v>
+        <v>0.84198646698363699</v>
       </c>
       <c r="T12" s="1">
-        <v>0.77065783033948598</v>
+        <v>0.74067860892706905</v>
       </c>
       <c r="U12" s="1">
-        <v>0.72057568032521202</v>
+        <v>0.73262782153961903</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
-        <v>0.71866846490288205</v>
+        <v>0.78514487516592402</v>
       </c>
       <c r="C13" s="1">
-        <v>0.81121909071429399</v>
+        <v>0.81095724106213096</v>
       </c>
       <c r="D13" s="1">
-        <v>0.78056998838916403</v>
+        <v>0.72194740542682201</v>
       </c>
       <c r="E13" s="1">
         <v>0.332887481473298</v>
       </c>
       <c r="F13" s="1">
-        <v>0.78422250395344495</v>
+        <v>0.88497236416727398</v>
       </c>
       <c r="G13" s="1">
-        <v>0.80533660139821095</v>
+        <v>0.80426300157241803</v>
       </c>
       <c r="H13" s="1">
-        <v>0.88444729162217905</v>
+        <v>0.78839794310646305</v>
       </c>
       <c r="I13" s="1">
-        <v>0.81474892820184197</v>
+        <v>0.81396047898290003</v>
       </c>
       <c r="J13" s="1">
-        <v>0.78543969471388797</v>
+        <v>0.88038801728968197</v>
       </c>
       <c r="K13" s="1">
-        <v>0.83221242662410699</v>
+        <v>0.78304383788254694</v>
       </c>
       <c r="L13" s="1">
-        <v>0.79083126550868399</v>
+        <v>0.79301951465702103</v>
       </c>
       <c r="M13" s="1">
-        <v>0.78487804234200897</v>
+        <v>0.77615798180314299</v>
       </c>
       <c r="N13" s="1">
-        <v>0.82030392122763895</v>
+        <v>0.86544153322911599</v>
       </c>
       <c r="O13" s="1">
-        <v>0.78994421895442402</v>
+        <v>0.81989011611615403</v>
       </c>
       <c r="P13" s="1">
-        <v>0.79857620815353103</v>
+        <v>0.79916254416743404</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.86399379721939695</v>
+        <v>0.78857004145713205</v>
       </c>
       <c r="R13" s="1">
-        <v>0.77707661330983202</v>
+        <v>0.80552988451846297</v>
       </c>
       <c r="S13" s="1">
-        <v>0.83408767958455499</v>
+        <v>0.87481138660339597</v>
       </c>
       <c r="T13" s="1">
-        <v>0.80634694019828101</v>
+        <v>0.77673257912981097</v>
       </c>
       <c r="U13" s="1">
-        <v>0.75480858375732796</v>
+        <v>0.76705447700347995</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
-        <v>0.75278363485000899</v>
+        <v>0.82281146069479305</v>
       </c>
       <c r="C14" s="1">
-        <v>0.84471518963409198</v>
+        <v>0.84425003773652096</v>
       </c>
       <c r="D14" s="1">
-        <v>0.818784540515889</v>
+        <v>0.75853609615777695</v>
       </c>
       <c r="E14" s="1">
-        <v>0.36791824006156898</v>
+        <v>0.36791824006156798</v>
       </c>
       <c r="F14" s="1">
-        <v>0.81595534510332701</v>
+        <v>0.92675138675764301</v>
       </c>
       <c r="G14" s="1">
-        <v>0.83626716430381798</v>
+        <v>0.83486692679517704</v>
       </c>
       <c r="H14" s="1">
-        <v>0.92624860606923298</v>
+        <v>0.82053474037778895</v>
       </c>
       <c r="I14" s="1">
-        <v>0.84839599862021298</v>
+        <v>0.84784901197457196</v>
       </c>
       <c r="J14" s="1">
-        <v>0.822613542371606</v>
+        <v>0.923011886656527</v>
       </c>
       <c r="K14" s="1">
-        <v>0.87249401515068703</v>
+        <v>0.81652191894127302</v>
       </c>
       <c r="L14" s="1">
-        <v>0.82410669975186102</v>
+        <v>0.83122345123438601</v>
       </c>
       <c r="M14" s="1">
-        <v>0.81262208964679705</v>
+        <v>0.81021712158808901</v>
       </c>
       <c r="N14" s="1">
-        <v>0.85595862666010902</v>
+        <v>0.90613235620122801</v>
       </c>
       <c r="O14" s="1">
-        <v>0.82192523335534295</v>
+        <v>0.85533724153541701</v>
       </c>
       <c r="P14" s="1">
-        <v>0.83113464671644599</v>
+        <v>0.831978956734992</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.904251546649673</v>
+        <v>0.82033969392926998</v>
       </c>
       <c r="R14" s="1">
-        <v>0.809568430169327</v>
+        <v>0.84208827529991304</v>
       </c>
       <c r="S14" s="1">
-        <v>0.87170845797654195</v>
+        <v>0.91562567241339499</v>
       </c>
       <c r="T14" s="1">
-        <v>0.84316203234268305</v>
+        <v>0.80974926030810601</v>
       </c>
       <c r="U14" s="1">
-        <v>0.785907277219559</v>
+        <v>0.79917548629751001</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
-        <v>0.76446796876734902</v>
+        <v>0.83107433864646696</v>
       </c>
       <c r="C15" s="1">
-        <v>0.84975819604976199</v>
+        <v>0.84935680365664501</v>
       </c>
       <c r="D15" s="1">
-        <v>0.82747580639484697</v>
+        <v>0.77033661031011902</v>
       </c>
       <c r="E15" s="1">
         <v>0.36927192193539199</v>
       </c>
       <c r="F15" s="1">
-        <v>0.82033885397114004</v>
+        <v>0.93497261246765795</v>
       </c>
       <c r="G15" s="1">
-        <v>0.840500793805531</v>
+        <v>0.83888532991672005</v>
       </c>
       <c r="H15" s="1">
-        <v>0.93446034118679799</v>
+        <v>0.825027702269854</v>
       </c>
       <c r="I15" s="1">
-        <v>0.85461489183462203</v>
+        <v>0.85412703888040198</v>
       </c>
       <c r="J15" s="1">
-        <v>0.82873712309196101</v>
+        <v>0.92883514768270203</v>
       </c>
       <c r="K15" s="1">
-        <v>0.87865786338146701</v>
+        <v>0.82222911497105</v>
       </c>
       <c r="L15" s="1">
-        <v>0.83002481389578098</v>
+        <v>0.83779492787147203</v>
       </c>
       <c r="M15" s="1">
-        <v>0.82062061137215503</v>
+        <v>0.817121588089329</v>
       </c>
       <c r="N15" s="1">
-        <v>0.863191771666591</v>
+        <v>0.91185572555517203</v>
       </c>
       <c r="O15" s="1">
-        <v>0.83165686102737002</v>
+        <v>0.86268296695669</v>
       </c>
       <c r="P15" s="1">
-        <v>0.84128499381882405</v>
+        <v>0.84219391021720902</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.91026660345196797</v>
+        <v>0.83017719851841998</v>
       </c>
       <c r="R15" s="1">
-        <v>0.81717524311437295</v>
+        <v>0.849344430104919</v>
       </c>
       <c r="S15" s="1">
-        <v>0.87788761200923104</v>
+        <v>0.92237470926304899</v>
       </c>
       <c r="T15" s="1">
-        <v>0.85036706474781498</v>
+        <v>0.81768638618345801</v>
       </c>
       <c r="U15" s="1">
-        <v>0.79264954696185497</v>
+        <v>0.80505920246425799</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
-        <v>0.76909830698100901</v>
+        <v>0.83088465790105603</v>
       </c>
       <c r="C16" s="1">
-        <v>0.85042071164777999</v>
+        <v>0.84975106448759097</v>
       </c>
       <c r="D16" s="1">
-        <v>0.82742162358860705</v>
+        <v>0.77629002532400304</v>
       </c>
       <c r="E16" s="1">
         <v>0.37129401087987202</v>
       </c>
       <c r="F16" s="1">
-        <v>0.82245557133449398</v>
+        <v>0.938049054223837</v>
       </c>
       <c r="G16" s="1">
-        <v>0.84132245216277102</v>
+        <v>0.83949682604391096</v>
       </c>
       <c r="H16" s="1">
-        <v>0.93745699575295904</v>
+        <v>0.827055594992814</v>
       </c>
       <c r="I16" s="1">
-        <v>0.857236485487606</v>
+        <v>0.85691617799241104</v>
       </c>
       <c r="J16" s="1">
-        <v>0.83097413339348802</v>
+        <v>0.93691967501800999</v>
       </c>
       <c r="K16" s="1">
-        <v>0.88361927613384195</v>
+        <v>0.82333540115798098</v>
       </c>
       <c r="L16" s="1">
-        <v>0.830955334987593</v>
+        <v>0.84026580308701604</v>
       </c>
       <c r="M16" s="1">
-        <v>0.82205928937226103</v>
+        <v>0.81832712985938705</v>
       </c>
       <c r="N16" s="1">
-        <v>0.86714452684030197</v>
+        <v>0.91775153792660003</v>
       </c>
       <c r="O16" s="1">
-        <v>0.83473999797696696</v>
+        <v>0.86663986250754299</v>
       </c>
       <c r="P16" s="1">
-        <v>0.84511168803638004</v>
+        <v>0.84583962731768203</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.916190008882108</v>
+        <v>0.83371341509362196</v>
       </c>
       <c r="R16" s="1">
-        <v>0.819656841187269</v>
+        <v>0.85171239634927998</v>
       </c>
       <c r="S16" s="1">
-        <v>0.88114028490847796</v>
+        <v>0.92734052645874798</v>
       </c>
       <c r="T16" s="1">
-        <v>0.85303466072142897</v>
+        <v>0.82044111423458799</v>
       </c>
       <c r="U16" s="1">
-        <v>0.79435764285781396</v>
+        <v>0.80629109056681403</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1">
-        <v>0.77094516039774796</v>
+        <v>0.83049674338417301</v>
       </c>
       <c r="C17" s="1">
-        <v>0.85067654436139495</v>
+        <v>0.85005156043720398</v>
       </c>
       <c r="D17" s="1">
-        <v>0.82737738520979598</v>
+        <v>0.77848361228463503</v>
       </c>
       <c r="E17" s="1">
         <v>0.36945894987058098</v>
       </c>
       <c r="F17" s="1">
-        <v>0.82320370212746896</v>
+        <v>0.93948671344645796</v>
       </c>
       <c r="G17" s="1">
-        <v>0.84189343508898895</v>
+        <v>0.84002096558150297</v>
       </c>
       <c r="H17" s="1">
-        <v>0.93903006145158596</v>
+        <v>0.82796024724275796</v>
       </c>
       <c r="I17" s="1">
-        <v>0.85856206573695304</v>
+        <v>0.858251613856994</v>
       </c>
       <c r="J17" s="1">
-        <v>0.83179656365140198</v>
+        <v>0.93686214279996805</v>
       </c>
       <c r="K17" s="1">
-        <v>0.883999136432701</v>
+        <v>0.82517576509511903</v>
       </c>
       <c r="L17" s="1">
-        <v>0.83312655086848597</v>
+        <v>0.84095975101989295</v>
       </c>
       <c r="M17" s="1">
-        <v>0.82180191119793</v>
+        <v>0.81893920595533398</v>
       </c>
       <c r="N17" s="1">
-        <v>0.86859458405682999</v>
+        <v>0.91942280078557403</v>
       </c>
       <c r="O17" s="1">
-        <v>0.83515891280927501</v>
+        <v>0.86810390471795795</v>
       </c>
       <c r="P17" s="1">
-        <v>0.84739086593967905</v>
+        <v>0.84816715348138005</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.91790349221020595</v>
+        <v>0.83412958173632501</v>
       </c>
       <c r="R17" s="1">
-        <v>0.82077840369254695</v>
+        <v>0.85244582641490296</v>
       </c>
       <c r="S17" s="1">
-        <v>0.88206598572364503</v>
+        <v>0.92873627754115395</v>
       </c>
       <c r="T17" s="1">
-        <v>0.85390338716422898</v>
+        <v>0.82186018460922206</v>
       </c>
       <c r="U17" s="1">
-        <v>0.79485132265479597</v>
+        <v>0.80666247862157603</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
-        <v>0.78367761514023604</v>
+        <v>0.83401707069415698</v>
       </c>
       <c r="C18" s="1">
-        <v>0.85523661091294101</v>
+        <v>0.85445355261813505</v>
       </c>
       <c r="D18" s="1">
-        <v>0.83099060902292599</v>
+        <v>0.79219507209476803</v>
       </c>
       <c r="E18" s="1">
         <v>0.37092329148405601</v>
       </c>
       <c r="F18" s="1">
-        <v>0.83089556183726498</v>
+        <v>0.94501636299529701</v>
       </c>
       <c r="G18" s="1">
-        <v>0.84845277553407705</v>
+        <v>0.84639799662221105</v>
       </c>
       <c r="H18" s="1">
-        <v>0.94455595890573396</v>
+        <v>0.83554157937565898</v>
       </c>
       <c r="I18" s="1">
-        <v>0.86549056324841001</v>
+        <v>0.86514561671512302</v>
       </c>
       <c r="J18" s="1">
-        <v>0.83303725844048404</v>
+        <v>0.939396061794604</v>
       </c>
       <c r="K18" s="1">
-        <v>0.88577682797520696</v>
+        <v>0.82447270471463996</v>
       </c>
       <c r="L18" s="1">
-        <v>0.83191066997518603</v>
+        <v>0.842415990242671</v>
       </c>
       <c r="M18" s="1">
-        <v>0.81990787181247005</v>
+        <v>0.81882133995037198</v>
       </c>
       <c r="N18" s="1">
-        <v>0.87791729379903005</v>
+        <v>0.92644305300408802</v>
       </c>
       <c r="O18" s="1">
-        <v>0.84195096942544001</v>
+        <v>0.87742038471833805</v>
       </c>
       <c r="P18" s="1">
-        <v>0.85398663940276798</v>
+        <v>0.85420698883535995</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.92479195367317202</v>
+        <v>0.84116790311651002</v>
       </c>
       <c r="R18" s="1">
-        <v>0.82678508826827202</v>
+        <v>0.85701558716270299</v>
       </c>
       <c r="S18" s="1">
-        <v>0.88725143878546797</v>
+        <v>0.93346100254224895</v>
       </c>
       <c r="T18" s="1">
-        <v>0.85863764221235195</v>
+        <v>0.82875830312668997</v>
       </c>
       <c r="U18" s="1">
-        <v>0.79989726420627605</v>
+        <v>0.81206267790704101</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
-        <v>0.787223969840529</v>
+        <v>0.83846210698435997</v>
       </c>
       <c r="C19" s="1">
-        <v>0.85712121708660505</v>
+        <v>0.856446363772283</v>
       </c>
       <c r="D19" s="1">
-        <v>0.83561607733179599</v>
+        <v>0.79511094938432703</v>
       </c>
       <c r="E19" s="1">
         <v>0.37225788130899501</v>
       </c>
       <c r="F19" s="1">
-        <v>0.83534626808169399</v>
+        <v>0.94396108636383902</v>
       </c>
       <c r="G19" s="1">
-        <v>0.85459432359412801</v>
+        <v>0.85318269174771399</v>
       </c>
       <c r="H19" s="1">
-        <v>0.94386077300875504</v>
+        <v>0.84034835604342295</v>
       </c>
       <c r="I19" s="1">
-        <v>0.86857044300990405</v>
+        <v>0.86769329325383104</v>
       </c>
       <c r="J19" s="1">
-        <v>0.83553274682306899</v>
+        <v>0.94183492755943299</v>
       </c>
       <c r="K19" s="1">
-        <v>0.888266415977088</v>
+        <v>0.82767783291976804</v>
       </c>
       <c r="L19" s="1">
-        <v>0.83535980148883304</v>
+        <v>0.84503932371619594</v>
       </c>
       <c r="M19" s="1">
-        <v>0.82694287524417898</v>
+        <v>0.82278329197683997</v>
       </c>
       <c r="N19" s="1">
-        <v>0.88231178995677995</v>
+        <v>0.92971157461125198</v>
       </c>
       <c r="O19" s="1">
-        <v>0.84899436762702696</v>
+        <v>0.88183668363657497</v>
       </c>
       <c r="P19" s="1">
-        <v>0.86178629953791497</v>
+        <v>0.86223820600242695</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.92817304723704397</v>
+        <v>0.84819373663814102</v>
       </c>
       <c r="R19" s="1">
-        <v>0.83227641784718698</v>
+        <v>0.86123529094342299</v>
       </c>
       <c r="S19" s="1">
-        <v>0.88931728306150104</v>
+        <v>0.93441477658579497</v>
       </c>
       <c r="T19" s="1">
-        <v>0.86231530478454099</v>
+        <v>0.83368902434311398</v>
       </c>
       <c r="U19" s="1">
-        <v>0.80571761931490304</v>
+        <v>0.81657061418568799</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
-        <v>0.79005217045790699</v>
+        <v>0.84095406591215605</v>
       </c>
       <c r="C20" s="1">
-        <v>0.85921253639537598</v>
+        <v>0.85859872893761502</v>
       </c>
       <c r="D20" s="1">
-        <v>0.83831220394866601</v>
+        <v>0.79823480025493798</v>
       </c>
       <c r="E20" s="1">
         <v>0.37396319052975002</v>
       </c>
       <c r="F20" s="1">
-        <v>0.83847766583192496</v>
+        <v>0.94214352755389297</v>
       </c>
       <c r="G20" s="1">
-        <v>0.85864690972899205</v>
+        <v>0.85746316463805194</v>
       </c>
       <c r="H20" s="1">
-        <v>0.94253683536194699</v>
+        <v>0.84385009609224804</v>
       </c>
       <c r="I20" s="1">
-        <v>0.87028039225348597</v>
+        <v>0.86921598580791404</v>
       </c>
       <c r="J20" s="1">
-        <v>0.83755827505827496</v>
+        <v>0.94362092771952299</v>
       </c>
       <c r="K20" s="1">
-        <v>0.89060160033230895</v>
+        <v>0.83113110008271196</v>
       </c>
       <c r="L20" s="1">
-        <v>0.83954094292803905</v>
+        <v>0.84794654498044297</v>
       </c>
       <c r="M20" s="1">
-        <v>0.83649886489625602</v>
+        <v>0.82757857733664097</v>
       </c>
       <c r="N20" s="1">
-        <v>0.88244615407118199</v>
+        <v>0.927965124679344</v>
       </c>
       <c r="O20" s="1">
-        <v>0.854759589414399</v>
+        <v>0.88207375889214701</v>
       </c>
       <c r="P20" s="1">
-        <v>0.86969722951918205</v>
+        <v>0.87113568922273998</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.92695102929242101</v>
+        <v>0.85364212952353702</v>
       </c>
       <c r="R20" s="1">
-        <v>0.83688929594747097</v>
+        <v>0.86360985724463302</v>
       </c>
       <c r="S20" s="1">
-        <v>0.89003965927801698</v>
+        <v>0.93414220082553501</v>
       </c>
       <c r="T20" s="1">
-        <v>0.864407739554514</v>
+        <v>0.83773403958189596</v>
       </c>
       <c r="U20" s="1">
-        <v>0.81135724891467698</v>
+        <v>0.82030849946038598</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
-        <v>0.799718890543474</v>
+        <v>0.84670906566743298</v>
       </c>
       <c r="C21" s="1">
-        <v>0.86423295561969804</v>
+        <v>0.86370662208582005</v>
       </c>
       <c r="D21" s="1">
-        <v>0.84421133651631297</v>
+        <v>0.80730699695465302</v>
       </c>
       <c r="E21" s="1">
-        <v>0.37576117959945898</v>
+        <v>0.37576117959945998</v>
       </c>
       <c r="F21" s="1">
-        <v>0.84586713734695695</v>
+        <v>0.94116522404143599</v>
       </c>
       <c r="G21" s="1">
-        <v>0.86842325153886801</v>
+        <v>0.86784403936870302</v>
       </c>
       <c r="H21" s="1">
-        <v>0.94214297577526196</v>
+        <v>0.85165434492788705</v>
       </c>
       <c r="I21" s="1">
-        <v>0.87516877741092902</v>
+        <v>0.87360173458828105</v>
       </c>
       <c r="J21" s="1">
-        <v>0.83979528535980097</v>
+        <v>0.94015148483150501</v>
       </c>
       <c r="K21" s="1">
-        <v>0.89082569058055705</v>
+        <v>0.83672456575682297</v>
       </c>
       <c r="L21" s="1">
-        <v>0.84630272952853602</v>
+        <v>0.851258569205534</v>
       </c>
       <c r="M21" s="1">
-        <v>0.85012670925505496</v>
+        <v>0.83470430107526805</v>
       </c>
       <c r="N21" s="1">
-        <v>0.88422157556754599</v>
+        <v>0.92593817521871602</v>
       </c>
       <c r="O21" s="1">
-        <v>0.86619589122934304</v>
+        <v>0.88401604416278001</v>
       </c>
       <c r="P21" s="1">
-        <v>0.88189975837192502</v>
+        <v>0.88431246670592101</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.925415554234575</v>
+        <v>0.86429429440077898</v>
       </c>
       <c r="R21" s="1">
-        <v>0.84609964504551105</v>
+        <v>0.86791397855345098</v>
       </c>
       <c r="S21" s="1">
-        <v>0.891489096851665</v>
+        <v>0.93224666786699995</v>
       </c>
       <c r="T21" s="1">
-        <v>0.86842886706269296</v>
+        <v>0.84705946508979901</v>
       </c>
       <c r="U21" s="1">
-        <v>0.82138714230216303</v>
+        <v>0.82816496533240602</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1">
-        <v>0.81963588717688296</v>
+        <v>0.86890580523752903</v>
       </c>
       <c r="C22" s="1">
-        <v>0.88880171924827001</v>
+        <v>0.88851251853393498</v>
       </c>
       <c r="D22" s="1">
-        <v>0.86778793700847701</v>
+        <v>0.82864442874671596</v>
       </c>
       <c r="E22" s="1">
         <v>0.38934063106821298</v>
       </c>
       <c r="F22" s="1">
-        <v>0.87946582565416598</v>
+        <v>0.96434406487592395</v>
       </c>
       <c r="G22" s="1">
-        <v>0.90442302871626301</v>
+        <v>0.90307786384019495</v>
       </c>
       <c r="H22" s="1">
-        <v>0.965515932332075</v>
+        <v>0.88480833492044197</v>
       </c>
       <c r="I22" s="1">
-        <v>0.90285812841866597</v>
+        <v>0.90132065244172799</v>
       </c>
       <c r="J22" s="1">
-        <v>0.86388074291299999</v>
+        <v>0.95820659569358801</v>
       </c>
       <c r="K22" s="1">
-        <v>0.91571747138750104</v>
+        <v>0.869882133995037</v>
       </c>
       <c r="L22" s="1">
-        <v>0.88202233250620299</v>
+        <v>0.87525234470286395</v>
       </c>
       <c r="M22" s="1">
-        <v>0.88066231983527699</v>
+        <v>0.86682382133994995</v>
       </c>
       <c r="N22" s="1">
-        <v>0.90760225150153395</v>
+        <v>0.94139812184127802</v>
       </c>
       <c r="O22" s="1">
-        <v>0.90054658495892403</v>
+        <v>0.90726272411099895</v>
       </c>
       <c r="P22" s="1">
-        <v>0.90645829809197798</v>
+        <v>0.90861095259708102</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.94025453549217597</v>
+        <v>0.89767128186939105</v>
       </c>
       <c r="R22" s="1">
-        <v>0.87726372653512796</v>
+        <v>0.89153745758237302</v>
       </c>
       <c r="S22" s="1">
-        <v>0.91586407958649196</v>
+        <v>0.95094702140412202</v>
       </c>
       <c r="T22" s="1">
-        <v>0.89267232703018895</v>
+        <v>0.87891436990013305</v>
       </c>
       <c r="U22" s="1">
-        <v>0.84898955732662595</v>
+        <v>0.85844378719984504</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
-        <v>0.81865078864902296</v>
+        <v>0.870368372693895</v>
       </c>
       <c r="C23" s="1">
-        <v>0.89185386389704602</v>
+        <v>0.89170052449922599</v>
       </c>
       <c r="D23" s="1">
-        <v>0.86910502117467303</v>
+        <v>0.82716970699015901</v>
       </c>
       <c r="E23" s="1">
         <v>0.38990412454985302</v>
       </c>
       <c r="F23" s="1">
-        <v>0.87958902084462598</v>
+        <v>0.96579662212157702</v>
       </c>
       <c r="G23" s="1">
-        <v>0.90166559897501597</v>
+        <v>0.90023877467823599</v>
       </c>
       <c r="H23" s="1">
-        <v>0.96693240325527297</v>
+        <v>0.88465900237200601</v>
       </c>
       <c r="I23" s="1">
-        <v>0.90440053220322203</v>
+        <v>0.90359729956142498</v>
       </c>
       <c r="J23" s="1">
-        <v>0.87609030754191997</v>
+        <v>0.96650624349635705</v>
       </c>
       <c r="K23" s="1">
-        <v>0.92382297963511495</v>
+        <v>0.88033498759305195</v>
       </c>
       <c r="L23" s="1">
-        <v>0.89026054590570702</v>
+        <v>0.88446818353871304</v>
       </c>
       <c r="M23" s="1">
-        <v>0.88421281875296898</v>
+        <v>0.87431761786600504</v>
       </c>
       <c r="N23" s="1">
-        <v>0.91432028024647904</v>
+        <v>0.94917296731695</v>
       </c>
       <c r="O23" s="1">
-        <v>0.90095992667344105</v>
+        <v>0.91382125297945505</v>
       </c>
       <c r="P23" s="1">
-        <v>0.90519554808103297</v>
+        <v>0.90690300012716696</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.94789538468687695</v>
+        <v>0.89916966648414698</v>
       </c>
       <c r="R23" s="1">
-        <v>0.87802573076663304</v>
+        <v>0.89610088554106404</v>
       </c>
       <c r="S23" s="1">
-        <v>0.92140732056210095</v>
+        <v>0.95695233729498297</v>
       </c>
       <c r="T23" s="1">
-        <v>0.89750792465035201</v>
+        <v>0.87969591178963902</v>
       </c>
       <c r="U23" s="1">
-        <v>0.84897594210968896</v>
+        <v>0.86129218796471196</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1">
-        <v>0.809751290006404</v>
+        <v>0.86376989724418995</v>
       </c>
       <c r="C24" s="1">
-        <v>0.88499841183810801</v>
+        <v>0.88489704974693195</v>
       </c>
       <c r="D24" s="1">
-        <v>0.86275266007295204</v>
+        <v>0.81926739593511599</v>
       </c>
       <c r="E24" s="1">
         <v>0.39249916032056797</v>
       </c>
       <c r="F24" s="1">
-        <v>0.87222194845513201</v>
+        <v>0.963455149501661</v>
       </c>
       <c r="G24" s="1">
-        <v>0.89222349107316901</v>
+        <v>0.89081882243317201</v>
       </c>
       <c r="H24" s="1">
-        <v>0.96418250409281703</v>
+        <v>0.87698893640597597</v>
       </c>
       <c r="I24" s="1">
-        <v>0.90003942246094704</v>
+        <v>0.899605775390528</v>
       </c>
       <c r="J24" s="1">
-        <v>0.87632058801413604</v>
+        <v>0.96891259105098804</v>
       </c>
       <c r="K24" s="1">
-        <v>0.92211634109815099</v>
+        <v>0.87589950372208403</v>
       </c>
       <c r="L24" s="1">
-        <v>0.884330024813895</v>
+        <v>0.88464692770324205</v>
       </c>
       <c r="M24" s="1">
-        <v>0.87607570877989505</v>
+        <v>0.86730976013233996</v>
       </c>
       <c r="N24" s="1">
-        <v>0.90999808767832002</v>
+        <v>0.95246041484862798</v>
       </c>
       <c r="O24" s="1">
-        <v>0.88927051091657705</v>
+        <v>0.90927994814916102</v>
       </c>
       <c r="P24" s="1">
-        <v>0.894253374950436</v>
+        <v>0.89636580944798805</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.95095507505863897</v>
+        <v>0.88787828987775796</v>
       </c>
       <c r="R24" s="1">
-        <v>0.86889732483573201</v>
+        <v>0.89284191603693897</v>
       </c>
       <c r="S24" s="1">
-        <v>0.91832634866023599</v>
+        <v>0.956679807659637</v>
       </c>
       <c r="T24" s="1">
-        <v>0.89460937780014105</v>
+        <v>0.87090510678376598</v>
       </c>
       <c r="U24" s="1">
-        <v>0.83922545721944697</v>
+        <v>0.85314974437681901</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1">
-        <v>0.78451446121637802</v>
+        <v>0.84497795774690498</v>
       </c>
       <c r="C25" s="1">
-        <v>0.86861127847032205</v>
+        <v>0.86825508987030797</v>
       </c>
       <c r="D25" s="1">
-        <v>0.84369058409228803</v>
+        <v>0.79598969941652298</v>
       </c>
       <c r="E25" s="1">
-        <v>0.38306249810006299</v>
+        <v>0.38306249810006199</v>
       </c>
       <c r="F25" s="1">
-        <v>0.85060903222338202</v>
+        <v>0.95046903942513405</v>
       </c>
       <c r="G25" s="1">
-        <v>0.87279614516892701</v>
+        <v>0.87157125385824896</v>
       </c>
       <c r="H25" s="1">
-        <v>0.95100481647566804</v>
+        <v>0.85563221773984099</v>
       </c>
       <c r="I25" s="1">
-        <v>0.88262455033755405</v>
+        <v>0.88200364657763697</v>
       </c>
       <c r="J25" s="1">
-        <v>0.85441104594330297</v>
+        <v>0.96346454014247895</v>
       </c>
       <c r="K25" s="1">
-        <v>0.90715421781572103</v>
+        <v>0.85146815550041299</v>
       </c>
       <c r="L25" s="1">
-        <v>0.86100496277915595</v>
+        <v>0.86486941161626696</v>
       </c>
       <c r="M25" s="1">
-        <v>0.85250910722770701</v>
+        <v>0.84132547559966897</v>
       </c>
       <c r="N25" s="1">
-        <v>0.89044797296760003</v>
+        <v>0.94075903821620499</v>
       </c>
       <c r="O25" s="1">
-        <v>0.86620737355341204</v>
+        <v>0.889481760886635</v>
       </c>
       <c r="P25" s="1">
-        <v>0.87083205052877999</v>
+        <v>0.87386263832432498</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.93891171227136905</v>
+        <v>0.86444323287003599</v>
       </c>
       <c r="R25" s="1">
-        <v>0.84594044188446904</v>
+        <v>0.87458079291259305</v>
       </c>
       <c r="S25" s="1">
-        <v>0.90269284112784898</v>
+        <v>0.94669214237539201</v>
       </c>
       <c r="T25" s="1">
-        <v>0.87663075166759097</v>
+        <v>0.84858678593652603</v>
       </c>
       <c r="U25" s="1">
-        <v>0.81612195116561703</v>
+        <v>0.829746439243913</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
-        <v>0.72201779989760295</v>
+        <v>0.77716813481336899</v>
       </c>
       <c r="C26" s="1">
-        <v>0.80797252227838201</v>
+        <v>0.80738464537045795</v>
       </c>
       <c r="D26" s="1">
-        <v>0.77529813229738798</v>
+        <v>0.73447678614780798</v>
       </c>
       <c r="E26" s="1">
         <v>0.32745644232458798</v>
       </c>
       <c r="F26" s="1">
-        <v>0.78175860014425003</v>
+        <v>0.91512347978089903</v>
       </c>
       <c r="G26" s="1">
-        <v>0.80750912180040602</v>
+        <v>0.80503465144720698</v>
       </c>
       <c r="H26" s="1">
-        <v>0.914454172301706</v>
+        <v>0.78700200841456402</v>
       </c>
       <c r="I26" s="1">
-        <v>0.822835460503621</v>
+        <v>0.82242645247129498</v>
       </c>
       <c r="J26" s="1">
-        <v>0.79305774870291001</v>
+        <v>0.92076813015288494</v>
       </c>
       <c r="K26" s="1">
-        <v>0.85339442069937999</v>
+        <v>0.78666253101736905</v>
       </c>
       <c r="L26" s="1">
-        <v>0.79640198511166205</v>
+        <v>0.80417525339613904</v>
       </c>
       <c r="M26" s="1">
-        <v>0.78359775091072204</v>
+        <v>0.77365798180314305</v>
       </c>
       <c r="N26" s="1">
-        <v>0.83080285485123195</v>
+        <v>0.89033258044879604</v>
       </c>
       <c r="O26" s="1">
-        <v>0.80109585417448503</v>
+        <v>0.82961673730840302</v>
       </c>
       <c r="P26" s="1">
-        <v>0.80453128537589003</v>
+        <v>0.80758517553077802</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.88806465116778299</v>
+        <v>0.79985227786480395</v>
       </c>
       <c r="R26" s="1">
-        <v>0.78166173135063399</v>
+        <v>0.81282456696968597</v>
       </c>
       <c r="S26" s="1">
-        <v>0.84862555663870298</v>
+        <v>0.90306525333041499</v>
       </c>
       <c r="T26" s="1">
-        <v>0.815147405590534</v>
+        <v>0.78464268530364401</v>
       </c>
       <c r="U26" s="1">
-        <v>0.74809817193955397</v>
+        <v>0.761285593726725</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1">
-        <v>0.67238308913693601</v>
+        <v>0.73342935094072603</v>
       </c>
       <c r="C27" s="1">
-        <v>0.77223662351739997</v>
+        <v>0.77141978014748402</v>
       </c>
       <c r="D27" s="1">
-        <v>0.73085247560586897</v>
+        <v>0.686954822877203</v>
       </c>
       <c r="E27" s="1">
         <v>0.29018728002437799</v>
       </c>
       <c r="F27" s="1">
-        <v>0.73584039279106495</v>
+        <v>0.89592986010756304</v>
       </c>
       <c r="G27" s="1">
-        <v>0.76035428794251103</v>
+        <v>0.75773105817948805</v>
       </c>
       <c r="H27" s="1">
-        <v>0.89427717275250895</v>
+        <v>0.74121318628044996</v>
       </c>
       <c r="I27" s="1">
-        <v>0.78498497018676305</v>
+        <v>0.78486670280392201</v>
       </c>
       <c r="J27" s="1">
-        <v>0.73655913978494603</v>
+        <v>0.88943558392699895</v>
       </c>
       <c r="K27" s="1">
-        <v>0.81077218220176805</v>
+        <v>0.73279569892473095</v>
       </c>
       <c r="L27" s="1">
-        <v>0.74388337468982602</v>
+        <v>0.74668797577490797</v>
       </c>
       <c r="M27" s="1">
-        <v>0.72963412702602803</v>
+        <v>0.71864143920595502</v>
       </c>
       <c r="N27" s="1">
-        <v>0.79129102178937905</v>
+        <v>0.86250386768937404</v>
       </c>
       <c r="O27" s="1">
-        <v>0.74618942355067897</v>
+        <v>0.78992070044454499</v>
       </c>
       <c r="P27" s="1">
-        <v>0.75357692059998205</v>
+        <v>0.75604926190746202</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.85955605981496597</v>
+        <v>0.74495901026624101</v>
       </c>
       <c r="R27" s="1">
-        <v>0.73128730509304696</v>
+        <v>0.76879017471788302</v>
       </c>
       <c r="S27" s="1">
-        <v>0.813298016310807</v>
+        <v>0.87880459085041296</v>
       </c>
       <c r="T27" s="1">
-        <v>0.77149921193724802</v>
+        <v>0.73429268632718903</v>
       </c>
       <c r="U27" s="1">
-        <v>0.69891388148034805</v>
+        <v>0.71126526269759405</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -2411,1513 +2415,1513 @@
         <v>5</v>
       </c>
       <c r="B28" s="1">
-        <v>0.65921868242756199</v>
+        <v>0.31378510490518502</v>
       </c>
       <c r="C28" s="1">
-        <v>6.01372351160444E-2</v>
+        <v>6.5988202768001394E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.32928826975244702</v>
+        <v>0.669065063835387</v>
       </c>
       <c r="E28" s="1">
-        <v>9.7227993114501005E-2</v>
+        <v>9.8533863595892404E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>9.4112749006795393E-2</v>
+        <v>5.8268603477811903E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.700127232044926</v>
+        <v>0.68507476378313903</v>
       </c>
       <c r="H28" s="1">
-        <v>5.5850805396718599E-2</v>
+        <v>0.10954673139335</v>
       </c>
       <c r="I28" s="1">
-        <v>0.35682682604983301</v>
+        <v>0.35702864239695697</v>
       </c>
       <c r="J28" s="1">
-        <v>0.27520410971470499</v>
+        <v>4.26092900621724E-2</v>
       </c>
       <c r="K28" s="1">
-        <v>4.1163422342936601E-2</v>
+        <v>0.55842583249243105</v>
       </c>
       <c r="L28" s="1">
-        <v>0.619737638748738</v>
+        <v>0.288597376387487</v>
       </c>
       <c r="M28" s="1">
-        <v>0.111385447753182</v>
+        <v>6.4339051463168498E-2</v>
       </c>
       <c r="N28" s="1">
-        <v>6.6125431917560998E-2</v>
+        <v>0.20907612961094199</v>
       </c>
       <c r="O28" s="1">
-        <v>0.52860116044399497</v>
+        <v>6.8592456486487804E-2</v>
       </c>
       <c r="P28" s="1">
-        <v>0.16933042544188001</v>
+        <v>0.19936808324097199</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.25182809670597001</v>
+        <v>0.58401475347089304</v>
       </c>
       <c r="R28" s="1">
-        <v>0.61986136094414901</v>
+        <v>0.32340124793553898</v>
       </c>
       <c r="S28" s="1">
-        <v>5.9386685172511999E-2</v>
+        <v>5.5576003705480402E-2</v>
       </c>
       <c r="T28" s="1">
-        <v>0.34000869485447999</v>
+        <v>0.64064356990694005</v>
       </c>
       <c r="U28" s="1">
-        <v>0.109862407880309</v>
+        <v>9.0447248924531307E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
-        <v>0.66166930949978298</v>
+        <v>0.31402099414208301</v>
       </c>
       <c r="C29" s="1">
-        <v>5.5987891019172599E-2</v>
+        <v>6.2407193194030798E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>0.32782051450063499</v>
+        <v>0.67977010485675404</v>
       </c>
       <c r="E29" s="1">
-        <v>9.9424229833204703E-2</v>
+        <v>9.7643497358580106E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>8.7204420201392893E-2</v>
+        <v>5.7963532255415E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.70060983635326601</v>
+        <v>0.69622053022658403</v>
       </c>
       <c r="H29" s="1">
-        <v>5.0939940950031702E-2</v>
+        <v>0.10184225597949099</v>
       </c>
       <c r="I29" s="1">
-        <v>0.35589536598618299</v>
+        <v>0.35724598307847499</v>
       </c>
       <c r="J29" s="1">
-        <v>0.26763599669755</v>
+        <v>4.1380488916376398E-2</v>
       </c>
       <c r="K29" s="1">
-        <v>3.7464937743657598E-2</v>
+        <v>0.58412378069290205</v>
       </c>
       <c r="L29" s="1">
-        <v>0.635438950554994</v>
+        <v>0.29442952675776901</v>
       </c>
       <c r="M29" s="1">
-        <v>9.1525860403203194E-2</v>
+        <v>6.3834510595358204E-2</v>
       </c>
       <c r="N29" s="1">
-        <v>6.1574371362464103E-2</v>
+        <v>0.21674234779683799</v>
       </c>
       <c r="O29" s="1">
-        <v>0.53093466195761796</v>
+        <v>6.7754065193708607E-2</v>
       </c>
       <c r="P29" s="1">
-        <v>0.162673741089157</v>
+        <v>0.187755372119567</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.25015550917158502</v>
+        <v>0.60430077594905796</v>
       </c>
       <c r="R29" s="1">
-        <v>0.62219760452770501</v>
+        <v>0.32698783432918699</v>
       </c>
       <c r="S29" s="1">
-        <v>5.5444170358013502E-2</v>
+        <v>5.5927528080594098E-2</v>
       </c>
       <c r="T29" s="1">
-        <v>0.33989302935909299</v>
+        <v>0.65546585940127799</v>
       </c>
       <c r="U29" s="1">
-        <v>9.9461944504147401E-2</v>
+        <v>8.5735434701789695E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1">
-        <v>0.66090048532026302</v>
+        <v>0.30909353008243001</v>
       </c>
       <c r="C30" s="1">
-        <v>5.2403632694248102E-2</v>
+        <v>5.7800694051340099E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.32599892539347602</v>
+        <v>0.69380950291756205</v>
       </c>
       <c r="E30" s="1">
-        <v>0.10417284976553599</v>
+        <v>9.6278269128034596E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>8.2914058696096998E-2</v>
+        <v>5.6226972989463303E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.70267187294344702</v>
+        <v>0.71346665443537205</v>
       </c>
       <c r="H30" s="1">
-        <v>4.5647867847666002E-2</v>
+        <v>9.2180980172907406E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>0.349018085849569</v>
+        <v>0.35976092525032899</v>
       </c>
       <c r="J30" s="1">
-        <v>0.26246827508179599</v>
+        <v>3.8711304970541302E-2</v>
       </c>
       <c r="K30" s="1">
-        <v>3.5460110154384897E-2</v>
+        <v>0.60699630003363603</v>
       </c>
       <c r="L30" s="1">
-        <v>0.64665993945509503</v>
+        <v>0.29424139287485601</v>
       </c>
       <c r="M30" s="1">
-        <v>7.83004487193249E-2</v>
+        <v>5.9939455095862702E-2</v>
       </c>
       <c r="N30" s="1">
-        <v>5.6666564739218502E-2</v>
+        <v>0.22820663751541601</v>
       </c>
       <c r="O30" s="1">
-        <v>0.53866044399596302</v>
+        <v>6.4812165208267394E-2</v>
       </c>
       <c r="P30" s="1">
-        <v>0.15559389342794799</v>
+        <v>0.180906850176175</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.24788853102580699</v>
+        <v>0.61658373638609498</v>
       </c>
       <c r="R30" s="1">
-        <v>0.62404027552318597</v>
+        <v>0.32959935297830201</v>
       </c>
       <c r="S30" s="1">
-        <v>5.2255760726154003E-2</v>
+        <v>5.4860548212601903E-2</v>
       </c>
       <c r="T30" s="1">
-        <v>0.33988505242837702</v>
+        <v>0.670916021975557</v>
       </c>
       <c r="U30" s="1">
-        <v>8.9866560779870805E-2</v>
+        <v>7.9224533963566796E-2</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
-        <v>0.66685887271154598</v>
+        <v>0.31103306380803802</v>
       </c>
       <c r="C31" s="1">
-        <v>4.7689202825428802E-2</v>
+        <v>5.3698735776459602E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.31699581951852301</v>
+        <v>0.69679287500548404</v>
       </c>
       <c r="E31" s="1">
-        <v>9.6812488870422E-2</v>
+        <v>9.93055143348964E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>7.7388806954901801E-2</v>
+        <v>5.3888093617753499E-2</v>
       </c>
       <c r="G31" s="1">
-        <v>0.71820295704821602</v>
+        <v>0.70915512338317499</v>
       </c>
       <c r="H31" s="1">
-        <v>3.9354187689202798E-2</v>
+        <v>8.50560449450459E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>0.332934875417216</v>
+        <v>0.36401459287433002</v>
       </c>
       <c r="J31" s="1">
-        <v>0.25586337644864299</v>
+        <v>3.4805182122977701E-2</v>
       </c>
       <c r="K31" s="1">
-        <v>3.2699582586894399E-2</v>
+        <v>0.61543895055499398</v>
       </c>
       <c r="L31" s="1">
-        <v>0.651664984863773</v>
+        <v>0.28392823547520901</v>
       </c>
       <c r="M31" s="1">
-        <v>6.9132833802091107E-2</v>
+        <v>5.2801883619239799E-2</v>
       </c>
       <c r="N31" s="1">
-        <v>5.1402012047824297E-2</v>
+        <v>0.232691445229285</v>
       </c>
       <c r="O31" s="1">
-        <v>0.56019803229061504</v>
+        <v>6.1082077001470898E-2</v>
       </c>
       <c r="P31" s="1">
-        <v>0.153364148302464</v>
+        <v>0.17802848588112599</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.22979417497200799</v>
+        <v>0.61995894081213598</v>
       </c>
       <c r="R31" s="1">
-        <v>0.63327556706006205</v>
+        <v>0.33140587383832698</v>
       </c>
       <c r="S31" s="1">
-        <v>4.7484572114465197E-2</v>
+        <v>5.2724520686175502E-2</v>
       </c>
       <c r="T31" s="1">
-        <v>0.33190014478129198</v>
+        <v>0.67385357102814203</v>
       </c>
       <c r="U31" s="1">
-        <v>8.1899550831126294E-2</v>
+        <v>7.2590817356205803E-2</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
-        <v>0.69256643121426098</v>
+        <v>0.30728504593287598</v>
       </c>
       <c r="C32" s="1">
-        <v>4.3124117053481202E-2</v>
+        <v>5.0318722157958198E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.30963083334425401</v>
+        <v>0.69477471153424197</v>
       </c>
       <c r="E32" s="1">
-        <v>8.5831305276903802E-2</v>
+        <v>0.102214044043449</v>
       </c>
       <c r="F32" s="1">
-        <v>6.6140721034767397E-2</v>
+        <v>4.9202512535298198E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>0.73518185407800596</v>
+        <v>0.71218236859003703</v>
       </c>
       <c r="H32" s="1">
-        <v>3.3553836379265303E-2</v>
+        <v>8.0903809965363893E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>0.33048203058293801</v>
+        <v>0.36106496933943899</v>
       </c>
       <c r="J32" s="1">
-        <v>0.249793596917713</v>
+        <v>3.0744441912698098E-2</v>
       </c>
       <c r="K32" s="1">
-        <v>2.7280769213671899E-2</v>
+        <v>0.62132526067944804</v>
       </c>
       <c r="L32" s="1">
-        <v>0.66748738647830397</v>
+        <v>0.26963006037387299</v>
       </c>
       <c r="M32" s="1">
-        <v>6.8488739077226898E-2</v>
+        <v>4.6458123107971698E-2</v>
       </c>
       <c r="N32" s="1">
-        <v>4.1331580181226998E-2</v>
+        <v>0.23221493440968699</v>
       </c>
       <c r="O32" s="1">
-        <v>0.59614656912209796</v>
+        <v>5.6272622759060399E-2</v>
       </c>
       <c r="P32" s="1">
-        <v>0.152973536017707</v>
+        <v>0.173347008320788</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.227499550751282</v>
+        <v>0.62503914541215699</v>
       </c>
       <c r="R32" s="1">
-        <v>0.65398367919975398</v>
+        <v>0.3280838407087</v>
       </c>
       <c r="S32" s="1">
-        <v>4.0152793496654599E-2</v>
+        <v>4.93622934277348E-2</v>
       </c>
       <c r="T32" s="1">
-        <v>0.33141355200759398</v>
+        <v>0.67655566767574804</v>
       </c>
       <c r="U32" s="1">
-        <v>7.6675640329754699E-2</v>
+        <v>6.6936308354134499E-2</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
-        <v>0.733938782374705</v>
+        <v>0.30480820894544403</v>
       </c>
       <c r="C33" s="1">
-        <v>4.1101917255297701E-2</v>
+        <v>4.8645123181806998E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>0.321241825782693</v>
+        <v>0.697977449216864</v>
       </c>
       <c r="E33" s="1">
-        <v>8.6128094022674601E-2</v>
+        <v>0.103994776518074</v>
       </c>
       <c r="F33" s="1">
-        <v>5.4031740207320399E-2</v>
+        <v>4.41492815181595E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>0.75768876409423902</v>
+        <v>0.73140078891844695</v>
       </c>
       <c r="H33" s="1">
-        <v>3.1804761370856201E-2</v>
+        <v>7.6553849510458905E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>0.34783823643561201</v>
+        <v>0.35241791508189002</v>
       </c>
       <c r="J33" s="1">
-        <v>0.26870623490199602</v>
+        <v>2.7237069105823401E-2</v>
       </c>
       <c r="K33" s="1">
-        <v>2.5440417502011502E-2</v>
+        <v>0.62889337369660203</v>
       </c>
       <c r="L33" s="1">
-        <v>0.70938446014127099</v>
+        <v>0.25844464588072302</v>
       </c>
       <c r="M33" s="1">
-        <v>6.9991626768576704E-2</v>
+        <v>4.2791792801883603E-2</v>
       </c>
       <c r="N33" s="1">
-        <v>3.29378548349284E-2</v>
+        <v>0.23058919161340899</v>
       </c>
       <c r="O33" s="1">
-        <v>0.63584762865792099</v>
+        <v>5.1920016466607398E-2</v>
       </c>
       <c r="P33" s="1">
-        <v>0.14532404544122901</v>
+        <v>0.17106416767299101</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.24775030065106499</v>
+        <v>0.63554751383137797</v>
       </c>
       <c r="R33" s="1">
-        <v>0.68949896898170404</v>
+        <v>0.32408908642199202</v>
       </c>
       <c r="S33" s="1">
-        <v>3.6423160049503897E-2</v>
+        <v>4.5830507353062697E-2</v>
       </c>
       <c r="T33" s="1">
-        <v>0.35184646003757097</v>
+        <v>0.68783495907612902</v>
       </c>
       <c r="U33" s="1">
-        <v>7.0154859438921302E-2</v>
+        <v>6.2984624780922996E-2</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1">
-        <v>0.79880832252174305</v>
+        <v>0.28964577299592398</v>
       </c>
       <c r="C34" s="1">
-        <v>4.2466195761856597E-2</v>
+        <v>4.5486615310148998E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.34348093883916198</v>
+        <v>0.72061597858991799</v>
       </c>
       <c r="E34" s="1">
-        <v>7.8767733127559802E-2</v>
+        <v>9.6396984626342899E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>4.7730271746417002E-2</v>
+        <v>3.8180836833830001E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>0.78879480542271696</v>
+        <v>0.73970277956150798</v>
       </c>
       <c r="H34" s="1">
-        <v>3.6439062675187803E-2</v>
+        <v>6.9824365233043306E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>0.36946363424668099</v>
+        <v>0.33153768532174099</v>
       </c>
       <c r="J34" s="1">
-        <v>0.30116503073112499</v>
+        <v>2.31112268480844E-2</v>
       </c>
       <c r="K34" s="1">
-        <v>2.7596385086927699E-2</v>
+        <v>0.63824419778001995</v>
       </c>
       <c r="L34" s="1">
-        <v>0.74849646821392501</v>
+        <v>0.24561733568215599</v>
       </c>
       <c r="M34" s="1">
-        <v>6.6470575605985696E-2</v>
+        <v>4.3148335015136097E-2</v>
       </c>
       <c r="N34" s="1">
-        <v>3.1414039486693301E-2</v>
+        <v>0.21518668012108899</v>
       </c>
       <c r="O34" s="1">
-        <v>0.65665993945509504</v>
+        <v>4.7456963417021797E-2</v>
       </c>
       <c r="P34" s="1">
-        <v>0.138325575339344</v>
+        <v>0.175497510380308</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.28479604108206702</v>
+        <v>0.65367618915063097</v>
       </c>
       <c r="R34" s="1">
-        <v>0.73378888255165997</v>
+        <v>0.31162106902194597</v>
       </c>
       <c r="S34" s="1">
-        <v>3.8398025615521802E-2</v>
+        <v>3.98111693768506E-2</v>
       </c>
       <c r="T34" s="1">
-        <v>0.38215879675976999</v>
+        <v>0.70526964906379597</v>
       </c>
       <c r="U34" s="1">
-        <v>6.2264350271577701E-2</v>
+        <v>5.9793071857241503E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
-        <v>0.84652347316323096</v>
+        <v>0.27541378903639202</v>
       </c>
       <c r="C35" s="1">
-        <v>5.0720484359233001E-2</v>
+        <v>3.95018581870984E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>0.369848113541352</v>
+        <v>0.73373404115298502</v>
       </c>
       <c r="E35" s="1">
-        <v>8.14388318394966E-2</v>
+        <v>8.3575710809046105E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>5.4786787380127398E-2</v>
+        <v>3.2806889916222701E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>0.83582678892642404</v>
+        <v>0.76428768002935499</v>
       </c>
       <c r="H35" s="1">
-        <v>4.8495720745972998E-2</v>
+        <v>5.60858537649657E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>0.41942094232709698</v>
+        <v>0.32549871924241203</v>
       </c>
       <c r="J35" s="1">
-        <v>0.33675809558755998</v>
+        <v>1.7154389505549799E-2</v>
       </c>
       <c r="K35" s="1">
-        <v>3.5335641922678497E-2</v>
+        <v>0.67339387823746999</v>
       </c>
       <c r="L35" s="1">
-        <v>0.78304742684157402</v>
+        <v>0.240520617763259</v>
       </c>
       <c r="M35" s="1">
-        <v>5.5177448096699999E-2</v>
+        <v>3.92667339387823E-2</v>
       </c>
       <c r="N35" s="1">
-        <v>3.62403041515049E-2</v>
+        <v>0.21510258997645401</v>
       </c>
       <c r="O35" s="1">
-        <v>0.72660191725529699</v>
+        <v>3.6849054425149699E-2</v>
       </c>
       <c r="P35" s="1">
-        <v>0.156505322092379</v>
+        <v>0.17503432532133401</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.32531136391910698</v>
+        <v>0.66644629249451903</v>
       </c>
       <c r="R35" s="1">
-        <v>0.78530689246698504</v>
+        <v>0.30828013923060299</v>
       </c>
       <c r="S35" s="1">
-        <v>4.7613263110545499E-2</v>
+        <v>3.2956444062132897E-2</v>
       </c>
       <c r="T35" s="1">
-        <v>0.424966995449161</v>
+        <v>0.72852337706020798</v>
       </c>
       <c r="U35" s="1">
-        <v>6.4151369546131695E-2</v>
+        <v>5.1106338626586603E-2</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1">
-        <v>0.87602710105232795</v>
+        <v>0.30700984182316099</v>
       </c>
       <c r="C36" s="1">
-        <v>6.5945509586276402E-2</v>
+        <v>3.6560754104009198E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>0.39431506939075001</v>
+        <v>0.78660114947571602</v>
       </c>
       <c r="E36" s="1">
-        <v>9.8533863595892404E-2</v>
+        <v>8.4466077046358404E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>6.2993515062132605E-2</v>
+        <v>3.1477092280133498E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.87500548413986701</v>
+        <v>0.78754242730024704</v>
       </c>
       <c r="H36" s="1">
-        <v>6.73842359008857E-2</v>
+        <v>4.4024599776365601E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>0.47509120546456501</v>
+        <v>0.35780485911666499</v>
       </c>
       <c r="J36" s="1">
-        <v>0.37383420481301399</v>
+        <v>1.7886787539467999E-2</v>
       </c>
       <c r="K36" s="1">
-        <v>4.8773765652991401E-2</v>
+        <v>0.72098890010090699</v>
       </c>
       <c r="L36" s="1">
-        <v>0.81679112008072596</v>
+        <v>0.275889787750773</v>
       </c>
       <c r="M36" s="1">
-        <v>5.9342593984155201E-2</v>
+        <v>3.5089135553313097E-2</v>
       </c>
       <c r="N36" s="1">
-        <v>4.6417759838546901E-2</v>
+        <v>0.244548155622827</v>
       </c>
       <c r="O36" s="1">
-        <v>0.77185292633703295</v>
+        <v>2.8876806683032798E-2</v>
       </c>
       <c r="P36" s="1">
-        <v>0.17714267113700699</v>
+        <v>0.177532216175083</v>
       </c>
       <c r="Q36" s="1">
-        <v>0.36628284699279801</v>
+        <v>0.69671874456313698</v>
       </c>
       <c r="R36" s="1">
-        <v>0.82508884306585295</v>
+        <v>0.34053296144702999</v>
       </c>
       <c r="S36" s="1">
-        <v>6.2858936627502096E-2</v>
+        <v>3.3111528345271299E-2</v>
       </c>
       <c r="T36" s="1">
-        <v>0.46512286467535802</v>
+        <v>0.77195873976903195</v>
       </c>
       <c r="U36" s="1">
-        <v>7.3189390434487994E-2</v>
+        <v>4.3747344521748298E-2</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
-        <v>0.90072557781942197</v>
+        <v>0.33939219206625798</v>
       </c>
       <c r="C37" s="1">
-        <v>8.2446014127144293E-2</v>
+        <v>4.1790750904481803E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>0.413906981010916</v>
+        <v>0.83753784056508496</v>
       </c>
       <c r="E37" s="1">
-        <v>0.119071644803229</v>
+        <v>8.1794978334421495E-2</v>
       </c>
       <c r="F37" s="1">
-        <v>7.2724450121019094E-2</v>
+        <v>3.7179577437245197E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>0.89887246084324102</v>
+        <v>0.83162095220621901</v>
       </c>
       <c r="H37" s="1">
-        <v>8.98830212654632E-2</v>
+        <v>4.6704120871628299E-2</v>
       </c>
       <c r="I37" s="1">
-        <v>0.510300395870527</v>
+        <v>0.402344174493518</v>
       </c>
       <c r="J37" s="1">
-        <v>0.40025379934562499</v>
+        <v>2.2631099248071301E-2</v>
       </c>
       <c r="K37" s="1">
-        <v>6.3461016994358896E-2</v>
+        <v>0.75502859064917505</v>
       </c>
       <c r="L37" s="1">
-        <v>0.82405650857719404</v>
+        <v>0.31982760095093099</v>
       </c>
       <c r="M37" s="1">
-        <v>7.1988320415655699E-2</v>
+        <v>3.6326942482341001E-2</v>
       </c>
       <c r="N37" s="1">
-        <v>5.6590119153186701E-2</v>
+        <v>0.27859064917591603</v>
       </c>
       <c r="O37" s="1">
-        <v>0.797899848637739</v>
+        <v>2.99862945615013E-2</v>
       </c>
       <c r="P37" s="1">
-        <v>0.187672927313564</v>
+        <v>0.19852442474069901</v>
       </c>
       <c r="Q37" s="1">
-        <v>0.401808053301632</v>
+        <v>0.76641497616479304</v>
       </c>
       <c r="R37" s="1">
-        <v>0.85165401658403805</v>
+        <v>0.38270275173187901</v>
       </c>
       <c r="S37" s="1">
-        <v>7.9825701877084404E-2</v>
+        <v>3.9668491836363298E-2</v>
       </c>
       <c r="T37" s="1">
-        <v>0.49098008559246598</v>
+        <v>0.82456553425271795</v>
       </c>
       <c r="U37" s="1">
-        <v>8.2194625273672398E-2</v>
+        <v>4.5511577885177103E-2</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1">
-        <v>0.91663062803325102</v>
+        <v>0.36321700499298798</v>
       </c>
       <c r="C38" s="1">
-        <v>9.5321897073662898E-2</v>
+        <v>5.2209724922678002E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>0.42868937318987699</v>
+        <v>0.86412495064274097</v>
       </c>
       <c r="E38" s="1">
-        <v>0.13420787083753699</v>
+        <v>8.6424882768445399E-2</v>
       </c>
       <c r="F38" s="1">
-        <v>8.20813898513192E-2</v>
+        <v>4.9718786911662302E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.91392094063967</v>
+        <v>0.87212182368589997</v>
       </c>
       <c r="H38" s="1">
-        <v>0.11110363643158699</v>
+        <v>5.4640412359887501E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>0.52459830784755002</v>
+        <v>0.45844911899402302</v>
       </c>
       <c r="J38" s="1">
-        <v>0.406170687704491</v>
+        <v>3.2005794082223898E-2</v>
       </c>
       <c r="K38" s="1">
-        <v>7.5512208999942099E-2</v>
+        <v>0.78546922300706301</v>
       </c>
       <c r="L38" s="1">
-        <v>0.83455095862764805</v>
+        <v>0.35083548547093302</v>
       </c>
       <c r="M38" s="1">
-        <v>8.1499452519483803E-2</v>
+        <v>4.0356542213252598E-2</v>
       </c>
       <c r="N38" s="1">
-        <v>6.7394428645689994E-2</v>
+        <v>0.320958067047875</v>
       </c>
       <c r="O38" s="1">
-        <v>0.809977295660948</v>
+        <v>3.6362084632337699E-2</v>
       </c>
       <c r="P38" s="1">
-        <v>0.18879593763223801</v>
+        <v>0.21703528477609901</v>
       </c>
       <c r="Q38" s="1">
-        <v>0.41984711720553403</v>
+        <v>0.79553916281011805</v>
       </c>
       <c r="R38" s="1">
-        <v>0.86756899047953295</v>
+        <v>0.42090802238876401</v>
       </c>
       <c r="S38" s="1">
-        <v>9.42595396711043E-2</v>
+        <v>5.20235397263899E-2</v>
       </c>
       <c r="T38" s="1">
-        <v>0.502207615575754</v>
+        <v>0.85962551855589098</v>
       </c>
       <c r="U38" s="1">
-        <v>8.8547833024294406E-2</v>
+        <v>5.18399144936003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1">
-        <v>0.92273316995819499</v>
+        <v>0.38991180363531502</v>
       </c>
       <c r="C39" s="1">
-        <v>0.1044561049445</v>
+        <v>6.6291747680342406E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>0.42878110789311602</v>
+        <v>0.88404334664151196</v>
       </c>
       <c r="E39" s="1">
-        <v>0.14394254169881801</v>
+        <v>0.10820917670801899</v>
       </c>
       <c r="F39" s="1">
-        <v>8.5468517355500095E-2</v>
+        <v>6.9094720703384599E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.92344140744965497</v>
+        <v>0.89510136684707797</v>
       </c>
       <c r="H39" s="1">
-        <v>0.12508876181933701</v>
+        <v>6.5058499468186606E-2</v>
       </c>
       <c r="I39" s="1">
-        <v>0.520608553908251</v>
+        <v>0.49918497244430599</v>
       </c>
       <c r="J39" s="1">
-        <v>0.39846497263247999</v>
+        <v>4.6670030272452097E-2</v>
       </c>
       <c r="K39" s="1">
-        <v>8.4740639322181496E-2</v>
+        <v>0.79431550622267</v>
       </c>
       <c r="L39" s="1">
-        <v>0.81977800201816298</v>
+        <v>0.38712822179274398</v>
       </c>
       <c r="M39" s="1">
-        <v>7.7076668742082896E-2</v>
+        <v>5.104608139926E-2</v>
       </c>
       <c r="N39" s="1">
-        <v>7.3275642397741203E-2</v>
+        <v>0.36837089359793601</v>
       </c>
       <c r="O39" s="1">
-        <v>0.77894803229061504</v>
+        <v>4.6478003524255497E-2</v>
       </c>
       <c r="P39" s="1">
-        <v>0.17794017121838401</v>
+        <v>0.23159252948669101</v>
       </c>
       <c r="Q39" s="1">
-        <v>0.42252878647553999</v>
+        <v>0.78864957027036398</v>
       </c>
       <c r="R39" s="1">
-        <v>0.86506822269995098</v>
+        <v>0.45344429453092799</v>
       </c>
       <c r="S39" s="1">
-        <v>0.103798308735713</v>
+        <v>7.0885924136904199E-2</v>
       </c>
       <c r="T39" s="1">
-        <v>0.49148263222759703</v>
+        <v>0.87523264940015599</v>
       </c>
       <c r="U39" s="1">
-        <v>9.0569639389888004E-2</v>
+        <v>6.2053547718944099E-2</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1">
-        <v>0.91581375234251094</v>
+        <v>0.41544026105075499</v>
       </c>
       <c r="C40" s="1">
-        <v>0.104524722502522</v>
+        <v>8.0800374098594502E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>0.41236059601347103</v>
+        <v>0.89549423068485901</v>
       </c>
       <c r="E40" s="1">
-        <v>0.143289606458123</v>
+        <v>0.130112186145901</v>
       </c>
       <c r="F40" s="1">
-        <v>8.4297135760304204E-2</v>
+        <v>9.2037641095440298E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0.90738384591760601</v>
+        <v>0.90996238877167201</v>
       </c>
       <c r="H40" s="1">
-        <v>0.12871398138804699</v>
+        <v>7.5701584531049707E-2</v>
       </c>
       <c r="I40" s="1">
-        <v>0.49542808352091899</v>
+        <v>0.52216098734766703</v>
       </c>
       <c r="J40" s="1">
-        <v>0.37626517444882701</v>
+        <v>6.2611894144070798E-2</v>
       </c>
       <c r="K40" s="1">
-        <v>8.8634716856999293E-2</v>
+        <v>0.80215270770265701</v>
       </c>
       <c r="L40" s="1">
-        <v>0.78817356205852596</v>
+        <v>0.41194479125690497</v>
       </c>
       <c r="M40" s="1">
-        <v>6.6663804023445003E-2</v>
+        <v>6.2926337033299598E-2</v>
       </c>
       <c r="N40" s="1">
-        <v>7.07325525690813E-2</v>
+        <v>0.406155398587285</v>
       </c>
       <c r="O40" s="1">
-        <v>0.73448536831483302</v>
+        <v>5.6644125487597299E-2</v>
       </c>
       <c r="P40" s="1">
-        <v>0.156961036424595</v>
+        <v>0.23678681907660701</v>
       </c>
       <c r="Q40" s="1">
-        <v>0.41105566537190802</v>
+        <v>0.790598141897769</v>
       </c>
       <c r="R40" s="1">
-        <v>0.846367305751765</v>
+        <v>0.47722763296636</v>
       </c>
       <c r="S40" s="1">
-        <v>0.105655307781956</v>
+        <v>9.1656879125241897E-2</v>
       </c>
       <c r="T40" s="1">
-        <v>0.46087514906889199</v>
+        <v>0.88068169077250802</v>
       </c>
       <c r="U40" s="1">
-        <v>8.6573384285282301E-2</v>
+        <v>7.2159302140315407E-2</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1">
-        <v>0.889481524193936</v>
+        <v>0.42446957684091902</v>
       </c>
       <c r="C41" s="1">
-        <v>9.7840565085771894E-2</v>
+        <v>9.2392508183406705E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>0.37326850747637802</v>
+        <v>0.89702978984776005</v>
       </c>
       <c r="E41" s="1">
-        <v>0.13177420312221699</v>
+        <v>0.14150887398349801</v>
       </c>
       <c r="F41" s="1">
-        <v>7.5751695327880994E-2</v>
+        <v>0.113603829817191</v>
       </c>
       <c r="G41" s="1">
-        <v>0.87544421532926697</v>
+        <v>0.92239244106045304</v>
       </c>
       <c r="H41" s="1">
-        <v>0.123892813095638</v>
+        <v>8.3249243188698197E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>0.44554839711247302</v>
+        <v>0.523123496080105</v>
       </c>
       <c r="J41" s="1">
-        <v>0.33045897929853502</v>
+        <v>7.4899905602031094E-2</v>
       </c>
       <c r="K41" s="1">
-        <v>8.7274456896206803E-2</v>
+        <v>0.78365287588294597</v>
       </c>
       <c r="L41" s="1">
-        <v>0.73118062563067598</v>
+        <v>0.40467598214438399</v>
       </c>
       <c r="M41" s="1">
-        <v>5.4662172316808699E-2</v>
+        <v>7.2795156407668996E-2</v>
       </c>
       <c r="N41" s="1">
-        <v>6.5111253809538305E-2</v>
+        <v>0.424851440744478</v>
       </c>
       <c r="O41" s="1">
-        <v>0.66605701311806198</v>
+        <v>6.4586251386859805E-2</v>
       </c>
       <c r="P41" s="1">
-        <v>0.121203736857524</v>
+        <v>0.22575308927891999</v>
       </c>
       <c r="Q41" s="1">
-        <v>0.38426661874680301</v>
+        <v>0.77090365009220896</v>
       </c>
       <c r="R41" s="1">
-        <v>0.80905321809327402</v>
+        <v>0.47794192677921499</v>
       </c>
       <c r="S41" s="1">
-        <v>0.101376031482387</v>
+        <v>0.10881126863079101</v>
       </c>
       <c r="T41" s="1">
-        <v>0.40696705128767602</v>
+        <v>0.87454871622379204</v>
       </c>
       <c r="U41" s="1">
-        <v>7.4249472691042401E-2</v>
+        <v>7.8276860162515199E-2</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1">
-        <v>0.83782614963240498</v>
+        <v>0.41635760808313699</v>
       </c>
       <c r="C42" s="1">
-        <v>8.9198789101917197E-2</v>
+        <v>9.9940111409186697E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>0.32015411430143997</v>
+        <v>0.88461369718773197</v>
       </c>
       <c r="E42" s="1">
-        <v>0.116934765833679</v>
+        <v>0.14233988247165599</v>
       </c>
       <c r="F42" s="1">
-        <v>6.4157840141694802E-2</v>
+        <v>0.12780919750623801</v>
       </c>
       <c r="G42" s="1">
-        <v>0.81661036283069299</v>
+        <v>0.90954958260709995</v>
       </c>
       <c r="H42" s="1">
-        <v>0.117158126845311</v>
+        <v>8.2887882837428706E-2</v>
       </c>
       <c r="I42" s="1">
-        <v>0.38747186214391</v>
+        <v>0.50413723511604402</v>
       </c>
       <c r="J42" s="1">
-        <v>0.27414916062746503</v>
+        <v>8.4323426971778206E-2</v>
       </c>
       <c r="K42" s="1">
-        <v>8.2944740550416202E-2</v>
+        <v>0.75247225025227005</v>
       </c>
       <c r="L42" s="1">
-        <v>0.652714429868819</v>
+        <v>0.37725974447998001</v>
       </c>
       <c r="M42" s="1">
-        <v>4.5687785817034102E-2</v>
+        <v>7.7362933064244799E-2</v>
       </c>
       <c r="N42" s="1">
-        <v>5.9591882498037797E-2</v>
+        <v>0.42671543895055403</v>
       </c>
       <c r="O42" s="1">
-        <v>0.58249243188698197</v>
+        <v>6.8396664507934496E-2</v>
       </c>
       <c r="P42" s="1">
-        <v>9.8125061033169397E-2</v>
+        <v>0.202924682800946</v>
       </c>
       <c r="Q42" s="1">
-        <v>0.34318455137331799</v>
+        <v>0.72525140053585702</v>
       </c>
       <c r="R42" s="1">
-        <v>0.75068003334357003</v>
+        <v>0.45629391111766099</v>
       </c>
       <c r="S42" s="1">
-        <v>9.4470015599272997E-2</v>
+        <v>0.121149774197283</v>
       </c>
       <c r="T42" s="1">
-        <v>0.341352807680188</v>
+        <v>0.85410920506783194</v>
       </c>
       <c r="U42" s="1">
-        <v>6.4151369546131695E-2</v>
+        <v>7.8779741356418201E-2</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
-        <v>0.78083705732545206</v>
+        <v>0.38947934003433399</v>
       </c>
       <c r="C43" s="1">
-        <v>7.8377396569122001E-2</v>
+        <v>9.87751552591207E-2</v>
       </c>
       <c r="D43" s="1">
-        <v>0.27984326470703802</v>
+        <v>0.85069977624709303</v>
       </c>
       <c r="E43" s="1">
-        <v>0.105063216002849</v>
+        <v>0.13355493559684201</v>
       </c>
       <c r="F43" s="1">
-        <v>5.3636575331832602E-2</v>
+        <v>0.13169690000704001</v>
       </c>
       <c r="G43" s="1">
-        <v>0.770675207300486</v>
+        <v>0.88106595725162795</v>
       </c>
       <c r="H43" s="1">
-        <v>0.102163919721941</v>
+        <v>7.7283388332833297E-2</v>
       </c>
       <c r="I43" s="1">
-        <v>0.32507956221376999</v>
+        <v>0.464596755414111</v>
       </c>
       <c r="J43" s="1">
-        <v>0.21920007338776201</v>
+        <v>8.8359753914260597E-2</v>
       </c>
       <c r="K43" s="1">
-        <v>7.1889294398485001E-2</v>
+        <v>0.69737638748738595</v>
       </c>
       <c r="L43" s="1">
-        <v>0.59334006054490396</v>
+        <v>0.337101712018334</v>
       </c>
       <c r="M43" s="1">
-        <v>4.5473087575412699E-2</v>
+        <v>7.8277833837874206E-2</v>
       </c>
       <c r="N43" s="1">
-        <v>5.3787114332018403E-2</v>
+        <v>0.41428411256867298</v>
       </c>
       <c r="O43" s="1">
-        <v>0.55322906155398499</v>
+        <v>6.5560190972483695E-2</v>
       </c>
       <c r="P43" s="1">
-        <v>9.2021744083851401E-2</v>
+        <v>0.161436535375758</v>
       </c>
       <c r="Q43" s="1">
-        <v>0.28883236802454898</v>
+        <v>0.65813006715612898</v>
       </c>
       <c r="R43" s="1">
-        <v>0.70991093756855095</v>
+        <v>0.41424883880013702</v>
       </c>
       <c r="S43" s="1">
-        <v>8.2073584789926907E-2</v>
+        <v>0.12499379662867401</v>
       </c>
       <c r="T43" s="1">
-        <v>0.27981078720340702</v>
+        <v>0.81279291400381204</v>
       </c>
       <c r="U43" s="1">
-        <v>6.34665054078766E-2</v>
+        <v>7.3732673004408097E-2</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
-        <v>0.74042573638940901</v>
+        <v>0.34749105586643397</v>
       </c>
       <c r="C44" s="1">
-        <v>6.39717457114026E-2</v>
+        <v>9.3655911332069894E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>0.255651512967355</v>
+        <v>0.79217303558109897</v>
       </c>
       <c r="E44" s="1">
-        <v>9.5625333887339001E-2</v>
+        <v>0.121327239271086</v>
       </c>
       <c r="F44" s="1">
-        <v>5.4532752817313797E-2</v>
+        <v>0.127558882657092</v>
       </c>
       <c r="G44" s="1">
-        <v>0.74733470802439295</v>
+        <v>0.82744702320887897</v>
       </c>
       <c r="H44" s="1">
-        <v>7.2878125350375605E-2</v>
+        <v>6.9926637030572406E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>0.27299542032135299</v>
+        <v>0.41401847395792901</v>
       </c>
       <c r="J44" s="1">
-        <v>0.18944745130416099</v>
+        <v>8.7562253832883005E-2</v>
       </c>
       <c r="K44" s="1">
-        <v>5.3170161408624697E-2</v>
+        <v>0.62566431214261597</v>
       </c>
       <c r="L44" s="1">
-        <v>0.573521695257315</v>
+        <v>0.28473208024765201</v>
       </c>
       <c r="M44" s="1">
-        <v>5.8247632951886098E-2</v>
+        <v>7.6670030272452006E-2</v>
       </c>
       <c r="N44" s="1">
-        <v>4.49958719383542E-2</v>
+        <v>0.38566543334454501</v>
       </c>
       <c r="O44" s="1">
-        <v>0.54660696266397502</v>
+        <v>6.0665391508652397E-2</v>
       </c>
       <c r="P44" s="1">
-        <v>9.2477458416067096E-2</v>
+        <v>0.12721046798233199</v>
       </c>
       <c r="Q44" s="1">
-        <v>0.21557026941099999</v>
+        <v>0.58241414106266698</v>
       </c>
       <c r="R44" s="1">
-        <v>0.69005835124819004</v>
+        <v>0.36114166071421799</v>
       </c>
       <c r="S44" s="1">
-        <v>6.2890207336829998E-2</v>
+        <v>0.121730823311442</v>
       </c>
       <c r="T44" s="1">
-        <v>0.23101191354602399</v>
+        <v>0.74885076802331996</v>
       </c>
       <c r="U44" s="1">
-        <v>7.3091032286972599E-2</v>
+        <v>6.7945390089755101E-2</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1">
-        <v>0.71990774109845701</v>
+        <v>0.32053415807199798</v>
       </c>
       <c r="C45" s="1">
-        <v>5.5713420787083703E-2</v>
+        <v>8.7904965830687506E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>0.25245390331162199</v>
+        <v>0.73987627780458798</v>
       </c>
       <c r="E45" s="1">
-        <v>8.3991215053125096E-2</v>
+        <v>0.108684038701252</v>
       </c>
       <c r="F45" s="1">
-        <v>6.7283876567428499E-2</v>
+        <v>0.121254077394222</v>
       </c>
       <c r="G45" s="1">
-        <v>0.74110472513490899</v>
+        <v>0.79061553985872801</v>
       </c>
       <c r="H45" s="1">
-        <v>5.1179130694771403E-2</v>
+        <v>6.2863064881228295E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>0.25480090041139403</v>
+        <v>0.36548940464177498</v>
       </c>
       <c r="J45" s="1">
-        <v>0.18937100571812901</v>
+        <v>8.2565671690374598E-2</v>
       </c>
       <c r="K45" s="1">
-        <v>3.9709811208364199E-2</v>
+        <v>0.57161116717120697</v>
       </c>
       <c r="L45" s="1">
-        <v>0.55604439959636698</v>
+        <v>0.23239665463750001</v>
       </c>
       <c r="M45" s="1">
-        <v>7.4156772656031905E-2</v>
+        <v>7.3340060544904107E-2</v>
       </c>
       <c r="N45" s="1">
-        <v>4.3385418259283E-2</v>
+        <v>0.34886198004260499</v>
       </c>
       <c r="O45" s="1">
-        <v>0.54342204843592301</v>
+        <v>5.6804775316153799E-2</v>
       </c>
       <c r="P45" s="1">
-        <v>0.102714755379056</v>
+        <v>0.119121271773833</v>
       </c>
       <c r="Q45" s="1">
-        <v>0.17737721686963401</v>
+        <v>0.55645638331187497</v>
       </c>
       <c r="R45" s="1">
-        <v>0.68009915324880399</v>
+        <v>0.31930823100791</v>
       </c>
       <c r="S45" s="1">
-        <v>5.0769199313487598E-2</v>
+        <v>0.114942267290863</v>
       </c>
       <c r="T45" s="1">
-        <v>0.211460456360206</v>
+        <v>0.70528086108307997</v>
       </c>
       <c r="U45" s="1">
-        <v>9.23583005169267E-2</v>
+        <v>6.3293324127675299E-2</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1">
-        <v>0.70558839075488899</v>
+        <v>0.288754635878752</v>
       </c>
       <c r="C46" s="1">
-        <v>6.0565085771947497E-2</v>
+        <v>7.9967676568793902E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.26631894845820098</v>
+        <v>0.69898653095248497</v>
       </c>
       <c r="E46" s="1">
-        <v>7.8174155636018205E-2</v>
+        <v>0.102688906036683</v>
       </c>
       <c r="F46" s="1">
-        <v>8.9370770500941998E-2</v>
+        <v>0.10615696305509199</v>
       </c>
       <c r="G46" s="1">
-        <v>0.72605624533848101</v>
+        <v>0.77002109898174398</v>
       </c>
       <c r="H46" s="1">
-        <v>4.7329670740367001E-2</v>
+        <v>6.2903973600239901E-2</v>
       </c>
       <c r="I46" s="1">
-        <v>0.26102615850345401</v>
+        <v>0.31581153458045402</v>
       </c>
       <c r="J46" s="1">
-        <v>0.21065345686940001</v>
+        <v>7.6478630252921398E-2</v>
       </c>
       <c r="K46" s="1">
-        <v>3.8936330054188097E-2</v>
+        <v>0.54836865119407896</v>
       </c>
       <c r="L46" s="1">
-        <v>0.53646821392532695</v>
+        <v>0.185175050026509</v>
       </c>
       <c r="M46" s="1">
-        <v>9.4316937544281498E-2</v>
+        <v>7.1019172552976698E-2</v>
       </c>
       <c r="N46" s="1">
-        <v>5.6055000050963699E-2</v>
+        <v>0.29788933736966</v>
       </c>
       <c r="O46" s="1">
-        <v>0.53872351160443899</v>
+        <v>5.4987424130608302E-2</v>
       </c>
       <c r="P46" s="1">
-        <v>0.119576185671039</v>
+        <v>0.12140411242163</v>
       </c>
       <c r="Q46" s="1">
-        <v>0.175013477461537</v>
+        <v>0.542816381920039</v>
       </c>
       <c r="R46" s="1">
-        <v>0.66920765147194305</v>
+        <v>0.27914526619727298</v>
       </c>
       <c r="S46" s="1">
-        <v>5.3557103322031799E-2</v>
+        <v>0.102181932474235</v>
       </c>
       <c r="T46" s="1">
-        <v>0.21272479987875001</v>
+        <v>0.67522143738087204</v>
       </c>
       <c r="U46" s="1">
-        <v>0.120659946740884</v>
+        <v>6.2820317064103195E-2</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1">
-        <v>0.69617029455576296</v>
+        <v>0.262754399989516</v>
       </c>
       <c r="C47" s="1">
-        <v>6.9804238143289593E-2</v>
+        <v>6.9696373048493299E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>0.28131101995884999</v>
+        <v>0.66612556486640595</v>
       </c>
       <c r="E47" s="1">
-        <v>7.6808927405472696E-2</v>
+        <v>9.4200747907639298E-2</v>
       </c>
       <c r="F47" s="1">
-        <v>0.11224799418543099</v>
+        <v>7.5798465257081102E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>0.71881718071337597</v>
+        <v>0.75635262819924698</v>
       </c>
       <c r="H47" s="1">
-        <v>5.1014687745262903E-2</v>
+        <v>7.1365260315815304E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>0.26982845610494399</v>
+        <v>0.26515563145230098</v>
       </c>
       <c r="J47" s="1">
-        <v>0.23083509158181201</v>
+        <v>5.8258194720223901E-2</v>
       </c>
       <c r="K47" s="1">
-        <v>4.3390514631685098E-2</v>
+        <v>0.527009754456777</v>
       </c>
       <c r="L47" s="1">
-        <v>0.51919273461150295</v>
+        <v>0.14730883032034001</v>
       </c>
       <c r="M47" s="1">
-        <v>0.11617321854134</v>
+        <v>7.1839892364614799E-2</v>
       </c>
       <c r="N47" s="1">
-        <v>7.1930200083580503E-2</v>
+        <v>0.22251653772844401</v>
       </c>
       <c r="O47" s="1">
-        <v>0.53307896064581195</v>
+        <v>5.0062502823922703E-2</v>
       </c>
       <c r="P47" s="1">
-        <v>0.13925327951564001</v>
+        <v>0.12861656548278699</v>
       </c>
       <c r="Q47" s="1">
-        <v>0.180003593989743</v>
+        <v>0.54020668777619196</v>
       </c>
       <c r="R47" s="1">
-        <v>0.66213311104286399</v>
+        <v>0.239908237810708</v>
       </c>
       <c r="S47" s="1">
-        <v>6.2268401309039899E-2</v>
+        <v>7.4944996774246903E-2</v>
       </c>
       <c r="T47" s="1">
-        <v>0.21676910375194899</v>
+        <v>0.64989348581679496</v>
       </c>
       <c r="U47" s="1">
-        <v>0.14673214162115999</v>
+        <v>6.8244131393063803E-2</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1">
-        <v>0.67276920859161005</v>
+        <v>0.25780072601465098</v>
       </c>
       <c r="C48" s="1">
-        <v>7.6730575176589294E-2</v>
+        <v>6.3883898172987799E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>0.29273854299081298</v>
+        <v>0.65814065721932102</v>
       </c>
       <c r="E48" s="1">
-        <v>7.2891315961298705E-2</v>
+        <v>8.1379474090342505E-2</v>
       </c>
       <c r="F48" s="1">
-        <v>0.12970581386322999</v>
+        <v>5.3035458662849297E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>0.69951300837976504</v>
+        <v>0.74277589211998896</v>
       </c>
       <c r="H48" s="1">
-        <v>5.4587584557312101E-2</v>
+        <v>8.7585567403932599E-2</v>
       </c>
       <c r="I48" s="1">
-        <v>0.27197081425133801</v>
+        <v>0.24565706745323199</v>
       </c>
       <c r="J48" s="1">
-        <v>0.23857138488823601</v>
+        <v>3.9256534618013698E-2</v>
       </c>
       <c r="K48" s="1">
-        <v>4.8026956262752399E-2</v>
+        <v>0.50696266397578205</v>
       </c>
       <c r="L48" s="1">
-        <v>0.51083753784056496</v>
+        <v>0.13472096324548</v>
       </c>
       <c r="M48" s="1">
-        <v>0.13614015501213</v>
+        <v>7.9051463168516606E-2</v>
       </c>
       <c r="N48" s="1">
-        <v>8.4798540398943995E-2</v>
+        <v>0.18146653212243499</v>
       </c>
       <c r="O48" s="1">
-        <v>0.52882189707366201</v>
+        <v>5.1633858959491102E-2</v>
       </c>
       <c r="P48" s="1">
-        <v>0.15023925002441299</v>
+        <v>0.146697325106284</v>
       </c>
       <c r="Q48" s="1">
-        <v>0.183874044482534</v>
+        <v>0.53425658512822305</v>
       </c>
       <c r="R48" s="1">
-        <v>0.65079190979686696</v>
+        <v>0.22518773833414499</v>
       </c>
       <c r="S48" s="1">
-        <v>6.9780587865280894E-2</v>
+        <v>5.1889133347669897E-2</v>
       </c>
       <c r="T48" s="1">
-        <v>0.217770208556853</v>
+        <v>0.63521695257315802</v>
       </c>
       <c r="U48" s="1">
-        <v>0.16436010739252499</v>
+        <v>8.1171331456795295E-2</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1">
-        <v>0.66311085483638399</v>
+        <v>0.26644999803425601</v>
       </c>
       <c r="C49" s="1">
-        <v>8.03511604439959E-2</v>
+        <v>6.9277973304455495E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>0.29853093425242699</v>
+        <v>0.64655815381915505</v>
       </c>
       <c r="E49" s="1">
-        <v>7.0338932747670196E-2</v>
+        <v>7.7046358402089399E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>0.14036820898576599</v>
+        <v>4.8889618973865498E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0.68042820164085405</v>
+        <v>0.73057517658930304</v>
       </c>
       <c r="H49" s="1">
-        <v>5.7285943865156702E-2</v>
+        <v>0.111169443914146</v>
       </c>
       <c r="I49" s="1">
-        <v>0.27819607234339799</v>
+        <v>0.24689901420476501</v>
       </c>
       <c r="J49" s="1">
-        <v>0.24936550163593499</v>
+        <v>3.5057452556882897E-2</v>
       </c>
       <c r="K49" s="1">
-        <v>5.16943238041047E-2</v>
+        <v>0.48678102926337002</v>
       </c>
       <c r="L49" s="1">
-        <v>0.51426841574167503</v>
+        <v>0.14513673912671601</v>
       </c>
       <c r="M49" s="1">
-        <v>0.149644674410116</v>
+        <v>9.3218970736629603E-2</v>
       </c>
       <c r="N49" s="1">
-        <v>9.2682628505030007E-2</v>
+        <v>0.176715438950554</v>
       </c>
       <c r="O49" s="1">
-        <v>0.533867305751765</v>
+        <v>6.34918244298186E-2</v>
       </c>
       <c r="P49" s="1">
-        <v>0.152892158458383</v>
+        <v>0.16393442622950799</v>
       </c>
       <c r="Q49" s="1">
-        <v>0.18792419446249101</v>
+        <v>0.53328229931451998</v>
       </c>
       <c r="R49" s="1">
-        <v>0.64643750274206901</v>
+        <v>0.22704339051463099</v>
       </c>
       <c r="S49" s="1">
-        <v>7.3899902459441197E-2</v>
+        <v>4.7482671916097299E-2</v>
       </c>
       <c r="T49" s="1">
-        <v>0.223007063572149</v>
+        <v>0.62251373472362304</v>
       </c>
       <c r="U49" s="1">
-        <v>0.17528879044978801</v>
+        <v>0.10073888682351601</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1">
-        <v>0.66075633078660301</v>
+        <v>0.27858518877691402</v>
       </c>
       <c r="C50" s="1">
-        <v>7.9713420787083697E-2</v>
+        <v>7.5923145709761802E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>0.301807173653793</v>
+        <v>0.62769271267494298</v>
       </c>
       <c r="E50" s="1">
-        <v>7.1407372232444893E-2</v>
+        <v>7.7046358402089302E-2</v>
       </c>
       <c r="F50" s="1">
-        <v>0.14091156068956201</v>
+        <v>5.2714742762380799E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>0.65853551528978105</v>
+        <v>0.72011742042014504</v>
       </c>
       <c r="H50" s="1">
-        <v>5.9259259259259199E-2</v>
+        <v>0.12995336406032601</v>
       </c>
       <c r="I50" s="1">
-        <v>0.28507335248001198</v>
+        <v>0.25152526585422602</v>
       </c>
       <c r="J50" s="1">
-        <v>0.25971623398464899</v>
+        <v>3.7637121187461299E-2</v>
       </c>
       <c r="K50" s="1">
-        <v>5.4250367848077602E-2</v>
+        <v>0.474907500840901</v>
       </c>
       <c r="L50" s="1">
-        <v>0.51313824419777998</v>
+        <v>0.155484102686893</v>
       </c>
       <c r="M50" s="1">
-        <v>0.154368035725787</v>
+        <v>0.108348469559367</v>
       </c>
       <c r="N50" s="1">
-        <v>9.5796512042727905E-2</v>
+        <v>0.18295212467765401</v>
       </c>
       <c r="O50" s="1">
-        <v>0.539764127144298</v>
+        <v>7.6554663614319896E-2</v>
       </c>
       <c r="P50" s="1">
-        <v>0.14802578041079301</v>
+        <v>0.17293345023241899</v>
       </c>
       <c r="Q50" s="1">
-        <v>0.189914711858783</v>
+        <v>0.52882842130902197</v>
       </c>
       <c r="R50" s="1">
-        <v>0.64056947308384105</v>
+        <v>0.23104570346602499</v>
       </c>
       <c r="S50" s="1">
-        <v>7.4936646745621102E-2</v>
+        <v>5.0803543365701101E-2</v>
       </c>
       <c r="T50" s="1">
-        <v>0.22938461967988499</v>
+        <v>0.61112232313039505</v>
       </c>
       <c r="U50" s="1">
-        <v>0.177135737886465</v>
+        <v>0.117438525678474</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1">
-        <v>0.65729662197876104</v>
+        <v>0.28614674931526501</v>
       </c>
       <c r="C51" s="1">
-        <v>7.7525731584258295E-2</v>
+        <v>8.0148162732888606E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>0.296696240187662</v>
+        <v>0.60852015969815298</v>
       </c>
       <c r="E51" s="1">
-        <v>7.20603074731406E-2</v>
+        <v>7.3900397696919307E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>0.13682583813764401</v>
+        <v>5.6430353804394602E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>0.62685912341508299</v>
+        <v>0.68901935602238296</v>
       </c>
       <c r="H51" s="1">
-        <v>5.9670366633030499E-2</v>
+        <v>0.139648730466086</v>
       </c>
       <c r="I51" s="1">
-        <v>0.28603586121245</v>
+        <v>0.259691065745556</v>
       </c>
       <c r="J51" s="1">
-        <v>0.26210133626884302</v>
+        <v>3.9329774421405499E-2</v>
       </c>
       <c r="K51" s="1">
-        <v>5.4988286650337503E-2</v>
+        <v>0.46932391523713402</v>
       </c>
       <c r="L51" s="1">
-        <v>0.50385469223006996</v>
+        <v>0.16297525184285599</v>
       </c>
       <c r="M51" s="1">
-        <v>0.15404598836335501</v>
+        <v>0.120787083753784</v>
       </c>
       <c r="N51" s="1">
-        <v>9.6994159557227094E-2</v>
+        <v>0.18878237470568399</v>
       </c>
       <c r="O51" s="1">
-        <v>0.53765136226034305</v>
+        <v>8.6374384384836606E-2</v>
       </c>
       <c r="P51" s="1">
-        <v>0.14317567787506899</v>
+        <v>0.17472002117417401</v>
       </c>
       <c r="Q51" s="1">
-        <v>0.19005294223352601</v>
+        <v>0.53255158495424304</v>
       </c>
       <c r="R51" s="1">
-        <v>0.62757206159785806</v>
+        <v>0.235951276847432</v>
       </c>
       <c r="S51" s="1">
-        <v>7.4415869163352105E-2</v>
+        <v>5.4293973631536201E-2</v>
       </c>
       <c r="T51" s="1">
-        <v>0.23114752136820299</v>
+        <v>0.59816122883731304</v>
       </c>
       <c r="U51" s="1">
-        <v>0.17333255618253801</v>
+        <v>0.12731026607891999</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -4051,1135 +4055,1135 @@
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1">
-        <v>2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>2.11711711711711E-4</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>2.1937521937521901E-4</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>1.9872813990460999E-4</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>1.5557301430493999E-5</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>4.0374078193877798E-4</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1.88243347308975E-4</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>2.18855218855218E-4</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>2.4473813020068502E-4</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>8.1315162936412796E-20</v>
+        <v>0</v>
       </c>
       <c r="N54" s="1">
-        <v>1.9447018314515499E-4</v>
+        <v>0</v>
       </c>
       <c r="O54" s="1">
-        <v>-2.7105054312137599E-20</v>
+        <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>-1.0842021724855E-19</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <v>4.1887091019097397E-4</v>
+        <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>-5.4210108624275198E-20</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1">
-        <v>2.5760789882724102E-4</v>
+        <v>0</v>
       </c>
       <c r="T54" s="1">
-        <v>2.44011789137648E-4</v>
+        <v>0</v>
       </c>
       <c r="U54" s="1">
-        <v>1.2196311835300899E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1">
-        <v>4.1291291291291202E-3</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>1.2545045045045E-2</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>1.3893763893763801E-2</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>2.1528881822999401E-2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>8.0431248395653205E-3</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>3.77230739468975E-3</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>1.7657479503975601E-2</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1.4460511679644E-2</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>1.3097643097643E-2</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>1.45129711209006E-2</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>2.7423167848699701E-3</v>
+        <v>0</v>
       </c>
       <c r="N55" s="1">
-        <v>1.36701099328505E-2</v>
+        <v>0</v>
       </c>
       <c r="O55" s="1">
-        <v>8.4937712344280796E-4</v>
+        <v>0</v>
       </c>
       <c r="P55" s="1">
-        <v>2.3015380119095399E-3</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>2.6544004716176101E-2</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>3.67815047910034E-3</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>1.5157358029678301E-2</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1">
-        <v>1.5736314124715201E-2</v>
+        <v>0</v>
       </c>
       <c r="U55" s="1">
-        <v>5.1435137438784403E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1">
-        <v>5.8558558558558502E-2</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>0.12382882882882799</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>0.103852228852228</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0.150503444621091</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>9.22236828799676E-2</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>3.1919524108913203E-2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>0.175833230338235</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0.107435612218704</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>0.115824915824915</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0.15170827214880001</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>4.8444444444444401E-2</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1">
-        <v>2.8794326241134701E-2</v>
+        <v>0</v>
       </c>
       <c r="N56" s="1">
-        <v>0.14039031309699401</v>
+        <v>0</v>
       </c>
       <c r="O56" s="1">
-        <v>3.08607021517553E-2</v>
+        <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>2.0640777408395101E-2</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>0.186785398470345</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>4.3969721905726802E-2</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>0.15234630466877</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>0.11535728178987301</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>5.30052375612102E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
-        <v>0.19503432003432</v>
+        <v>3.6562536562536501E-4</v>
       </c>
       <c r="C57" s="1">
-        <v>0.345162162162162</v>
+        <v>2.2430967552918699E-4</v>
       </c>
       <c r="D57" s="1">
-        <v>0.29002866502866498</v>
+        <v>8.1315162936412796E-20</v>
       </c>
       <c r="E57" s="1">
-        <v>0.35035771065182802</v>
+        <v>1.9872813990460999E-4</v>
       </c>
       <c r="F57" s="1">
-        <v>0.30625325730998598</v>
+        <v>4.2251942295918802E-4</v>
       </c>
       <c r="G57" s="1">
-        <v>0.12516322483919301</v>
+        <v>1.0112245929821E-4</v>
       </c>
       <c r="H57" s="1">
-        <v>0.41628146500226498</v>
+        <v>4.5095150768120598E-5</v>
       </c>
       <c r="I57" s="1">
-        <v>0.286266792162231</v>
+        <v>2.0535637888251899E-4</v>
       </c>
       <c r="J57" s="1">
-        <v>0.31727272727272698</v>
+        <v>4.1218637992831498E-4</v>
       </c>
       <c r="K57" s="1">
-        <v>0.39818893783651399</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>0.18279999999999899</v>
+        <v>3.2015065913370899E-4</v>
       </c>
       <c r="M57" s="1">
-        <v>0.13683215130023599</v>
+        <v>4.4444444444444203E-5</v>
       </c>
       <c r="N57" s="1">
-        <v>0.37142661038470698</v>
+        <v>4.2759407069555201E-4</v>
       </c>
       <c r="O57" s="1">
-        <v>0.14290770101925199</v>
+        <v>2.0422403376504E-4</v>
       </c>
       <c r="P57" s="1">
-        <v>9.6153143608665406E-2</v>
+        <v>2.7105054312137599E-20</v>
       </c>
       <c r="Q57" s="1">
-        <v>0.41094339037217398</v>
+        <v>7.8637990012975204E-5</v>
       </c>
       <c r="R57" s="1">
-        <v>0.16170225995913501</v>
+        <v>2.6126803710350602E-4</v>
       </c>
       <c r="S57" s="1">
-        <v>0.395947927764431</v>
+        <v>4.1821997518520603E-4</v>
       </c>
       <c r="T57" s="1">
-        <v>0.30008081071012099</v>
+        <v>5.00577312770767E-5</v>
       </c>
       <c r="U57" s="1">
-        <v>0.193362353976407</v>
+        <v>5.9032106843742099E-5</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1">
-        <v>0.376179751179751</v>
+        <v>3.03322803322803E-2</v>
       </c>
       <c r="C58" s="1">
-        <v>0.55994144144144098</v>
+        <v>2.4477221123562501E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>0.51045688545688495</v>
+        <v>1.5423031727379501E-2</v>
       </c>
       <c r="E58" s="1">
-        <v>0.532525172231054</v>
+        <v>3.6698463169051398E-2</v>
       </c>
       <c r="F58" s="1">
-        <v>0.51786367136756395</v>
+        <v>1.84787576204395E-2</v>
       </c>
       <c r="G58" s="1">
-        <v>0.24292692363495599</v>
+        <v>1.48650015168368E-2</v>
       </c>
       <c r="H58" s="1">
-        <v>0.61570469245663895</v>
+        <v>3.2859333193037299E-2</v>
       </c>
       <c r="I58" s="1">
-        <v>0.48077350902712401</v>
+        <v>3.0101822537862501E-2</v>
       </c>
       <c r="J58" s="1">
-        <v>0.52151515151515104</v>
+        <v>3.0448028673835101E-2</v>
       </c>
       <c r="K58" s="1">
-        <v>0.61332843857072905</v>
+        <v>1.8925925925925902E-2</v>
       </c>
       <c r="L58" s="1">
-        <v>0.37177777777777699</v>
+        <v>2.3728813559322E-2</v>
       </c>
       <c r="M58" s="1">
-        <v>0.29040189125295501</v>
+        <v>2.1992592592592501E-2</v>
       </c>
       <c r="N58" s="1">
-        <v>0.584176990745507</v>
+        <v>3.8309261370834902E-2</v>
       </c>
       <c r="O58" s="1">
-        <v>0.29020385050962599</v>
+        <v>3.0650623734236399E-2</v>
       </c>
       <c r="P58" s="1">
-        <v>0.218225989113359</v>
+        <v>3.6824494831486001E-3</v>
       </c>
       <c r="Q58" s="1">
-        <v>0.60104872864921799</v>
+        <v>1.5137813077497699E-2</v>
       </c>
       <c r="R58" s="1">
-        <v>0.31970785986453398</v>
+        <v>2.6067714389339799E-2</v>
       </c>
       <c r="S58" s="1">
-        <v>0.61121154709855097</v>
+        <v>2.3611148969161298E-2</v>
       </c>
       <c r="T58" s="1">
-        <v>0.49825372467191598</v>
+        <v>1.8659155845016501E-2</v>
       </c>
       <c r="U58" s="1">
-        <v>0.364356319078807</v>
+        <v>2.85023372924188E-2</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1">
-        <v>0.52960102960102895</v>
+        <v>0.184874809874809</v>
       </c>
       <c r="C59" s="1">
-        <v>0.71458108108108098</v>
+        <v>0.20775653702482899</v>
       </c>
       <c r="D59" s="1">
-        <v>0.68875043875043795</v>
+        <v>0.12583235409322299</v>
       </c>
       <c r="E59" s="1">
-        <v>0.67945151033386297</v>
+        <v>0.19382617912029601</v>
       </c>
       <c r="F59" s="1">
-        <v>0.67908398609177201</v>
+        <v>0.18420984556483899</v>
       </c>
       <c r="G59" s="1">
-        <v>0.36446292982540901</v>
+        <v>9.47011831327738E-2</v>
       </c>
       <c r="H59" s="1">
-        <v>0.75239978577019695</v>
+        <v>0.226167212819048</v>
       </c>
       <c r="I59" s="1">
-        <v>0.64117395396594501</v>
+        <v>0.182972533584324</v>
       </c>
       <c r="J59" s="1">
-        <v>0.69082491582491501</v>
+        <v>0.22851254480286701</v>
       </c>
       <c r="K59" s="1">
-        <v>0.76386196769456605</v>
+        <v>0.138777777777777</v>
       </c>
       <c r="L59" s="1">
-        <v>0.54982222222222199</v>
+        <v>0.181694915254237</v>
       </c>
       <c r="M59" s="1">
-        <v>0.41593380614657199</v>
+        <v>0.189585185185185</v>
       </c>
       <c r="N59" s="1">
-        <v>0.74515826441081201</v>
+        <v>0.21926073736221899</v>
       </c>
       <c r="O59" s="1">
-        <v>0.43757078142695299</v>
+        <v>0.21588182235912701</v>
       </c>
       <c r="P59" s="1">
-        <v>0.36141453256858902</v>
+        <v>5.9367815017664499E-2</v>
       </c>
       <c r="Q59" s="1">
-        <v>0.74393025023658399</v>
+        <v>0.11764243305941</v>
       </c>
       <c r="R59" s="1">
-        <v>0.47243687185669397</v>
+        <v>0.17009552236154701</v>
       </c>
       <c r="S59" s="1">
-        <v>0.76398897176790803</v>
+        <v>0.203136643846895</v>
       </c>
       <c r="T59" s="1">
-        <v>0.663811811529468</v>
+        <v>0.124598366843071</v>
       </c>
       <c r="U59" s="1">
-        <v>0.50989792489262897</v>
+        <v>0.205351693399145</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1">
-        <v>0.64108751608751602</v>
+        <v>0.41106528606528597</v>
       </c>
       <c r="C60" s="1">
-        <v>0.79993693693693602</v>
+        <v>0.44289258770966</v>
       </c>
       <c r="D60" s="1">
-        <v>0.78698666198666201</v>
+        <v>0.327555816686251</v>
       </c>
       <c r="E60" s="1">
-        <v>0.75516693163751902</v>
+        <v>0.400834658187599</v>
       </c>
       <c r="F60" s="1">
-        <v>0.771260997067448</v>
+        <v>0.42186408671133302</v>
       </c>
       <c r="G60" s="1">
-        <v>0.45659428350340903</v>
+        <v>0.20371119425624401</v>
       </c>
       <c r="H60" s="1">
-        <v>0.83110451942487495</v>
+        <v>0.45305594805038601</v>
       </c>
       <c r="I60" s="1">
-        <v>0.73912894669290596</v>
+        <v>0.39425002139128901</v>
       </c>
       <c r="J60" s="1">
-        <v>0.78478114478114402</v>
+        <v>0.45960573476702499</v>
       </c>
       <c r="K60" s="1">
-        <v>0.84754772393538902</v>
+        <v>0.32985185185185101</v>
       </c>
       <c r="L60" s="1">
-        <v>0.64288888888888795</v>
+        <v>0.39845574387947202</v>
       </c>
       <c r="M60" s="1">
-        <v>0.507163120567375</v>
+        <v>0.423829629629629</v>
       </c>
       <c r="N60" s="1">
-        <v>0.835186519784481</v>
+        <v>0.44572722665653097</v>
       </c>
       <c r="O60" s="1">
-        <v>0.54940543601359004</v>
+        <v>0.453116402026356</v>
       </c>
       <c r="P60" s="1">
-        <v>0.441292514521608</v>
+        <v>0.17314989625586399</v>
       </c>
       <c r="Q60" s="1">
-        <v>0.82969019066383198</v>
+        <v>0.27291314434003</v>
       </c>
       <c r="R60" s="1">
-        <v>0.57518569494405003</v>
+        <v>0.37683385507480499</v>
       </c>
       <c r="S60" s="1">
-        <v>0.84905184024872904</v>
+        <v>0.43709421710691798</v>
       </c>
       <c r="T60" s="1">
-        <v>0.76250250717649004</v>
+        <v>0.28727333846509501</v>
       </c>
       <c r="U60" s="1">
-        <v>0.59460597793738001</v>
+        <v>0.43154010856397301</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1">
-        <v>0.68699056199056197</v>
+        <v>0.62695975195975095</v>
       </c>
       <c r="C61" s="1">
-        <v>0.82430630630630597</v>
+        <v>0.62969676994067203</v>
       </c>
       <c r="D61" s="1">
-        <v>0.81857669357669305</v>
+        <v>0.49701331766549101</v>
       </c>
       <c r="E61" s="1">
-        <v>0.78948065712771498</v>
+        <v>0.584194488606253</v>
       </c>
       <c r="F61" s="1">
-        <v>0.79588820523192005</v>
+        <v>0.61686973467504802</v>
       </c>
       <c r="G61" s="1">
-        <v>0.53987522367848295</v>
+        <v>0.33218727879462001</v>
       </c>
       <c r="H61" s="1">
-        <v>0.85576566555431899</v>
+        <v>0.63453386645822596</v>
       </c>
       <c r="I61" s="1">
-        <v>0.77438179173440502</v>
+        <v>0.57920766663814405</v>
       </c>
       <c r="J61" s="1">
-        <v>0.81621212121212094</v>
+        <v>0.64381720430107503</v>
       </c>
       <c r="K61" s="1">
-        <v>0.87151248164464001</v>
+        <v>0.52651851851851805</v>
       </c>
       <c r="L61" s="1">
-        <v>0.66137777777777695</v>
+        <v>0.59890772128060199</v>
       </c>
       <c r="M61" s="1">
-        <v>0.531583924349881</v>
+        <v>0.60689629629629605</v>
       </c>
       <c r="N61" s="1">
-        <v>0.85958108834666003</v>
+        <v>0.635515646775623</v>
       </c>
       <c r="O61" s="1">
-        <v>0.61802802944507296</v>
+        <v>0.65326730089574903</v>
       </c>
       <c r="P61" s="1">
-        <v>0.45166770174989901</v>
+        <v>0.31915808363085701</v>
       </c>
       <c r="Q61" s="1">
-        <v>0.85539645355962701</v>
+        <v>0.435497188691857</v>
       </c>
       <c r="R61" s="1">
-        <v>0.62751205310780001</v>
+        <v>0.57167275915460103</v>
       </c>
       <c r="S61" s="1">
-        <v>0.87480259956664796</v>
+        <v>0.627704002165413</v>
       </c>
       <c r="T61" s="1">
-        <v>0.79676924708574903</v>
+        <v>0.45024063517359603</v>
       </c>
       <c r="U61" s="1">
-        <v>0.61161618628416503</v>
+        <v>0.61623472530671097</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="1">
-        <v>0.69573144573144496</v>
+        <v>0.76067626067626004</v>
       </c>
       <c r="C62" s="1">
-        <v>0.79118918918918901</v>
+        <v>0.747756903244708</v>
       </c>
       <c r="D62" s="1">
-        <v>0.79058441558441495</v>
+        <v>0.62426556991774296</v>
       </c>
       <c r="E62" s="1">
-        <v>0.75867779544250102</v>
+        <v>0.70303391626920997</v>
       </c>
       <c r="F62" s="1">
-        <v>0.76398017999797696</v>
+        <v>0.75135163101120095</v>
       </c>
       <c r="G62" s="1">
-        <v>0.57179474778739603</v>
+        <v>0.42825361512791899</v>
       </c>
       <c r="H62" s="1">
-        <v>0.83079141432867698</v>
+        <v>0.74951146920001099</v>
       </c>
       <c r="I62" s="1">
-        <v>0.74878069650038503</v>
+        <v>0.70437237956704002</v>
       </c>
       <c r="J62" s="1">
-        <v>0.799612794612794</v>
+        <v>0.77041218637992803</v>
       </c>
       <c r="K62" s="1">
-        <v>0.84282427802251503</v>
+        <v>0.63311111111111096</v>
       </c>
       <c r="L62" s="1">
-        <v>0.60635555555555498</v>
+        <v>0.73429378531073397</v>
       </c>
       <c r="M62" s="1">
-        <v>0.51829787234042501</v>
+        <v>0.72129629629629599</v>
       </c>
       <c r="N62" s="1">
-        <v>0.82955832389580897</v>
+        <v>0.769685164069428</v>
       </c>
       <c r="O62" s="1">
-        <v>0.61041902604756504</v>
+        <v>0.77918843638137703</v>
       </c>
       <c r="P62" s="1">
-        <v>0.41067840572827202</v>
+        <v>0.420060937996523</v>
       </c>
       <c r="Q62" s="1">
-        <v>0.826494360756449</v>
+        <v>0.56965359965399198</v>
       </c>
       <c r="R62" s="1">
-        <v>0.62831783761275894</v>
+        <v>0.70137633013052503</v>
       </c>
       <c r="S62" s="1">
-        <v>0.84612433686576505</v>
+        <v>0.76041637058596001</v>
       </c>
       <c r="T62" s="1">
-        <v>0.77075958542481005</v>
+        <v>0.55955768233623304</v>
       </c>
       <c r="U62" s="1">
-        <v>0.57725280657898803</v>
+        <v>0.72927144400698096</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="1">
-        <v>0.62612612612612595</v>
+        <v>0.81717269217269195</v>
       </c>
       <c r="C63" s="1">
-        <v>0.699995495495495</v>
+        <v>0.80594008642789094</v>
       </c>
       <c r="D63" s="1">
-        <v>0.70147420147420103</v>
+        <v>0.68507638072855404</v>
       </c>
       <c r="E63" s="1">
-        <v>0.64334923158452495</v>
+        <v>0.77318494965553697</v>
       </c>
       <c r="F63" s="1">
-        <v>0.67323444075390604</v>
+        <v>0.82894861646446005</v>
       </c>
       <c r="G63" s="1">
-        <v>0.51753155680224405</v>
+        <v>0.52118515522297504</v>
       </c>
       <c r="H63" s="1">
-        <v>0.75390763399662097</v>
+        <v>0.79338905089739298</v>
       </c>
       <c r="I63" s="1">
-        <v>0.67312398391374995</v>
+        <v>0.76325832121160198</v>
       </c>
       <c r="J63" s="1">
-        <v>0.72185185185185097</v>
+        <v>0.83937275985662996</v>
       </c>
       <c r="K63" s="1">
-        <v>0.76207048458149695</v>
+        <v>0.67614814814814805</v>
       </c>
       <c r="L63" s="1">
-        <v>0.51133333333333297</v>
+        <v>0.79555555555555502</v>
       </c>
       <c r="M63" s="1">
-        <v>0.43460992907801399</v>
+        <v>0.77195555555555495</v>
       </c>
       <c r="N63" s="1">
-        <v>0.73980461466305103</v>
+        <v>0.84380146965665703</v>
       </c>
       <c r="O63" s="1">
-        <v>0.52997593431483503</v>
+        <v>0.84231635437408103</v>
       </c>
       <c r="P63" s="1">
-        <v>0.338545281847075</v>
+        <v>0.448548516739256</v>
       </c>
       <c r="Q63" s="1">
-        <v>0.74636590701065697</v>
+        <v>0.65489718082805803</v>
       </c>
       <c r="R63" s="1">
-        <v>0.55184507954174999</v>
+        <v>0.76125824877567605</v>
       </c>
       <c r="S63" s="1">
-        <v>0.761829597611969</v>
+        <v>0.83496641094191604</v>
       </c>
       <c r="T63" s="1">
-        <v>0.69132506913732905</v>
+        <v>0.62820134628159296</v>
       </c>
       <c r="U63" s="1">
-        <v>0.48632337781595902</v>
+        <v>0.77593937708733496</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="1">
-        <v>0.49083011583011499</v>
+        <v>0.81714344214344203</v>
       </c>
       <c r="C64" s="1">
-        <v>0.55780630630630601</v>
+        <v>0.80739123269611002</v>
       </c>
       <c r="D64" s="1">
-        <v>0.56554931554931498</v>
+        <v>0.70519976498237302</v>
       </c>
       <c r="E64" s="1">
-        <v>0.48774509803921501</v>
+        <v>0.78616852146263905</v>
       </c>
       <c r="F64" s="1">
-        <v>0.52828706332599495</v>
+        <v>0.85313569771753195</v>
       </c>
       <c r="G64" s="1">
-        <v>0.395850461865841</v>
+        <v>0.55000505612296402</v>
       </c>
       <c r="H64" s="1">
-        <v>0.62348288221480597</v>
+        <v>0.77663620238703601</v>
       </c>
       <c r="I64" s="1">
-        <v>0.54198682296568801</v>
+        <v>0.764918285274236</v>
       </c>
       <c r="J64" s="1">
-        <v>0.58653198653198602</v>
+        <v>0.85598566308243695</v>
       </c>
       <c r="K64" s="1">
-        <v>0.622887909936368</v>
+        <v>0.64007407407407402</v>
       </c>
       <c r="L64" s="1">
-        <v>0.39119999999999899</v>
+        <v>0.79297551789077203</v>
       </c>
       <c r="M64" s="1">
-        <v>0.30869976359338003</v>
+        <v>0.769059259259259</v>
       </c>
       <c r="N64" s="1">
-        <v>0.59223034421222398</v>
+        <v>0.85976498162929105</v>
       </c>
       <c r="O64" s="1">
-        <v>0.40777180067950097</v>
+        <v>0.84627035858336497</v>
       </c>
       <c r="P64" s="1">
-        <v>0.25402769152084098</v>
+        <v>0.41811690375161198</v>
       </c>
       <c r="Q64" s="1">
-        <v>0.61842411455343704</v>
+        <v>0.66547399048480305</v>
       </c>
       <c r="R64" s="1">
-        <v>0.42526438066086902</v>
+        <v>0.76131827919828299</v>
       </c>
       <c r="S64" s="1">
-        <v>0.61976330027724202</v>
+        <v>0.85582599571896201</v>
       </c>
       <c r="T64" s="1">
-        <v>0.55820566877529698</v>
+        <v>0.638265525262527</v>
       </c>
       <c r="U64" s="1">
-        <v>0.36431656555137099</v>
+        <v>0.76295465994746803</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="1">
-        <v>0.30534105534105499</v>
+        <v>0.75748800748800704</v>
       </c>
       <c r="C65" s="1">
-        <v>0.36824324324324298</v>
+        <v>0.75092012744451697</v>
       </c>
       <c r="D65" s="1">
-        <v>0.37295249795249702</v>
+        <v>0.65589502546024203</v>
       </c>
       <c r="E65" s="1">
-        <v>0.31955484896661301</v>
+        <v>0.71058558558558504</v>
       </c>
       <c r="F65" s="1">
-        <v>0.33574990082220302</v>
+        <v>0.82865543972199895</v>
       </c>
       <c r="G65" s="1">
-        <v>0.228031145717463</v>
+        <v>0.51162908281929398</v>
       </c>
       <c r="H65" s="1">
-        <v>0.438240019775058</v>
+        <v>0.70431861227189296</v>
       </c>
       <c r="I65" s="1">
-        <v>0.35697783862411198</v>
+        <v>0.71068708821767701</v>
       </c>
       <c r="J65" s="1">
-        <v>0.39136363636363602</v>
+        <v>0.82113799283154099</v>
       </c>
       <c r="K65" s="1">
-        <v>0.42449339207048398</v>
+        <v>0.57207407407407396</v>
       </c>
       <c r="L65" s="1">
-        <v>0.245288888888888</v>
+        <v>0.74088512241054605</v>
       </c>
       <c r="M65" s="1">
-        <v>0.16066193853427899</v>
+        <v>0.70432592592592502</v>
       </c>
       <c r="N65" s="1">
-        <v>0.39314435407300602</v>
+        <v>0.82156657798048904</v>
       </c>
       <c r="O65" s="1">
-        <v>0.22427095130237801</v>
+        <v>0.79074978584840905</v>
       </c>
       <c r="P65" s="1">
-        <v>0.13074927848609899</v>
+        <v>0.34596332504626398</v>
       </c>
       <c r="Q65" s="1">
-        <v>0.44041949145968701</v>
+        <v>0.58864467424212596</v>
       </c>
       <c r="R65" s="1">
-        <v>0.25159896201520399</v>
+        <v>0.70776621265025297</v>
       </c>
       <c r="S65" s="1">
-        <v>0.42238471571892999</v>
+        <v>0.82632662084577102</v>
       </c>
       <c r="T65" s="1">
-        <v>0.372125434797907</v>
+        <v>0.58209196723469803</v>
       </c>
       <c r="U65" s="1">
-        <v>0.20837440477881899</v>
+        <v>0.68882867098512601</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="1">
-        <v>0.104354354354354</v>
+        <v>0.65210015210015204</v>
       </c>
       <c r="C66" s="1">
-        <v>0.14818468468468399</v>
+        <v>0.63689756830000699</v>
       </c>
       <c r="D66" s="1">
-        <v>0.148692523692523</v>
+        <v>0.52776145710928302</v>
       </c>
       <c r="E66" s="1">
-        <v>0.15268945416004201</v>
+        <v>0.58816905140434494</v>
       </c>
       <c r="F66" s="1">
-        <v>0.11293822973467001</v>
+        <v>0.75289512033180706</v>
       </c>
       <c r="G66" s="1">
-        <v>6.7949896019732003E-2</v>
+        <v>0.40201233694003402</v>
       </c>
       <c r="H66" s="1">
-        <v>0.212721954434968</v>
+        <v>0.57389592039202697</v>
       </c>
       <c r="I66" s="1">
-        <v>0.14778814066911899</v>
+        <v>0.60778642936596206</v>
       </c>
       <c r="J66" s="1">
-        <v>0.15994949494949401</v>
+        <v>0.73768817204300996</v>
       </c>
       <c r="K66" s="1">
-        <v>0.18374938815467401</v>
+        <v>0.46881481481481402</v>
       </c>
       <c r="L66" s="1">
-        <v>7.8844444444444398E-2</v>
+        <v>0.63419962335216495</v>
       </c>
       <c r="M66" s="1">
-        <v>3.3498817966903002E-2</v>
+        <v>0.584022222222222</v>
       </c>
       <c r="N66" s="1">
-        <v>0.162880217806605</v>
+        <v>0.73541429114405099</v>
       </c>
       <c r="O66" s="1">
-        <v>5.9421007927519802E-2</v>
+        <v>0.67514196406791505</v>
       </c>
       <c r="P66" s="1">
-        <v>2.85317648777993E-2</v>
+        <v>0.26076228573564803</v>
       </c>
       <c r="Q66" s="1">
-        <v>0.22836221474115301</v>
+        <v>0.45672944599535997</v>
       </c>
       <c r="R66" s="1">
-        <v>7.6795132564513396E-2</v>
+        <v>0.60588428489192303</v>
       </c>
       <c r="S66" s="1">
-        <v>0.18401863601006899</v>
+        <v>0.74544971119462</v>
       </c>
       <c r="T66" s="1">
-        <v>0.15810465422800099</v>
+        <v>0.46307667899082</v>
       </c>
       <c r="U66" s="1">
-        <v>5.8724186258355397E-2</v>
+        <v>0.56015262946965705</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="1">
-        <v>1.04568854568854E-2</v>
+        <v>0.47785772785772701</v>
       </c>
       <c r="C67" s="1">
-        <v>2.2391891891891901E-2</v>
+        <v>0.47230004394638497</v>
       </c>
       <c r="D67" s="1">
-        <v>2.0036270036269999E-2</v>
+        <v>0.35095965530748102</v>
       </c>
       <c r="E67" s="1">
-        <v>3.1730259671436098E-2</v>
+        <v>0.44329623741388402</v>
       </c>
       <c r="F67" s="1">
-        <v>1.2243596225798599E-2</v>
+        <v>0.62426813599951703</v>
       </c>
       <c r="G67" s="1">
-        <v>5.8519127533007698E-3</v>
+        <v>0.242946708463949</v>
       </c>
       <c r="H67" s="1">
-        <v>3.4103736662134801E-2</v>
+        <v>0.38939662688272197</v>
       </c>
       <c r="I67" s="1">
-        <v>2.1511080687943801E-2</v>
+        <v>0.44700949773252302</v>
       </c>
       <c r="J67" s="1">
-        <v>2.0858585858585799E-2</v>
+        <v>0.599023297491039</v>
       </c>
       <c r="K67" s="1">
-        <v>2.60352422907488E-2</v>
+        <v>0.32366666666666599</v>
       </c>
       <c r="L67" s="1">
-        <v>8.4888888888888896E-3</v>
+        <v>0.47589453860640202</v>
       </c>
       <c r="M67" s="1">
-        <v>4.7517730496453798E-3</v>
+        <v>0.41114074074073997</v>
       </c>
       <c r="N67" s="1">
-        <v>2.3227747463308E-2</v>
+        <v>0.600025338907893</v>
       </c>
       <c r="O67" s="1">
-        <v>2.6189127972819901E-3</v>
+        <v>0.50652098685591396</v>
       </c>
       <c r="P67" s="1">
-        <v>3.6349687648412599E-3</v>
+        <v>0.141503261865151</v>
       </c>
       <c r="Q67" s="1">
-        <v>4.5113948401309299E-2</v>
+        <v>0.28293948806668501</v>
       </c>
       <c r="R67" s="1">
-        <v>6.89546056237288E-3</v>
+        <v>0.44781780008073802</v>
       </c>
       <c r="S67" s="1">
-        <v>2.7273423296207799E-2</v>
+        <v>0.61120084039474898</v>
       </c>
       <c r="T67" s="1">
-        <v>2.4034143801396499E-2</v>
+        <v>0.29586589719426798</v>
       </c>
       <c r="U67" s="1">
-        <v>7.6310922370774002E-3</v>
+        <v>0.38203399738253202</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="1">
-        <v>2.168404344971E-19</v>
+        <v>0.27142564642564598</v>
       </c>
       <c r="C68" s="1">
-        <v>8.9189189189189E-4</v>
+        <v>0.27126364169047001</v>
       </c>
       <c r="D68" s="1">
-        <v>1.1407511407511401E-3</v>
+        <v>0.15878378378378299</v>
       </c>
       <c r="E68" s="1">
-        <v>1.5898251192368799E-3</v>
+        <v>0.28179650238473702</v>
       </c>
       <c r="F68" s="1">
-        <v>1.7890896645067901E-4</v>
+        <v>0.442903829405627</v>
       </c>
       <c r="G68" s="1">
-        <v>1.4508874594960499E-4</v>
+        <v>9.3639397310142494E-2</v>
       </c>
       <c r="H68" s="1">
-        <v>1.66440077452313E-3</v>
+        <v>0.17330066440188799</v>
       </c>
       <c r="I68" s="1">
-        <v>1.2492513048686499E-3</v>
+        <v>0.25808162916060501</v>
       </c>
       <c r="J68" s="1">
-        <v>9.7643097643097495E-4</v>
+        <v>0.40657706093189899</v>
       </c>
       <c r="K68" s="1">
-        <v>1.12090063631913E-3</v>
+        <v>0.156037037037037</v>
       </c>
       <c r="L68" s="1">
-        <v>2.2222222222222101E-4</v>
+        <v>0.28062146892655299</v>
       </c>
       <c r="M68" s="1">
-        <v>4.7281323877068099E-5</v>
+        <v>0.20294074074074001</v>
       </c>
       <c r="N68" s="1">
-        <v>9.2087351430499703E-4</v>
+        <v>0.419723172431268</v>
       </c>
       <c r="O68" s="1">
-        <v>0</v>
+        <v>0.29778133278873498</v>
       </c>
       <c r="P68" s="1">
-        <v>9.1330873488473604E-5</v>
+        <v>4.7815765370020698E-2</v>
       </c>
       <c r="Q68" s="1">
-        <v>1.86164848973766E-3</v>
+        <v>0.112963472653638</v>
       </c>
       <c r="R68" s="1">
-        <v>9.6658659917353099E-5</v>
+        <v>0.26267717466686602</v>
       </c>
       <c r="S68" s="1">
-        <v>1.1465675093994901E-3</v>
+        <v>0.42499641164858099</v>
       </c>
       <c r="T68" s="1">
-        <v>1.2148339990996301E-3</v>
+        <v>0.12325049065763199</v>
       </c>
       <c r="U68" s="1">
-        <v>1.6245862133439101E-4</v>
+        <v>0.176689683592231</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>0.12739850239850201</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>0.126977587343441</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>5.9341950646298401E-2</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>0.13957339692633799</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>0.22237455915703</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>3.2713115582970902E-2</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>6.7334575955265596E-2</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>0.12194746299306899</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>0.20414874551971299</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>6.5481481481481404E-2</v>
       </c>
       <c r="L69" s="1">
-        <v>0</v>
+        <v>0.137250470809792</v>
       </c>
       <c r="M69" s="1">
-        <v>0</v>
+        <v>8.0199999999999896E-2</v>
       </c>
       <c r="N69" s="1">
-        <v>0</v>
+        <v>0.219783352337514</v>
       </c>
       <c r="O69" s="1">
-        <v>0</v>
+        <v>0.13576359933513699</v>
       </c>
       <c r="P69" s="1">
-        <v>0</v>
+        <v>1.7795390395723101E-2</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>3.8178744151299501E-2</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>0.12659153273166601</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>0.21496969304227501</v>
       </c>
       <c r="T69" s="1">
-        <v>0</v>
+        <v>4.3624491528216097E-2</v>
       </c>
       <c r="U69" s="1">
-        <v>0</v>
+        <v>6.9346699026525294E-2</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>2.2230022230022201E-2</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>2.16023950780048E-2</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>9.5475910693301903E-3</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>3.1399046104928399E-2</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>3.5689956972001599E-2</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>5.2583678835069203E-3</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>1.1078375372034901E-2</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>2.17164370668263E-2</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>3.6908602150537602E-2</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1.02222222222222E-2</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>2.2391713747645901E-2</v>
       </c>
       <c r="M70" s="1">
-        <v>0</v>
+        <v>9.5037037037037104E-3</v>
       </c>
       <c r="N70" s="1">
-        <v>0</v>
+        <v>4.5942607373622199E-2</v>
       </c>
       <c r="O70" s="1">
-        <v>0</v>
+        <v>2.2697232197053399E-2</v>
       </c>
       <c r="P70" s="1">
-        <v>0</v>
+        <v>2.95343664130697E-3</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>3.77462352062281E-3</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>2.2918637075918801E-2</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>3.7285432022512E-2</v>
       </c>
       <c r="T70" s="1">
-        <v>0</v>
+        <v>6.5228468046716103E-3</v>
       </c>
       <c r="U70" s="1">
-        <v>0</v>
+        <v>1.0589058828222401E-2</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>1.3601263601263601E-3</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>8.3772797187431196E-4</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>3.2526065174565099E-19</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>1.5898251192368799E-3</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>1.74181476403583E-3</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>1.51683688947315E-4</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>1.72864744611129E-4</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>1.2492513048686499E-3</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1.7921146953405001E-3</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>2.5925925925925899E-4</v>
       </c>
       <c r="L71" s="1">
-        <v>0</v>
+        <v>1.3370998116760801E-3</v>
       </c>
       <c r="M71" s="1">
-        <v>0</v>
+        <v>1.18518518518518E-4</v>
       </c>
       <c r="N71" s="1">
-        <v>0</v>
+        <v>1.94792854427974E-3</v>
       </c>
       <c r="O71" s="1">
-        <v>0</v>
+        <v>8.9631659263545403E-4</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>9.3463184851486395E-5</v>
       </c>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1.0842021724855E-19</v>
       </c>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>1.2040941691327401E-3</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>1.78616795097143E-3</v>
       </c>
       <c r="T71" s="1">
-        <v>0</v>
+        <v>9.8806630137738595E-5</v>
       </c>
       <c r="U71" s="1">
-        <v>0</v>
+        <v>2.0295561164438699E-4</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
